--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -19,12 +19,144 @@
     <t>991000001799704574</t>
   </si>
   <si>
+    <t>991000364949704574</t>
+  </si>
+  <si>
+    <t>991000050149704574</t>
+  </si>
+  <si>
+    <t>991000220919704574</t>
+  </si>
+  <si>
+    <t>991000027049704574</t>
+  </si>
+  <si>
     <t>991000254419704574</t>
   </si>
   <si>
+    <t>991000202639704574</t>
+  </si>
+  <si>
+    <t>991000249439704574</t>
+  </si>
+  <si>
+    <t>991000112729704574</t>
+  </si>
+  <si>
+    <t>991000235819704574</t>
+  </si>
+  <si>
+    <t>991000072849704574</t>
+  </si>
+  <si>
+    <t>991000365019704574</t>
+  </si>
+  <si>
+    <t>991000050239704574</t>
+  </si>
+  <si>
+    <t>991000236569704574</t>
+  </si>
+  <si>
+    <t>991000239839704574</t>
+  </si>
+  <si>
+    <t>991000115259704574</t>
+  </si>
+  <si>
+    <t>991000601979704574</t>
+  </si>
+  <si>
+    <t>991000244649704574</t>
+  </si>
+  <si>
+    <t>991000661829704574</t>
+  </si>
+  <si>
+    <t>991000252139704574</t>
+  </si>
+  <si>
+    <t>991000329829704574</t>
+  </si>
+  <si>
+    <t>991001066317904574</t>
+  </si>
+  <si>
+    <t>991000240249704574</t>
+  </si>
+  <si>
+    <t>991000111799704574</t>
+  </si>
+  <si>
+    <t>991000250779704574</t>
+  </si>
+  <si>
+    <t>991000212849704574</t>
+  </si>
+  <si>
+    <t>991000364389704574</t>
+  </si>
+  <si>
+    <t>991000051099704574</t>
+  </si>
+  <si>
+    <t>991000247059704574</t>
+  </si>
+  <si>
+    <t>991000350969704574</t>
+  </si>
+  <si>
+    <t>991000067479704574</t>
+  </si>
+  <si>
+    <t>991000157529704574</t>
+  </si>
+  <si>
+    <t>991000257629704574</t>
+  </si>
+  <si>
+    <t>991000267479704574</t>
+  </si>
+  <si>
+    <t>991001070189604574</t>
+  </si>
+  <si>
+    <t>991000396619704574</t>
+  </si>
+  <si>
+    <t>991000084539704574</t>
+  </si>
+  <si>
+    <t>991000251609704574</t>
+  </si>
+  <si>
+    <t>991000364539704574</t>
+  </si>
+  <si>
+    <t>991000051309704574</t>
+  </si>
+  <si>
     <t>991000121389704574</t>
   </si>
   <si>
+    <t>991000383989704574</t>
+  </si>
+  <si>
+    <t>991000211589704574</t>
+  </si>
+  <si>
+    <t>991000107239704574</t>
+  </si>
+  <si>
+    <t>991000080409704574</t>
+  </si>
+  <si>
+    <t>991000399779704574</t>
+  </si>
+  <si>
+    <t>991000070059704574</t>
+  </si>
+  <si>
     <t>991000252329704574</t>
   </si>
   <si>
@@ -34,31 +166,7 @@
     <t>991000249599704574</t>
   </si>
   <si>
-    <t>991000080409704574</t>
-  </si>
-  <si>
-    <t>991000399779704574</t>
-  </si>
-  <si>
-    <t>991000257629704574</t>
-  </si>
-  <si>
-    <t>991000239839704574</t>
-  </si>
-  <si>
-    <t>991000249439704574</t>
-  </si>
-  <si>
-    <t>991000236569704574</t>
-  </si>
-  <si>
-    <t>991000115259704574</t>
-  </si>
-  <si>
-    <t>991000364949704574</t>
-  </si>
-  <si>
-    <t>991000050149704574</t>
+    <t>991000244239704574</t>
   </si>
   <si>
     <t>991000250179704574</t>
@@ -73,129 +181,129 @@
     <t>991000451839704574</t>
   </si>
   <si>
-    <t>991000329829704574</t>
-  </si>
-  <si>
-    <t>991000111799704574</t>
-  </si>
-  <si>
-    <t>991000244649704574</t>
-  </si>
-  <si>
-    <t>991000661829704574</t>
-  </si>
-  <si>
-    <t>991000112729704574</t>
-  </si>
-  <si>
-    <t>991000235819704574</t>
-  </si>
-  <si>
-    <t>991000072849704574</t>
-  </si>
-  <si>
-    <t>991000027049704574</t>
-  </si>
-  <si>
-    <t>991001070189604574</t>
-  </si>
-  <si>
-    <t>991000383989704574</t>
-  </si>
-  <si>
-    <t>991000211589704574</t>
-  </si>
-  <si>
-    <t>991000396619704574</t>
-  </si>
-  <si>
-    <t>991000084539704574</t>
-  </si>
-  <si>
-    <t>991000107239704574</t>
-  </si>
-  <si>
-    <t>991000212849704574</t>
-  </si>
-  <si>
-    <t>991000247059704574</t>
-  </si>
-  <si>
-    <t>991000244239704574</t>
-  </si>
-  <si>
-    <t>991000350969704574</t>
-  </si>
-  <si>
-    <t>991000067479704574</t>
-  </si>
-  <si>
-    <t>991000267479704574</t>
-  </si>
-  <si>
-    <t>991000365019704574</t>
-  </si>
-  <si>
-    <t>991000050239704574</t>
-  </si>
-  <si>
-    <t>991000220919704574</t>
+    <t>991001069871904574</t>
   </si>
   <si>
     <t>991001094844904574</t>
   </si>
   <si>
-    <t>991000252139704574</t>
-  </si>
-  <si>
-    <t>991000601979704574</t>
-  </si>
-  <si>
-    <t>991000070059704574</t>
-  </si>
-  <si>
-    <t>991000251609704574</t>
-  </si>
-  <si>
-    <t>991000364389704574</t>
-  </si>
-  <si>
-    <t>991000157529704574</t>
-  </si>
-  <si>
-    <t>991000051099704574</t>
-  </si>
-  <si>
-    <t>991000240249704574</t>
-  </si>
-  <si>
-    <t>991000202639704574</t>
-  </si>
-  <si>
-    <t>991000250779704574</t>
-  </si>
-  <si>
-    <t>991001066317904574</t>
-  </si>
-  <si>
-    <t>991000364539704574</t>
-  </si>
-  <si>
-    <t>991000051309704574</t>
-  </si>
-  <si>
-    <t>991001069871904574</t>
-  </si>
-  <si>
     <t xml:space="preserve">Love and sex after 60 </t>
   </si>
   <si>
+    <t>Dangerous men &amp; adventurous women</t>
+  </si>
+  <si>
+    <t>Transforming desire</t>
+  </si>
+  <si>
+    <t>The currency of Eros</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sex, dating, and love </t>
   </si>
   <si>
+    <t>"When the lamp is shattered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love &amp; loss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Austen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Austen and the war of ideas </t>
+  </si>
+  <si>
+    <t>Writing love</t>
+  </si>
+  <si>
+    <t>Critical tales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The road less traveled </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angels of September </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northanger Abbey ; Lady Susan ; The Watsons ; and Sanditon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middlemarch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erotic faith </t>
+  </si>
+  <si>
+    <t>Four complete novels /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free to love again </t>
+  </si>
+  <si>
+    <t>The Symposium ; and, The Phaedrus</t>
+  </si>
+  <si>
+    <t>Teenage couples. how to build a relationship that lasts / Caring, commitment, and change</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear God, kids rainbow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical Hollywood comedy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love and friendship </t>
+  </si>
+  <si>
+    <t>Medieval Latin and the rise of European love-lyric</t>
+  </si>
+  <si>
+    <t>The art of love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Eyre </t>
+  </si>
+  <si>
+    <t>Catullan provocations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of kings and poets </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd rather be married </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be happy you are loved </t>
+  </si>
+  <si>
+    <t>Of chastity and power</t>
+  </si>
+  <si>
+    <t>Boston marriages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandfather's journey </t>
+  </si>
+  <si>
+    <t>Rethinking The romance of the Rose</t>
+  </si>
+  <si>
     <t>The sacred and profane love machine</t>
   </si>
   <si>
+    <t>The Song of Eros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Elizabethan love sonnet </t>
+  </si>
+  <si>
+    <t>Letters to Margaret Gilcriest</t>
+  </si>
+  <si>
+    <t>Love and friendship in Plato and Aristotle</t>
+  </si>
+  <si>
     <t xml:space="preserve">The pursuit of love </t>
   </si>
   <si>
@@ -205,25 +313,7 @@
     <t xml:space="preserve">Creating love </t>
   </si>
   <si>
-    <t>Letters to Margaret Gilcriest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I'd rather be married </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Angels of September </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love &amp; loss </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The road less traveled </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northanger Abbey ; Lady Susan ; The Watsons ; and Sanditon </t>
-  </si>
-  <si>
-    <t>Dangerous men &amp; adventurous women</t>
+    <t xml:space="preserve">Getting the love you want </t>
   </si>
   <si>
     <t xml:space="preserve">Double-header </t>
@@ -238,136 +328,136 @@
     <t xml:space="preserve">Wizard and Wart </t>
   </si>
   <si>
-    <t>The Symposium ; and, The Phaedrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Classical Hollywood comedy </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erotic faith </t>
-  </si>
-  <si>
-    <t>Four complete novels /</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Austen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Austen and the war of ideas </t>
-  </si>
-  <si>
-    <t>Writing love</t>
-  </si>
-  <si>
-    <t>The currency of Eros</t>
-  </si>
-  <si>
-    <t>Of chastity and power</t>
-  </si>
-  <si>
-    <t>The Song of Eros</t>
-  </si>
-  <si>
-    <t>Boston marriages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Elizabethan love sonnet </t>
-  </si>
-  <si>
-    <t>Medieval Latin and the rise of European love-lyric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Eyre </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Getting the love you want </t>
-  </si>
-  <si>
-    <t>Catullan provocations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Be happy you are loved </t>
-  </si>
-  <si>
-    <t>Critical tales</t>
-  </si>
-  <si>
-    <t>Transforming desire</t>
+    <t xml:space="preserve">Shamans and kushtakas </t>
   </si>
   <si>
     <t xml:space="preserve">The diary of a man of fifty </t>
   </si>
   <si>
-    <t xml:space="preserve">Free to love again </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middlemarch </t>
-  </si>
-  <si>
-    <t>Love and friendship in Plato and Aristotle</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Grandfather's journey </t>
-  </si>
-  <si>
-    <t>The art of love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of kings and poets </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dear God, kids rainbow </t>
-  </si>
-  <si>
-    <t>"When the lamp is shattered</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love and friendship </t>
-  </si>
-  <si>
-    <t>Teenage couples. how to build a relationship that lasts / Caring, commitment, and change</t>
-  </si>
-  <si>
-    <t>Rethinking The romance of the Rose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shamans and kushtakas </t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
     <t>['sex', 'instruction', 'older', 'people', 'love', 'age']</t>
   </si>
   <si>
+    <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
+  </si>
+  <si>
+    <t>['erotic', 'poetry', 'english', 'epic', 'desire', 'literature', 'love', 'sex']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'european', 'literature', 'women', 'sex', 'role']</t>
+  </si>
+  <si>
     <t>['dating', 'social', 'customs', 'love', 'sex']</t>
   </si>
   <si>
+    <t>['love', 'poetry', 'latin', 'psychoanalysis', 'literature', 'desire', 'narration', 'rhetoric', 'rome', 'ancient']</t>
+  </si>
+  <si>
+    <t>['love', 'stories', 'english', 'american', 'fiction']</t>
+  </si>
+  <si>
+    <t>['women', 'literature', 'love', 'stories', 'english']</t>
+  </si>
+  <si>
+    <t>['english', 'fiction', 'women', 'literature', 'love', 'stories']</t>
+  </si>
+  <si>
+    <t>['french', 'fiction', 'epistolary', 'love', 'stories', 'women', 'literature', 'letters']</t>
+  </si>
+  <si>
+    <t>['women', 'literature', 'love', 'stories', 'french', 'characters', 'characteristics', 'rhetoric', 'literary', 'form']</t>
+  </si>
+  <si>
+    <t>['self', 'actualization', 'psychology', 'maturation', 'interpersonal', 'relations', 'love', 'values', 'spirituality']</t>
+  </si>
+  <si>
+    <t>['love', 'stories', 'detective', 'mystery']</t>
+  </si>
+  <si>
+    <t>['horror', 'tales', 'books', 'reading', 'love', 'stories', 'english']</t>
+  </si>
+  <si>
+    <t>['english', 'city', 'town', 'life', 'married', 'people', 'young', 'women']</t>
+  </si>
+  <si>
+    <t>['english', 'fiction', 'love', 'stories', 'literature']</t>
+  </si>
+  <si>
+    <t>['literature', 'historical', 'fiction', 'love', 'stories']</t>
+  </si>
+  <si>
+    <t>['sex', 'christian', 'life']</t>
+  </si>
+  <si>
+    <t>['love', 'soul', 'rhetoric', 'ancient']</t>
+  </si>
+  <si>
+    <t>['man', 'woman', 'relationships', 'teenagers', 'love', 'mate', 'selection', 'family', 'marriage', 'sociology', 'social', 'history', 'sciences']</t>
+  </si>
+  <si>
+    <t>['god', 'christianity', 'providence', 'government', 'color', 'early', 'childhood', 'education', 'children', 'stories']</t>
+  </si>
+  <si>
+    <t>['comedy', 'films', 'love', 'motion', 'pictures']</t>
+  </si>
+  <si>
+    <t>['love', 'literature', 'european', 'friendship']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'european', 'latin', 'medieval', 'modern']</t>
+  </si>
+  <si>
+    <t>['courtly', 'love', 'literature', 'poetry', 'latin', 'medieval', 'modern']</t>
+  </si>
+  <si>
+    <t>['governesses', 'fathers', 'daughters', 'mentally', 'ill', 'women', 'charity', 'schools', 'married', 'people', 'country', 'homes', 'young', 'orphans']</t>
+  </si>
+  <si>
+    <t>['verse', 'satire', 'latin', 'love', 'epigrams']</t>
+  </si>
+  <si>
+    <t>['spanish', 'poetry', 'courtly', 'love', 'literature', 'authors', 'patrons']</t>
+  </si>
+  <si>
+    <t>['mate', 'selection', 'man', 'woman', 'relationships', 'dating', 'social', 'customs', 'love']</t>
+  </si>
+  <si>
+    <t>['god', 'love', 'self', 'esteem', 'large', 'type', 'books']</t>
+  </si>
+  <si>
+    <t>['chastity', 'literature', 'english', 'feminism', 'kings', 'rulers', 'social', 'sciences', 'queens', 'sex', 'role', 'single', 'women']</t>
+  </si>
+  <si>
+    <t>['lesbian', 'couples', 'platonic', 'love']</t>
+  </si>
+  <si>
+    <t>['grandfathers', 'caldecott', 'medal', 'voyages', 'travels', 'homesickness', 'early', 'childhood', 'education', 'children', 'stories', 'social', 'issues', 'japanese', 'americans']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'french', 'literature', 'medieval', 'romances', 'manuscripts', 'courtly']</t>
+  </si>
+  <si>
     <t>['man', 'woman', 'relationships', 'married', 'people']</t>
   </si>
   <si>
+    <t>['love', 'poetry', 'greek']</t>
+  </si>
+  <si>
+    <t>['sonnets', 'english', 'poetry', 'love']</t>
+  </si>
+  <si>
+    <t>['world', 'war', 'authors', 'welsh', 'soldiers', 'love', 'letters']</t>
+  </si>
+  <si>
+    <t>['love', 'friendship']</t>
+  </si>
+  <si>
     <t>['love']</t>
   </si>
   <si>
-    <t>['world', 'war', 'authors', 'welsh', 'soldiers', 'love', 'letters']</t>
-  </si>
-  <si>
-    <t>['mate', 'selection', 'man', 'woman', 'relationships', 'dating', 'social', 'customs', 'love']</t>
-  </si>
-  <si>
-    <t>['love', 'stories', 'detective', 'mystery']</t>
-  </si>
-  <si>
-    <t>['love', 'stories', 'english', 'american', 'fiction']</t>
-  </si>
-  <si>
-    <t>['self', 'actualization', 'psychology', 'maturation', 'interpersonal', 'relations', 'love', 'values', 'spirituality']</t>
-  </si>
-  <si>
-    <t>['horror', 'tales', 'books', 'reading', 'love', 'stories', 'english']</t>
-  </si>
-  <si>
-    <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
+    <t>['marriage', 'love']</t>
   </si>
   <si>
     <t>['monsters', 'baseball', 'early', 'childhood', 'education', 'children', 'stories']</t>
@@ -382,133 +472,133 @@
     <t>['wizards', 'magic', 'animals', 'witchcraft', 'early', 'childhood', 'education', 'children', 'stories']</t>
   </si>
   <si>
-    <t>['love', 'soul', 'rhetoric', 'ancient']</t>
-  </si>
-  <si>
-    <t>['comedy', 'films', 'love', 'motion', 'pictures']</t>
-  </si>
-  <si>
-    <t>['english', 'fiction', 'love', 'stories', 'literature']</t>
-  </si>
-  <si>
-    <t>['literature', 'historical', 'fiction', 'love', 'stories']</t>
-  </si>
-  <si>
-    <t>['women', 'literature', 'love', 'stories', 'english']</t>
-  </si>
-  <si>
-    <t>['english', 'fiction', 'women', 'literature', 'love', 'stories']</t>
-  </si>
-  <si>
-    <t>['french', 'fiction', 'epistolary', 'love', 'stories', 'women', 'literature', 'letters']</t>
-  </si>
-  <si>
-    <t>['love', 'poetry', 'european', 'literature', 'women', 'sex', 'role']</t>
-  </si>
-  <si>
-    <t>['chastity', 'literature', 'english', 'feminism', 'kings', 'rulers', 'social', 'sciences', 'queens', 'sex', 'role', 'single', 'women']</t>
-  </si>
-  <si>
-    <t>['love', 'poetry', 'greek']</t>
-  </si>
-  <si>
-    <t>['lesbian', 'couples', 'platonic', 'love']</t>
-  </si>
-  <si>
-    <t>['sonnets', 'english', 'poetry', 'love']</t>
-  </si>
-  <si>
-    <t>['love', 'poetry', 'european', 'latin', 'medieval', 'modern']</t>
-  </si>
-  <si>
-    <t>['governesses', 'fathers', 'daughters', 'mentally', 'ill', 'women', 'charity', 'schools', 'married', 'people', 'country', 'homes', 'young', 'orphans']</t>
-  </si>
-  <si>
-    <t>['marriage', 'love']</t>
-  </si>
-  <si>
-    <t>['verse', 'satire', 'latin', 'love', 'epigrams']</t>
-  </si>
-  <si>
-    <t>['god', 'love', 'self', 'esteem', 'large', 'type', 'books']</t>
-  </si>
-  <si>
-    <t>['women', 'literature', 'love', 'stories', 'french', 'characters', 'characteristics', 'rhetoric', 'literary', 'form']</t>
-  </si>
-  <si>
-    <t>['erotic', 'poetry', 'english', 'epic', 'desire', 'literature', 'love', 'sex']</t>
+    <t>['tlingit', 'indians', 'haida', 'mythology', 'ethnic', 'race', 'studies', 'gender', 'social', 'sciences']</t>
   </si>
   <si>
     <t>['aging']</t>
   </si>
   <si>
-    <t>['sex', 'christian', 'life']</t>
-  </si>
-  <si>
-    <t>['english', 'city', 'town', 'life', 'married', 'people', 'young', 'women']</t>
-  </si>
-  <si>
-    <t>['love', 'friendship']</t>
-  </si>
-  <si>
-    <t>['grandfathers', 'caldecott', 'medal', 'voyages', 'travels', 'homesickness', 'early', 'childhood', 'education', 'children', 'stories', 'social', 'issues', 'japanese', 'americans']</t>
-  </si>
-  <si>
-    <t>['courtly', 'love', 'literature', 'poetry', 'latin', 'medieval', 'modern']</t>
-  </si>
-  <si>
-    <t>['spanish', 'poetry', 'courtly', 'love', 'literature', 'authors', 'patrons']</t>
-  </si>
-  <si>
-    <t>['god', 'christianity', 'providence', 'government', 'color', 'early', 'childhood', 'education', 'children', 'stories']</t>
-  </si>
-  <si>
-    <t>['love', 'poetry', 'latin', 'psychoanalysis', 'literature', 'desire', 'narration', 'rhetoric', 'rome', 'ancient']</t>
-  </si>
-  <si>
-    <t>['love', 'literature', 'european', 'friendship']</t>
-  </si>
-  <si>
-    <t>['man', 'woman', 'relationships', 'teenagers', 'love', 'mate', 'selection', 'family', 'marriage', 'sociology', 'social', 'history', 'sciences']</t>
-  </si>
-  <si>
-    <t>['love', 'poetry', 'french', 'literature', 'medieval', 'romances', 'manuscripts', 'courtly']</t>
-  </si>
-  <si>
-    <t>['tlingit', 'indians', 'haida', 'mythology', 'ethnic', 'race', 'studies', 'gender', 'social', 'sciences']</t>
-  </si>
-  <si>
     <t>['dXHAyncBufXmZs9o45Vl', 'dnHAyncBufXmZs9o45Vt', 'enHAyncBufXmZs9o45WS', 'eHHAyncBufXmZs9o45WA', 'eXHAyncBufXmZs9o45WJ', 'enHAyncBufXmZs9o45WS', 'b3HAyncBufXmZs9o45Ux']</t>
   </si>
   <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['erotic', 'titillating'], ['poetry', 'poesy', 'verse'], ['english', 'English', 'English_language', 'English_people', 'side'], ['epic', 'epic_poem', 'heroic_poem', 'epos', 'heroic', 'larger-than-life', 'epical'], ['desire', 'want', 'hope', 'trust'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['literature', 'lit'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use']]</t>
+  </si>
+  <si>
     <t>[['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
   </si>
   <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['latin', 'Latin', 'Romance'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['narration', 'narrative', 'story', 'tale', 'recital', 'yarn'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side'], ['american', 'American', 'American_English', 'American_language'], ['fiction', 'fabrication', 'fable']]</t>
+  </si>
+  <si>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['fiction', 'fabrication', 'fable'], ['epistolary', 'epistolatory'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
+  </si>
+  <si>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['narration', 'narrative', 'story', 'tale', 'recital', 'yarn'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+  </si>
+  <si>
+    <t>[['self', 'ego'], ['actualization', 'realization', 'realisation', 'actualisation'], ['psychology', 'psychological_science'], ['maturation', 'ripening', 'maturement', 'growth', 'growing', 'development', 'ontogeny', 'ontogenesis', 'festering', 'suppuration'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['spirituality', 'spiritualty', 'church_property', 'spiritualism', 'spiritism', 'otherworldliness']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['detective', 'investigator', 'tec', 'police_detective'], ['mystery', 'enigma', 'secret', 'closed_book', 'mystery_story', 'whodunit']]</t>
+  </si>
+  <si>
+    <t>[['horror', 'repugnance', 'repulsion', 'revulsion'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold'], ['reading', 'meter_reading', 'indication', 'reading_material', 'interpretation', 'version', 'Reading', 'recitation', 'recital', 'read', 'say', 'scan', 'take', 'learn', 'study', 'register', 'show', 'record', 'understand', 'interpret', 'translate'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['historical', 'historic', 'diachronic'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['soul', 'psyche', 'person', 'individual', 'someone', 'somebody', 'mortal', 'soulfulness'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['ancient', 'antediluvian']]</t>
+  </si>
+  <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['teenagers', 'adolescent', 'stripling', 'teenager', 'teen'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['household', 'family', 'house', 'home', 'menage'], ['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['sociology'], ['social', 'sociable', 'mixer', 'societal'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
+  </si>
+  <si>
+    <t>[['old', 'older', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['christianity', 'Christianity', 'Christian_religion', 'Christendom'], ['providence', 'Providence', 'capital_of_Rhode_Island'], ['government', 'authorities', 'regime', 'governing', 'governance', 'government_activity', 'administration', 'politics', 'political_science'], ['color', 'colour', 'coloring', 'colouring', 'vividness', 'coloration', 'colouration', 'people_of_color', 'people_of_colour', 'semblance', 'gloss', 'coloring_material', 'colouring_material', 'colorize', 'colorise', 'colourise', 'colourize', 'color_in', 'colour_in', 'tinge', 'distort', 'emblazon', 'discolor', 'discolour'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['comedy', 'drollery', 'clowning', 'funniness'], ['films', 'movie', 'film', 'picture', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'cinema', 'celluloid', 'photographic_film', 'plastic_film', 'shoot', 'take'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['motion', 'gesture', 'movement', 'move', 'motility', 'question', 'apparent_motion', 'apparent_movement', 'gesticulate'], ['pictures', 'picture', 'image', 'icon', 'ikon', 'painting', 'mental_picture', 'impression', 'scene', 'pictorial_matter', 'movie', 'film', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'video', 'word_picture', 'word-painting', 'delineation', 'depiction', 'characterization', 'characterisation', 'photograph', 'photo', 'exposure', 'visualize', 'visualise', 'envision', 'project', 'fancy', 'see', 'figure', 'depict', 'render', 'show']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['european', 'European'], ['friendship', 'friendly_relationship']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['latin', 'Latin', 'Romance'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+  </si>
+  <si>
+    <t>[['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['poetry', 'poesy', 'verse'], ['latin', 'Latin', 'Romance'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+  </si>
+  <si>
+    <t>[['governesses', 'governess', 'regulate', 'regularize', 'regularise', 'order', 'govern', 'rule'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['mentally'], ['ill', 'ailment', 'complaint', 'sick', 'inauspicious', 'ominous', 'badly', 'poorly'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['charity', 'brotherly_love', "Jacob's_ladder", 'Greek_valerian', 'Polemonium_caeruleum', 'Polemonium_van-bruntiae', 'Polymonium_caeruleum_van-bruntiae'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['country', 'state', 'nation', 'land', 'commonwealth', 'res_publica', 'body_politic', 'rural_area', 'area'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['orphans', 'orphan']]</t>
+  </si>
+  <si>
+    <t>[['poetry', 'poesy', 'verse'], ['satire', 'sarcasm', 'irony', 'caustic_remark'], ['latin', 'Latin', 'Romance'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['epigrams', 'epigram', 'quip']]</t>
+  </si>
+  <si>
+    <t>[['spanish', 'Spanish', 'Spanish_people'], ['poetry', 'poesy', 'verse'], ['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['authors', 'writer', 'author', 'generator', 'source'], ['patrons', 'patron', 'frequenter', 'sponsor', 'supporter']]</t>
+  </si>
+  <si>
+    <t>[['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['old', 'older', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['self', 'ego'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['large', 'big', 'bombastic', 'declamatory', 'orotund', 'tumid', 'turgid', 'magnanimous', 'prominent', 'enceinte', 'expectant', 'gravid', 'great', 'heavy', 'with_child', 'boastfully', 'vauntingly'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold']]</t>
+  </si>
+  <si>
+    <t>[['chastity', 'celibacy', 'sexual_abstention', 'virtue', 'sexual_morality'], ['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side'], ['feminism', 'feminist_movement', "women's_liberation_movement", "women's_lib"], ['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['rulers', 'ruler', 'swayer', 'rule'], ['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill'], ['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['single', 'bingle', 'one', '1', 'I', 'ace', 'unity', 'individual', 'unmarried', 'undivided', 'exclusive'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['lesbian', 'tribade', 'gay_woman', 'Lesbian', 'sapphic'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['platonic', 'Platonic'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['grandfathers', 'grandfather', 'gramps', 'granddad', 'grandad', 'granddaddy', 'grandpa'], ['caldecott'], ['medal', 'decoration', 'laurel_wreath', 'medallion', 'palm', 'ribbon'], ['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['travels', 'travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around'], ['homesickness'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['social', 'sociable', 'mixer', 'societal'], ['issues', 'issue', 'number', 'topic', 'subject', 'matter', 'issuing', 'issuance', 'military_issue', 'government_issue', 'return', 'take', 'takings', 'proceeds', 'yield', 'payoff', 'consequence', 'effect', 'outcome', 'result', 'event', 'upshot', 'offspring', 'progeny', 'emergence', 'egress', 'exit', 'outlet', 'way_out', 'publication', 'publish', 'bring_out', 'put_out', 'release', 'supply', 'emerge', 'come_out', 'come_forth', 'go_forth', 'write_out', 'make_out', 'cut'], ['japanese', 'Japanese', 'Nipponese'], ['americans', 'American', 'American_English', 'American_language']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['literature', 'lit'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['romances', 'love_affair', 'romance', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash'], ['manuscripts', 'manuscript', 'ms', 'holograph'], ['courtly', 'formal', 'stately']]</t>
+  </si>
+  <si>
     <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed']]</t>
   </si>
   <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['greek', 'Greek', 'Hellenic', 'Hellenic_language', 'Hellene', 'Grecian']]</t>
+  </si>
+  <si>
+    <t>[['sonnets', 'sonnet'], ['english', 'English', 'English_language', 'English_people', 'side'], ['poetry', 'poesy', 'verse'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['war', 'warfare', 'state_of_war'], ['authors', 'writer', 'author', 'generator', 'source'], ['welsh', 'Welshman', 'Welsh', 'Cambrian', 'Cymry', 'Cymric', 'Welsh_Black', 'welch'], ['soldiers', 'soldier'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['friendship', 'friendly_relationship']]</t>
+  </si>
+  <si>
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
   </si>
   <si>
-    <t>[['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['war', 'warfare', 'state_of_war'], ['authors', 'writer', 'author', 'generator', 'source'], ['welsh', 'Welshman', 'Welsh', 'Cambrian', 'Cymry', 'Cymric', 'Welsh_Black', 'welch'], ['soldiers', 'soldier'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
-  </si>
-  <si>
-    <t>[['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['detective', 'investigator', 'tec', 'police_detective'], ['mystery', 'enigma', 'secret', 'closed_book', 'mystery_story', 'whodunit']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side'], ['american', 'American', 'American_English', 'American_language'], ['fiction', 'fabrication', 'fable']]</t>
-  </si>
-  <si>
-    <t>[['self', 'ego'], ['actualization', 'realization', 'realisation', 'actualisation'], ['psychology', 'psychological_science'], ['maturation', 'ripening', 'maturement', 'growth', 'growing', 'development', 'ontogeny', 'ontogenesis', 'festering', 'suppuration'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['spirituality', 'spiritualty', 'church_property', 'spiritualism', 'spiritism', 'otherworldliness']]</t>
-  </si>
-  <si>
-    <t>[['horror', 'repugnance', 'repulsion', 'revulsion'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold'], ['reading', 'meter_reading', 'indication', 'reading_material', 'interpretation', 'version', 'Reading', 'recitation', 'recital', 'read', 'say', 'scan', 'take', 'learn', 'study', 'register', 'show', 'record', 'understand', 'interpret', 'translate'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
+    <t>[['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
   </si>
   <si>
     <t>[['monsters', 'monster', 'giant', 'goliath', 'behemoth', 'colossus', 'freak', 'monstrosity', 'lusus_naturae', 'fiend', 'devil', 'demon', 'ogre', 'teras'], ['baseball', 'baseball_game'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
@@ -523,100 +613,10 @@
     <t>[['wizards', 'ace', 'adept', 'champion', 'sensation', 'maven', 'mavin', 'virtuoso', 'genius', 'hotshot', 'star', 'superstar', 'whiz', 'whizz', 'wizard', 'wiz', 'sorcerer', 'magician', 'necromancer', 'thaumaturge', 'thaumaturgist'], ['magic', 'thaumaturgy', 'magic_trick', 'conjuring_trick', 'trick', 'legerdemain', 'conjuration', 'illusion', 'deception', 'charming', 'magical', 'sorcerous', 'witching', 'wizard', 'wizardly'], ['animals', 'animal', 'animate_being', 'beast', 'brute', 'creature', 'fauna'], ['witchcraft', 'witchery'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
   </si>
   <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['soul', 'psyche', 'person', 'individual', 'someone', 'somebody', 'mortal', 'soulfulness'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['ancient', 'antediluvian']]</t>
-  </si>
-  <si>
-    <t>[['comedy', 'drollery', 'clowning', 'funniness'], ['films', 'movie', 'film', 'picture', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'cinema', 'celluloid', 'photographic_film', 'plastic_film', 'shoot', 'take'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['motion', 'gesture', 'movement', 'move', 'motility', 'question', 'apparent_motion', 'apparent_movement', 'gesticulate'], ['pictures', 'picture', 'image', 'icon', 'ikon', 'painting', 'mental_picture', 'impression', 'scene', 'pictorial_matter', 'movie', 'film', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'video', 'word_picture', 'word-painting', 'delineation', 'depiction', 'characterization', 'characterisation', 'photograph', 'photo', 'exposure', 'visualize', 'visualise', 'envision', 'project', 'fancy', 'see', 'figure', 'depict', 'render', 'show']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['literature', 'lit']]</t>
-  </si>
-  <si>
-    <t>[['literature', 'lit'], ['historical', 'historic', 'diachronic'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
-    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
-    <t>[['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['fiction', 'fabrication', 'fable'], ['epistolary', 'epistolatory'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['literature', 'lit'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use']]</t>
-  </si>
-  <si>
-    <t>[['chastity', 'celibacy', 'sexual_abstention', 'virtue', 'sexual_morality'], ['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side'], ['feminism', 'feminist_movement', "women's_liberation_movement", "women's_lib"], ['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['rulers', 'ruler', 'swayer', 'rule'], ['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill'], ['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['single', 'bingle', 'one', '1', 'I', 'ace', 'unity', 'individual', 'unmarried', 'undivided', 'exclusive'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['greek', 'Greek', 'Hellenic', 'Hellenic_language', 'Hellene', 'Grecian']]</t>
-  </si>
-  <si>
-    <t>[['lesbian', 'tribade', 'gay_woman', 'Lesbian', 'sapphic'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['platonic', 'Platonic'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
-  </si>
-  <si>
-    <t>[['sonnets', 'sonnet'], ['english', 'English', 'English_language', 'English_people', 'side'], ['poetry', 'poesy', 'verse'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['latin', 'Latin', 'Romance'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
-  </si>
-  <si>
-    <t>[['governesses', 'governess', 'regulate', 'regularize', 'regularise', 'order', 'govern', 'rule'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['mentally'], ['ill', 'ailment', 'complaint', 'sick', 'inauspicious', 'ominous', 'badly', 'poorly'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['charity', 'brotherly_love', "Jacob's_ladder", 'Greek_valerian', 'Polemonium_caeruleum', 'Polemonium_van-bruntiae', 'Polymonium_caeruleum_van-bruntiae'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['country', 'state', 'nation', 'land', 'commonwealth', 'res_publica', 'body_politic', 'rural_area', 'area'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['orphans', 'orphan']]</t>
-  </si>
-  <si>
-    <t>[['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
-  </si>
-  <si>
-    <t>[['poetry', 'poesy', 'verse'], ['satire', 'sarcasm', 'irony', 'caustic_remark'], ['latin', 'Latin', 'Romance'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['epigrams', 'epigram', 'quip']]</t>
-  </si>
-  <si>
-    <t>[['old', 'older', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['self', 'ego'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['large', 'big', 'bombastic', 'declamatory', 'orotund', 'tumid', 'turgid', 'magnanimous', 'prominent', 'enceinte', 'expectant', 'gravid', 'great', 'heavy', 'with_child', 'boastfully', 'vauntingly'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold']]</t>
-  </si>
-  <si>
-    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['narration', 'narrative', 'story', 'tale', 'recital', 'yarn'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
-  </si>
-  <si>
-    <t>[['erotic', 'titillating'], ['poetry', 'poesy', 'verse'], ['english', 'English', 'English_language', 'English_people', 'side'], ['epic', 'epic_poem', 'heroic_poem', 'epos', 'heroic', 'larger-than-life', 'epical'], ['desire', 'want', 'hope', 'trust'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
+    <t>[['tlingit', 'Tlingit'], ['indians', 'Indian', 'American_Indian', 'Red_Indian', 'Amerind', 'Amerindian_language', 'American-Indian_language'], ['haida', 'Haida'], ['mythology'], ['ethnic', 'cultural', 'ethnical', 'heathen', 'heathenish', 'pagan'], ['race', 'subspecies', 'slipstream', 'airstream', 'backwash', 'wash', 'raceway', 'rush', 'hotfoot', 'hasten', 'hie', 'speed', 'pelt_along', 'rush_along', 'cannonball_along', 'bucket_along', 'belt_along', 'step_on_it', 'run'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
   </si>
   <si>
     <t>[['aging', 'ripening', 'ageing', 'senescence', 'age', 'senesce', 'get_on', 'mature', 'maturate', 'senescent']]</t>
-  </si>
-  <si>
-    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['friendship', 'friendly_relationship']]</t>
-  </si>
-  <si>
-    <t>[['grandfathers', 'grandfather', 'gramps', 'granddad', 'grandad', 'granddaddy', 'grandpa'], ['caldecott'], ['medal', 'decoration', 'laurel_wreath', 'medallion', 'palm', 'ribbon'], ['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['travels', 'travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around'], ['homesickness'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['social', 'sociable', 'mixer', 'societal'], ['issues', 'issue', 'number', 'topic', 'subject', 'matter', 'issuing', 'issuance', 'military_issue', 'government_issue', 'return', 'take', 'takings', 'proceeds', 'yield', 'payoff', 'consequence', 'effect', 'outcome', 'result', 'event', 'upshot', 'offspring', 'progeny', 'emergence', 'egress', 'exit', 'outlet', 'way_out', 'publication', 'publish', 'bring_out', 'put_out', 'release', 'supply', 'emerge', 'come_out', 'come_forth', 'go_forth', 'write_out', 'make_out', 'cut'], ['japanese', 'Japanese', 'Nipponese'], ['americans', 'American', 'American_English', 'American_language']]</t>
-  </si>
-  <si>
-    <t>[['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['poetry', 'poesy', 'verse'], ['latin', 'Latin', 'Romance'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
-  </si>
-  <si>
-    <t>[['spanish', 'Spanish', 'Spanish_people'], ['poetry', 'poesy', 'verse'], ['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['authors', 'writer', 'author', 'generator', 'source'], ['patrons', 'patron', 'frequenter', 'sponsor', 'supporter']]</t>
-  </si>
-  <si>
-    <t>[['old', 'older', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['christianity', 'Christianity', 'Christian_religion', 'Christendom'], ['providence', 'Providence', 'capital_of_Rhode_Island'], ['government', 'authorities', 'regime', 'governing', 'governance', 'government_activity', 'administration', 'politics', 'political_science'], ['color', 'colour', 'coloring', 'colouring', 'vividness', 'coloration', 'colouration', 'people_of_color', 'people_of_colour', 'semblance', 'gloss', 'coloring_material', 'colouring_material', 'colorize', 'colorise', 'colourise', 'colourize', 'color_in', 'colour_in', 'tinge', 'distort', 'emblazon', 'discolor', 'discolour'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['latin', 'Latin', 'Romance'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['narration', 'narrative', 'story', 'tale', 'recital', 'yarn'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['european', 'European'], ['friendship', 'friendly_relationship']]</t>
-  </si>
-  <si>
-    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['teenagers', 'adolescent', 'stripling', 'teenager', 'teen'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['household', 'family', 'house', 'home', 'menage'], ['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['sociology'], ['social', 'sociable', 'mixer', 'societal'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['literature', 'lit'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['romances', 'love_affair', 'romance', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash'], ['manuscripts', 'manuscript', 'ms', 'holograph'], ['courtly', 'formal', 'stately']]</t>
-  </si>
-  <si>
-    <t>[['tlingit', 'Tlingit'], ['indians', 'Indian', 'American_Indian', 'Red_Indian', 'Amerind', 'Amerindian_language', 'American-Indian_language'], ['haida', 'Haida'], ['mythology'], ['ethnic', 'cultural', 'ethnical', 'heathen', 'heathenish', 'pagan'], ['race', 'subspecies', 'slipstream', 'airstream', 'backwash', 'wash', 'raceway', 'rush', 'hotfoot', 'hasten', 'hie', 'speed', 'pelt_along', 'rush_along', 'cannonball_along', 'bucket_along', 'belt_along', 'step_on_it', 'run'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -1023,7 +1023,7 @@
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="90.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="181.7109375" customWidth="1"/>
     <col min="6" max="6" width="1851.7109375" customWidth="1"/>
   </cols>
@@ -1076,7 +1076,7 @@
         <v>58</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>0.6240740740740741</v>
       </c>
       <c r="E3" t="s">
         <v>108</v>
@@ -1093,16 +1093,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>0.6240740740740741</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1113,16 +1113,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1133,10 +1133,10 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0.5742424242424242</v>
       </c>
       <c r="E6" t="s">
         <v>110</v>
@@ -1153,16 +1153,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1173,16 +1173,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>0.5162652162652163</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1196,13 +1196,13 @@
         <v>63</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.512962962962963</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F9" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1216,13 +1216,13 @@
         <v>64</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>0.512962962962963</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1236,13 +1236,13 @@
         <v>65</v>
       </c>
       <c r="D11">
-        <v>0.9</v>
+        <v>0.512962962962963</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1256,13 +1256,13 @@
         <v>66</v>
       </c>
       <c r="D12">
-        <v>0.9</v>
+        <v>0.512962962962963</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1276,13 +1276,13 @@
         <v>67</v>
       </c>
       <c r="D13">
-        <v>0.8636363636363636</v>
+        <v>0.512962962962963</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1293,16 +1293,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D14">
-        <v>0.8500000000000001</v>
+        <v>0.512962962962963</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1313,16 +1313,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>0.8363636363636364</v>
+        <v>0.5119528619528619</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1336,13 +1336,13 @@
         <v>69</v>
       </c>
       <c r="D16">
-        <v>0.8363636363636364</v>
+        <v>0.5018518518518519</v>
       </c>
       <c r="E16" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1356,13 +1356,13 @@
         <v>70</v>
       </c>
       <c r="D17">
-        <v>0.8</v>
+        <v>0.4990740740740741</v>
       </c>
       <c r="E17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1376,13 +1376,13 @@
         <v>71</v>
       </c>
       <c r="D18">
-        <v>0.8</v>
+        <v>0.4948199948199948</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1396,13 +1396,13 @@
         <v>72</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>0.4877104377104377</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1416,13 +1416,13 @@
         <v>73</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>0.4877104377104377</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1436,13 +1436,13 @@
         <v>74</v>
       </c>
       <c r="D21">
-        <v>0.8</v>
+        <v>0.4874125874125874</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1456,13 +1456,13 @@
         <v>75</v>
       </c>
       <c r="D22">
-        <v>0.8</v>
+        <v>0.4796296296296296</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1476,13 +1476,13 @@
         <v>76</v>
       </c>
       <c r="D23">
-        <v>0.7818181818181819</v>
+        <v>0.4781144781144781</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1496,13 +1496,13 @@
         <v>77</v>
       </c>
       <c r="D24">
-        <v>0.7818181818181819</v>
+        <v>0.477933177933178</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1516,13 +1516,13 @@
         <v>78</v>
       </c>
       <c r="D25">
-        <v>0.7818181818181819</v>
+        <v>0.4716931216931217</v>
       </c>
       <c r="E25" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F25" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1536,13 +1536,13 @@
         <v>79</v>
       </c>
       <c r="D26">
-        <v>0.7818181818181819</v>
+        <v>0.4707070707070707</v>
       </c>
       <c r="E26" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F26" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1556,13 +1556,13 @@
         <v>80</v>
       </c>
       <c r="D27">
-        <v>0.7818181818181819</v>
+        <v>0.4681818181818182</v>
       </c>
       <c r="E27" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="F27" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1576,13 +1576,13 @@
         <v>81</v>
       </c>
       <c r="D28">
-        <v>0.7727272727272727</v>
+        <v>0.4681818181818182</v>
       </c>
       <c r="E28" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="F28" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1593,16 +1593,16 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D29">
-        <v>0.7727272727272727</v>
+        <v>0.4681818181818182</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F29" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1613,16 +1613,16 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D30">
-        <v>0.7727272727272727</v>
+        <v>0.4671587671587671</v>
       </c>
       <c r="E30" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F30" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1636,13 +1636,13 @@
         <v>83</v>
       </c>
       <c r="D31">
-        <v>0.7727272727272727</v>
+        <v>0.4656565656565657</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1653,16 +1653,16 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D32">
-        <v>0.7727272727272727</v>
+        <v>0.4656565656565657</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1676,13 +1676,13 @@
         <v>84</v>
       </c>
       <c r="D33">
-        <v>0.7727272727272727</v>
+        <v>0.4631313131313131</v>
       </c>
       <c r="E33" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F33" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1696,13 +1696,13 @@
         <v>85</v>
       </c>
       <c r="D34">
-        <v>0.7727272727272727</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="E34" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F34" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1716,13 +1716,13 @@
         <v>86</v>
       </c>
       <c r="D35">
-        <v>0.7727272727272727</v>
+        <v>0.4568181818181818</v>
       </c>
       <c r="E35" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F35" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1736,13 +1736,13 @@
         <v>87</v>
       </c>
       <c r="D36">
-        <v>0.7666666666666666</v>
+        <v>0.4527972027972029</v>
       </c>
       <c r="E36" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F36" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1756,13 +1756,13 @@
         <v>88</v>
       </c>
       <c r="D37">
-        <v>0.7666666666666666</v>
+        <v>0.452020202020202</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1773,16 +1773,16 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D38">
-        <v>0.7575757575757575</v>
+        <v>0.452020202020202</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F38" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1796,13 +1796,13 @@
         <v>89</v>
       </c>
       <c r="D39">
-        <v>0.7575757575757575</v>
+        <v>0.4478174603174603</v>
       </c>
       <c r="E39" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F39" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1816,13 +1816,13 @@
         <v>90</v>
       </c>
       <c r="D40">
-        <v>0.7535353535353536</v>
+        <v>0.442929292929293</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1833,16 +1833,16 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D41">
-        <v>0.7363636363636363</v>
+        <v>0.442929292929293</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1856,13 +1856,13 @@
         <v>91</v>
       </c>
       <c r="D42">
-        <v>0.7363636363636363</v>
+        <v>0.436026936026936</v>
       </c>
       <c r="E42" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F42" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1876,13 +1876,13 @@
         <v>92</v>
       </c>
       <c r="D43">
-        <v>0.7342657342657342</v>
+        <v>0.4353535353535354</v>
       </c>
       <c r="E43" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F43" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1893,16 +1893,16 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D44">
-        <v>0.7272727272727273</v>
+        <v>0.4353535353535354</v>
       </c>
       <c r="E44" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F44" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1913,16 +1913,16 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D45">
-        <v>0.7202797202797203</v>
+        <v>0.4353535353535354</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1933,16 +1933,16 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D46">
-        <v>0.7202797202797203</v>
+        <v>0.4217171717171717</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1953,10 +1953,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D47">
-        <v>0.7202797202797203</v>
+        <v>0.4217171717171717</v>
       </c>
       <c r="E47" t="s">
         <v>144</v>
@@ -1973,10 +1973,10 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D48">
-        <v>0.7125</v>
+        <v>0.4126262626262626</v>
       </c>
       <c r="E48" t="s">
         <v>145</v>
@@ -1993,10 +1993,10 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D49">
-        <v>0.6969696969696969</v>
+        <v>0.3918026418026417</v>
       </c>
       <c r="E49" t="s">
         <v>146</v>
@@ -2013,16 +2013,16 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D50">
-        <v>0.6969696969696969</v>
+        <v>0.3918026418026417</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F50" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2036,7 +2036,7 @@
         <v>98</v>
       </c>
       <c r="D51">
-        <v>0.6969696969696969</v>
+        <v>0.3918026418026417</v>
       </c>
       <c r="E51" t="s">
         <v>146</v>
@@ -2053,16 +2053,16 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D52">
-        <v>0.6909090909090909</v>
+        <v>0.3918026418026417</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2073,16 +2073,16 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D53">
-        <v>0.6865134865134864</v>
+        <v>0.3851851851851851</v>
       </c>
       <c r="E53" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F53" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2093,16 +2093,16 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D54">
-        <v>0.6765734265734266</v>
+        <v>0.3851851851851851</v>
       </c>
       <c r="E54" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F54" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2113,16 +2113,16 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D55">
-        <v>0.656060606060606</v>
+        <v>0.3851851851851851</v>
       </c>
       <c r="E55" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2133,16 +2133,16 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D56">
-        <v>0.6328671328671328</v>
+        <v>0.3851851851851851</v>
       </c>
       <c r="E56" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2156,7 +2156,7 @@
         <v>104</v>
       </c>
       <c r="D57">
-        <v>0.6328671328671328</v>
+        <v>0.3606060606060606</v>
       </c>
       <c r="E57" t="s">
         <v>152</v>
@@ -2176,7 +2176,7 @@
         <v>105</v>
       </c>
       <c r="D58">
-        <v>0.606060606060606</v>
+        <v>0.2526936026936027</v>
       </c>
       <c r="E58" t="s">
         <v>153</v>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="198">
   <si>
     <t>991000001799704574</t>
   </si>
@@ -22,15 +22,9 @@
     <t>991000364949704574</t>
   </si>
   <si>
-    <t>991000050149704574</t>
-  </si>
-  <si>
     <t>991000220919704574</t>
   </si>
   <si>
-    <t>991000027049704574</t>
-  </si>
-  <si>
     <t>991000254419704574</t>
   </si>
   <si>
@@ -49,12 +43,12 @@
     <t>991000072849704574</t>
   </si>
   <si>
+    <t>991000050239704574</t>
+  </si>
+  <si>
     <t>991000365019704574</t>
   </si>
   <si>
-    <t>991000050239704574</t>
-  </si>
-  <si>
     <t>991000236569704574</t>
   </si>
   <si>
@@ -67,12 +61,12 @@
     <t>991000601979704574</t>
   </si>
   <si>
+    <t>991000661829704574</t>
+  </si>
+  <si>
     <t>991000244649704574</t>
   </si>
   <si>
-    <t>991000661829704574</t>
-  </si>
-  <si>
     <t>991000252139704574</t>
   </si>
   <si>
@@ -103,12 +97,12 @@
     <t>991000247059704574</t>
   </si>
   <si>
+    <t>991000067479704574</t>
+  </si>
+  <si>
     <t>991000350969704574</t>
   </si>
   <si>
-    <t>991000067479704574</t>
-  </si>
-  <si>
     <t>991000157529704574</t>
   </si>
   <si>
@@ -148,24 +142,24 @@
     <t>991000107239704574</t>
   </si>
   <si>
+    <t>991000399779704574</t>
+  </si>
+  <si>
     <t>991000080409704574</t>
   </si>
   <si>
-    <t>991000399779704574</t>
-  </si>
-  <si>
     <t>991000070059704574</t>
   </si>
   <si>
+    <t>991000451399704574</t>
+  </si>
+  <si>
+    <t>991000249599704574</t>
+  </si>
+  <si>
     <t>991000252329704574</t>
   </si>
   <si>
-    <t>991000451399704574</t>
-  </si>
-  <si>
-    <t>991000249599704574</t>
-  </si>
-  <si>
     <t>991000244239704574</t>
   </si>
   <si>
@@ -184,9 +178,6 @@
     <t>991001069871904574</t>
   </si>
   <si>
-    <t>991001094844904574</t>
-  </si>
-  <si>
     <t xml:space="preserve">Love and sex after 60 </t>
   </si>
   <si>
@@ -196,9 +187,6 @@
     <t>Transforming desire</t>
   </si>
   <si>
-    <t>The currency of Eros</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sex, dating, and love </t>
   </si>
   <si>
@@ -232,12 +220,12 @@
     <t xml:space="preserve">Middlemarch </t>
   </si>
   <si>
+    <t>Four complete novels /</t>
+  </si>
+  <si>
     <t xml:space="preserve">Erotic faith </t>
   </si>
   <si>
-    <t>Four complete novels /</t>
-  </si>
-  <si>
     <t xml:space="preserve">Free to love again </t>
   </si>
   <si>
@@ -304,15 +292,15 @@
     <t>Love and friendship in Plato and Aristotle</t>
   </si>
   <si>
+    <t>The art of loving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating love </t>
+  </si>
+  <si>
     <t xml:space="preserve">The pursuit of love </t>
   </si>
   <si>
-    <t>The art of loving</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating love </t>
-  </si>
-  <si>
     <t xml:space="preserve">Getting the love you want </t>
   </si>
   <si>
@@ -331,9 +319,6 @@
     <t xml:space="preserve">Shamans and kushtakas </t>
   </si>
   <si>
-    <t xml:space="preserve">The diary of a man of fifty </t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -346,9 +331,6 @@
     <t>['erotic', 'poetry', 'english', 'epic', 'desire', 'literature', 'love', 'sex']</t>
   </si>
   <si>
-    <t>['love', 'poetry', 'european', 'literature', 'women', 'sex', 'role']</t>
-  </si>
-  <si>
     <t>['dating', 'social', 'customs', 'love', 'sex']</t>
   </si>
   <si>
@@ -382,12 +364,12 @@
     <t>['english', 'city', 'town', 'life', 'married', 'people', 'young', 'women']</t>
   </si>
   <si>
+    <t>['literature', 'historical', 'fiction', 'love', 'stories']</t>
+  </si>
+  <si>
     <t>['english', 'fiction', 'love', 'stories', 'literature']</t>
   </si>
   <si>
-    <t>['literature', 'historical', 'fiction', 'love', 'stories']</t>
-  </si>
-  <si>
     <t>['sex', 'christian', 'life']</t>
   </si>
   <si>
@@ -475,10 +457,7 @@
     <t>['tlingit', 'indians', 'haida', 'mythology', 'ethnic', 'race', 'studies', 'gender', 'social', 'sciences']</t>
   </si>
   <si>
-    <t>['aging']</t>
-  </si>
-  <si>
-    <t>['dXHAyncBufXmZs9o45Vl', 'dnHAyncBufXmZs9o45Vt', 'enHAyncBufXmZs9o45WS', 'eHHAyncBufXmZs9o45WA', 'eXHAyncBufXmZs9o45WJ', 'enHAyncBufXmZs9o45WS', 'b3HAyncBufXmZs9o45Ux']</t>
+    <t>['XENGu3gBqyfetXzjbB2E', 'XUNGu3gBqyfetXzjbB2T', 'XkNGu3gBqyfetXzjbB2p', 'X0NGu3gBqyfetXzjbB29', 'YENGu3gBqyfetXzjbB3O', 'YUNGu3gBqyfetXzjbB3e', 'YkNGu3gBqyfetXzjbB3v']</t>
   </si>
   <si>
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
@@ -487,13 +466,10 @@
     <t>[['erotic', 'titillating'], ['poetry', 'poesy', 'verse'], ['english', 'English', 'English_language', 'English_people', 'side'], ['epic', 'epic_poem', 'heroic_poem', 'epos', 'heroic', 'larger-than-life', 'epical'], ['desire', 'want', 'hope', 'trust'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
   </si>
   <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['literature', 'lit'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use']]</t>
-  </si>
-  <si>
     <t>[['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
   </si>
   <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['latin', 'Latin', 'Romance'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['narration', 'narrative', 'story', 'tale', 'recital', 'yarn'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
   </si>
   <si>
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side'], ['american', 'American', 'American_English', 'American_language'], ['fiction', 'fabrication', 'fable']]</t>
@@ -508,7 +484,10 @@
     <t>[['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['fiction', 'fabrication', 'fable'], ['epistolary', 'epistolatory'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
   </si>
   <si>
-    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['narration', 'narrative', 'story', 'tale', 'recital', 'yarn'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+  </si>
+  <si>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
   </si>
   <si>
     <t>[['self', 'ego'], ['actualization', 'realization', 'realisation', 'actualisation'], ['psychology', 'psychological_science'], ['maturation', 'ripening', 'maturement', 'growth', 'growing', 'development', 'ontogeny', 'ontogenesis', 'festering', 'suppuration'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['spirituality', 'spiritualty', 'church_property', 'spiritualism', 'spiritism', 'otherworldliness']]</t>
@@ -523,12 +502,12 @@
     <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
   </si>
   <si>
+    <t>[['literature', 'lit'], ['historical', 'historic', 'diachronic'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
     <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['literature', 'lit']]</t>
   </si>
   <si>
-    <t>[['literature', 'lit'], ['historical', 'historic', 'diachronic'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
     <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence']]</t>
   </si>
   <si>
@@ -547,16 +526,16 @@
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['european', 'European'], ['friendship', 'friendly_relationship']]</t>
   </si>
   <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['latin', 'Latin', 'Romance'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
-  </si>
-  <si>
-    <t>[['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['poetry', 'poesy', 'verse'], ['latin', 'Latin', 'Romance'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+  </si>
+  <si>
+    <t>[['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
   </si>
   <si>
     <t>[['governesses', 'governess', 'regulate', 'regularize', 'regularise', 'order', 'govern', 'rule'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['mentally'], ['ill', 'ailment', 'complaint', 'sick', 'inauspicious', 'ominous', 'badly', 'poorly'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['charity', 'brotherly_love', "Jacob's_ladder", 'Greek_valerian', 'Polemonium_caeruleum', 'Polemonium_van-bruntiae', 'Polymonium_caeruleum_van-bruntiae'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['country', 'state', 'nation', 'land', 'commonwealth', 'res_publica', 'body_politic', 'rural_area', 'area'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['orphans', 'orphan']]</t>
   </si>
   <si>
-    <t>[['poetry', 'poesy', 'verse'], ['satire', 'sarcasm', 'irony', 'caustic_remark'], ['latin', 'Latin', 'Romance'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['epigrams', 'epigram', 'quip']]</t>
+    <t>[['poetry', 'poesy', 'verse'], ['satire', 'sarcasm', 'irony', 'caustic_remark'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['epigrams', 'epigram', 'quip']]</t>
   </si>
   <si>
     <t>[['spanish', 'Spanish', 'Spanish_people'], ['poetry', 'poesy', 'verse'], ['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['authors', 'writer', 'author', 'generator', 'source'], ['patrons', 'patron', 'frequenter', 'sponsor', 'supporter']]</t>
@@ -589,7 +568,7 @@
     <t>[['sonnets', 'sonnet'], ['english', 'English', 'English_language', 'English_people', 'side'], ['poetry', 'poesy', 'verse'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
   </si>
   <si>
-    <t>[['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['war', 'warfare', 'state_of_war'], ['authors', 'writer', 'author', 'generator', 'source'], ['welsh', 'Welshman', 'Welsh', 'Cambrian', 'Cymry', 'Cymric', 'Welsh_Black', 'welch'], ['soldiers', 'soldier'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['war', 'warfare', 'state_of_war'], ['authors', 'writer', 'author', 'generator', 'source'], ['welsh', 'Welshman', 'Welsh', 'Cambrian', 'Cymry', 'Cymric', 'Welsh_Black', 'welch'], ['soldiers', 'soldier'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
   </si>
   <si>
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['friendship', 'friendly_relationship']]</t>
@@ -614,9 +593,6 @@
   </si>
   <si>
     <t>[['tlingit', 'Tlingit'], ['indians', 'Indian', 'American_Indian', 'Red_Indian', 'Amerind', 'Amerindian_language', 'American-Indian_language'], ['haida', 'Haida'], ['mythology'], ['ethnic', 'cultural', 'ethnical', 'heathen', 'heathenish', 'pagan'], ['race', 'subspecies', 'slipstream', 'airstream', 'backwash', 'wash', 'raceway', 'rush', 'hotfoot', 'hasten', 'hie', 'speed', 'pelt_along', 'rush_along', 'cannonball_along', 'bucket_along', 'belt_along', 'step_on_it', 'run'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
-  </si>
-  <si>
-    <t>[['aging', 'ripening', 'ageing', 'senescence', 'age', 'senesce', 'get_on', 'mature', 'maturate', 'senescent']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -1015,7 +991,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,19 +1006,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
@@ -1053,16 +1029,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1073,16 +1049,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D3">
         <v>0.6240740740740741</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1093,16 +1069,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D4">
-        <v>0.6240740740740741</v>
+        <v>0.5818181818181818</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1113,16 +1089,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D5">
-        <v>0.5818181818181818</v>
+        <v>0.5555555555555555</v>
       </c>
       <c r="E5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="F5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1133,16 +1109,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6">
-        <v>0.5742424242424242</v>
+        <v>0.5162652162652163</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F6" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1153,16 +1129,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D7">
-        <v>0.5555555555555555</v>
+        <v>0.512962962962963</v>
       </c>
       <c r="E7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1173,16 +1149,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D8">
-        <v>0.5162652162652163</v>
+        <v>0.512962962962963</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1193,16 +1169,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D9">
         <v>0.512962962962963</v>
       </c>
       <c r="E9" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1213,16 +1189,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D10">
         <v>0.512962962962963</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1233,16 +1209,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11">
         <v>0.512962962962963</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1253,16 +1229,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D12">
         <v>0.512962962962963</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1273,16 +1249,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D13">
-        <v>0.512962962962963</v>
+        <v>0.5119528619528619</v>
       </c>
       <c r="E13" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1293,16 +1269,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D14">
-        <v>0.512962962962963</v>
+        <v>0.5018518518518519</v>
       </c>
       <c r="E14" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="F14" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1313,16 +1289,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D15">
-        <v>0.5119528619528619</v>
+        <v>0.4990740740740741</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="F15" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1333,16 +1309,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D16">
-        <v>0.5018518518518519</v>
+        <v>0.4948199948199948</v>
       </c>
       <c r="E16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F16" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1353,16 +1329,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D17">
-        <v>0.4990740740740741</v>
+        <v>0.4877104377104377</v>
       </c>
       <c r="E17" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F17" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1373,16 +1349,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D18">
-        <v>0.4948199948199948</v>
+        <v>0.4877104377104377</v>
       </c>
       <c r="E18" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1393,16 +1369,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D19">
-        <v>0.4877104377104377</v>
+        <v>0.4874125874125874</v>
       </c>
       <c r="E19" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F19" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1413,16 +1389,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D20">
-        <v>0.4877104377104377</v>
+        <v>0.4796296296296296</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1433,16 +1409,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D21">
-        <v>0.4874125874125874</v>
+        <v>0.4781144781144781</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1453,16 +1429,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D22">
-        <v>0.4796296296296296</v>
+        <v>0.477933177933178</v>
       </c>
       <c r="E22" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1473,16 +1449,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D23">
-        <v>0.4781144781144781</v>
+        <v>0.4716931216931217</v>
       </c>
       <c r="E23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="F23" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1493,16 +1469,16 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D24">
-        <v>0.477933177933178</v>
+        <v>0.4707070707070707</v>
       </c>
       <c r="E24" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1513,16 +1489,16 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D25">
-        <v>0.4716931216931217</v>
+        <v>0.4681818181818182</v>
       </c>
       <c r="E25" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F25" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1533,16 +1509,16 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D26">
-        <v>0.4707070707070707</v>
+        <v>0.4681818181818182</v>
       </c>
       <c r="E26" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F26" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1553,16 +1529,16 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>0.4681818181818182</v>
       </c>
       <c r="E27" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1573,16 +1549,16 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D28">
-        <v>0.4681818181818182</v>
+        <v>0.4671587671587671</v>
       </c>
       <c r="E28" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1593,16 +1569,16 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D29">
-        <v>0.4681818181818182</v>
+        <v>0.4656565656565657</v>
       </c>
       <c r="E29" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F29" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1613,16 +1589,16 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D30">
-        <v>0.4671587671587671</v>
+        <v>0.4656565656565657</v>
       </c>
       <c r="E30" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F30" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1633,16 +1609,16 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D31">
-        <v>0.4656565656565657</v>
+        <v>0.4631313131313131</v>
       </c>
       <c r="E31" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="F31" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1653,16 +1629,16 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D32">
-        <v>0.4656565656565657</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="E32" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1673,16 +1649,16 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D33">
-        <v>0.4631313131313131</v>
+        <v>0.4568181818181818</v>
       </c>
       <c r="E33" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F33" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1693,16 +1669,16 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D34">
-        <v>0.462962962962963</v>
+        <v>0.4527972027972029</v>
       </c>
       <c r="E34" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="F34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1713,16 +1689,16 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35">
-        <v>0.4568181818181818</v>
+        <v>0.452020202020202</v>
       </c>
       <c r="E35" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F35" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1733,16 +1709,16 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D36">
-        <v>0.4527972027972029</v>
+        <v>0.452020202020202</v>
       </c>
       <c r="E36" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F36" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1753,16 +1729,16 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D37">
-        <v>0.452020202020202</v>
+        <v>0.4478174603174603</v>
       </c>
       <c r="E37" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="F37" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1773,16 +1749,16 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D38">
-        <v>0.452020202020202</v>
+        <v>0.442929292929293</v>
       </c>
       <c r="E38" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F38" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1793,16 +1769,16 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D39">
-        <v>0.4478174603174603</v>
+        <v>0.442929292929293</v>
       </c>
       <c r="E39" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F39" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1813,16 +1789,16 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D40">
-        <v>0.442929292929293</v>
+        <v>0.436026936026936</v>
       </c>
       <c r="E40" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F40" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1833,16 +1809,16 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D41">
-        <v>0.442929292929293</v>
+        <v>0.4353535353535354</v>
       </c>
       <c r="E41" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="F41" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1853,16 +1829,16 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D42">
-        <v>0.436026936026936</v>
+        <v>0.4353535353535354</v>
       </c>
       <c r="E42" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1873,16 +1849,16 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D43">
         <v>0.4353535353535354</v>
       </c>
       <c r="E43" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1893,16 +1869,16 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D44">
-        <v>0.4353535353535354</v>
+        <v>0.4217171717171717</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1913,16 +1889,16 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="D45">
-        <v>0.4353535353535354</v>
+        <v>0.4217171717171717</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1933,16 +1909,16 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D46">
-        <v>0.4217171717171717</v>
+        <v>0.4126262626262626</v>
       </c>
       <c r="E46" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="F46" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1953,16 +1929,16 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D47">
-        <v>0.4217171717171717</v>
+        <v>0.3918026418026417</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1973,16 +1949,16 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D48">
-        <v>0.4126262626262626</v>
+        <v>0.3918026418026417</v>
       </c>
       <c r="E48" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="F48" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1993,16 +1969,16 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D49">
         <v>0.3918026418026417</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="F49" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2013,16 +1989,16 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D50">
         <v>0.3918026418026417</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F50" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2033,16 +2009,16 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D51">
-        <v>0.3918026418026417</v>
+        <v>0.3851851851851851</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="F51" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2053,16 +2029,16 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D52">
-        <v>0.3918026418026417</v>
+        <v>0.3851851851851851</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="F52" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2073,16 +2049,16 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D53">
         <v>0.3851851851851851</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="F53" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2093,16 +2069,16 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D54">
         <v>0.3851851851851851</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2113,76 +2089,16 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D55">
-        <v>0.3851851851851851</v>
+        <v>0.3606060606060606</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="F55" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="3">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" t="s">
-        <v>103</v>
-      </c>
-      <c r="D56">
-        <v>0.3851851851851851</v>
-      </c>
-      <c r="E56" t="s">
-        <v>151</v>
-      </c>
-      <c r="F56" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="3">
-        <v>55</v>
-      </c>
-      <c r="B57" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" t="s">
-        <v>104</v>
-      </c>
-      <c r="D57">
-        <v>0.3606060606060606</v>
-      </c>
-      <c r="E57" t="s">
-        <v>152</v>
-      </c>
-      <c r="F57" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3">
-        <v>56</v>
-      </c>
-      <c r="B58" t="s">
-        <v>56</v>
-      </c>
-      <c r="C58" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58">
-        <v>0.2526936026936027</v>
-      </c>
-      <c r="E58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="425">
   <si>
     <t>991000001799704574</t>
   </si>
@@ -70,9 +70,15 @@
     <t>991000250779704574</t>
   </si>
   <si>
+    <t>991000251009704574</t>
+  </si>
+  <si>
     <t>991000107239704574</t>
   </si>
   <si>
+    <t>991000253529704574</t>
+  </si>
+  <si>
     <t>991000601979704574</t>
   </si>
   <si>
@@ -85,46 +91,79 @@
     <t>991000364949704574</t>
   </si>
   <si>
+    <t>991000015309704574</t>
+  </si>
+  <si>
     <t>991000239839704574</t>
   </si>
   <si>
+    <t>991001088454304574</t>
+  </si>
+  <si>
+    <t>991000577529704574</t>
+  </si>
+  <si>
     <t>991000235819704574</t>
   </si>
   <si>
+    <t>991000426459704574</t>
+  </si>
+  <si>
+    <t>991000257629704574</t>
+  </si>
+  <si>
     <t>991000247059704574</t>
   </si>
   <si>
+    <t>991000014489704574</t>
+  </si>
+  <si>
     <t>991000244649704574</t>
   </si>
   <si>
-    <t>991000257629704574</t>
-  </si>
-  <si>
     <t>991000111799704574</t>
   </si>
   <si>
+    <t>991000256869704574</t>
+  </si>
+  <si>
+    <t>991000267479704574</t>
+  </si>
+  <si>
     <t>991000249439704574</t>
   </si>
   <si>
     <t>991000661829704574</t>
   </si>
   <si>
-    <t>991000267479704574</t>
+    <t>991000210179704574</t>
+  </si>
+  <si>
+    <t>991000248489704574</t>
+  </si>
+  <si>
+    <t>991000249889704574</t>
   </si>
   <si>
     <t>991000080409704574</t>
   </si>
   <si>
+    <t>991000399779704574</t>
+  </si>
+  <si>
+    <t>991000236569704574</t>
+  </si>
+  <si>
     <t>991000157529704574</t>
   </si>
   <si>
-    <t>991000399779704574</t>
+    <t>991000155069704574</t>
   </si>
   <si>
     <t>991000072849704574</t>
   </si>
   <si>
-    <t>991000236569704574</t>
+    <t>991000437229704574</t>
   </si>
   <si>
     <t>991000067479704574</t>
@@ -136,13 +175,25 @@
     <t>991000212849704574</t>
   </si>
   <si>
+    <t>991000122539704574</t>
+  </si>
+  <si>
     <t>991001066317904574</t>
   </si>
   <si>
+    <t>991000382839704574</t>
+  </si>
+  <si>
+    <t>991000115259704574</t>
+  </si>
+  <si>
+    <t>991000113699704574</t>
+  </si>
+  <si>
     <t>991000250179704574</t>
   </si>
   <si>
-    <t>991000115259704574</t>
+    <t>991000202639704574</t>
   </si>
   <si>
     <t>991000051099704574</t>
@@ -157,36 +208,156 @@
     <t>991000364539704574</t>
   </si>
   <si>
-    <t>991000202639704574</t>
-  </si>
-  <si>
     <t>991000451839704574</t>
   </si>
   <si>
+    <t>991000050239704574</t>
+  </si>
+  <si>
+    <t>991000365019704574</t>
+  </si>
+  <si>
+    <t>991000085869704574</t>
+  </si>
+  <si>
+    <t>991000254299704574</t>
+  </si>
+  <si>
+    <t>991000395659704574</t>
+  </si>
+  <si>
     <t>991000240249704574</t>
   </si>
   <si>
-    <t>991000050239704574</t>
-  </si>
-  <si>
-    <t>991000365019704574</t>
+    <t>991000625779704574</t>
   </si>
   <si>
     <t>991001070189604574</t>
   </si>
   <si>
+    <t>991000111639704574</t>
+  </si>
+  <si>
+    <t>991000159439704574</t>
+  </si>
+  <si>
+    <t>991000251609704574</t>
+  </si>
+  <si>
     <t>991000117479704574</t>
   </si>
   <si>
     <t>991000576909704574</t>
   </si>
   <si>
-    <t>991000251609704574</t>
+    <t>991000132589704574</t>
+  </si>
+  <si>
+    <t>991000116719704574</t>
+  </si>
+  <si>
+    <t>991000157689704574</t>
+  </si>
+  <si>
+    <t>991000115369704574</t>
+  </si>
+  <si>
+    <t>991000243739704574</t>
+  </si>
+  <si>
+    <t>991001075576104574</t>
+  </si>
+  <si>
+    <t>991000027439704574</t>
+  </si>
+  <si>
+    <t>991000054469704574</t>
+  </si>
+  <si>
+    <t>991000360649704574</t>
+  </si>
+  <si>
+    <t>991000467269704574</t>
   </si>
   <si>
     <t>991001069871904574</t>
   </si>
   <si>
+    <t>991000111389704574</t>
+  </si>
+  <si>
+    <t>991000022749704574</t>
+  </si>
+  <si>
+    <t>991000666319704574</t>
+  </si>
+  <si>
+    <t>991000241149704574</t>
+  </si>
+  <si>
+    <t>991000120499704574</t>
+  </si>
+  <si>
+    <t>991000241429704574</t>
+  </si>
+  <si>
+    <t>991000113629704574</t>
+  </si>
+  <si>
+    <t>991001094847204574</t>
+  </si>
+  <si>
+    <t>991000244599704574</t>
+  </si>
+  <si>
+    <t>991001070197204574</t>
+  </si>
+  <si>
+    <t>991000171739704574</t>
+  </si>
+  <si>
+    <t>991000230989704574</t>
+  </si>
+  <si>
+    <t>991000259889704574</t>
+  </si>
+  <si>
+    <t>991000118409704574</t>
+  </si>
+  <si>
+    <t>991001070167704574</t>
+  </si>
+  <si>
+    <t>991000099489704574</t>
+  </si>
+  <si>
+    <t>991000210359704574</t>
+  </si>
+  <si>
+    <t>991001094802604574</t>
+  </si>
+  <si>
+    <t>991000285879704574</t>
+  </si>
+  <si>
+    <t>991001070750004574</t>
+  </si>
+  <si>
+    <t>991000250269704574</t>
+  </si>
+  <si>
+    <t>991000129619704574</t>
+  </si>
+  <si>
+    <t>991000127189704574</t>
+  </si>
+  <si>
+    <t>991000155099704574</t>
+  </si>
+  <si>
+    <t>991000304229704574</t>
+  </si>
+  <si>
     <t xml:space="preserve">Love and sex after 60 </t>
   </si>
   <si>
@@ -235,9 +406,15 @@
     <t xml:space="preserve">Love and friendship </t>
   </si>
   <si>
+    <t xml:space="preserve">Love and infamy </t>
+  </si>
+  <si>
     <t xml:space="preserve">The Elizabethan love sonnet </t>
   </si>
   <si>
+    <t xml:space="preserve">Emma </t>
+  </si>
+  <si>
     <t xml:space="preserve">Middlemarch </t>
   </si>
   <si>
@@ -247,43 +424,73 @@
     <t>Dangerous men &amp; adventurous women</t>
   </si>
   <si>
+    <t xml:space="preserve">Pride and prejudice </t>
+  </si>
+  <si>
     <t xml:space="preserve">Angels of September </t>
   </si>
   <si>
+    <t xml:space="preserve">Everything to gain </t>
+  </si>
+  <si>
+    <t>A father's love: tributes, praise, and wisdom about dads and their offspring</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jane Austen and the war of ideas </t>
   </si>
   <si>
+    <t xml:space="preserve">Anthem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd rather be married </t>
+  </si>
+  <si>
     <t xml:space="preserve">Jane Eyre </t>
   </si>
   <si>
+    <t xml:space="preserve">Sister Carrie </t>
+  </si>
+  <si>
     <t xml:space="preserve">Erotic faith </t>
   </si>
   <si>
-    <t xml:space="preserve">I'd rather be married </t>
-  </si>
-  <si>
     <t xml:space="preserve">Classical Hollywood comedy </t>
   </si>
   <si>
+    <t xml:space="preserve">For love and for life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be happy you are loved </t>
+  </si>
+  <si>
     <t xml:space="preserve">Love &amp; loss </t>
   </si>
   <si>
     <t>Four complete novels /</t>
   </si>
   <si>
-    <t xml:space="preserve">Be happy you are loved </t>
+    <t>Where love leaves us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting to exhale </t>
   </si>
   <si>
     <t>Letters to Margaret Gilcriest</t>
   </si>
   <si>
+    <t xml:space="preserve">The road less traveled </t>
+  </si>
+  <si>
     <t xml:space="preserve">Of kings and poets </t>
   </si>
   <si>
+    <t xml:space="preserve">The remains of the day </t>
+  </si>
+  <si>
     <t>Writing love</t>
   </si>
   <si>
-    <t xml:space="preserve">The road less traveled </t>
+    <t xml:space="preserve">Unlearning violence </t>
   </si>
   <si>
     <t>Catullan provocations</t>
@@ -292,13 +499,25 @@
     <t>Medieval Latin and the rise of European love-lyric</t>
   </si>
   <si>
+    <t xml:space="preserve">Sense and sensibility </t>
+  </si>
+  <si>
     <t>Teenage couples. how to build a relationship that lasts / Caring, commitment, and change</t>
   </si>
   <si>
+    <t>Swaying</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northanger Abbey ; Lady Susan ; The Watsons ; and Sanditon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Clavell's Gai-Jin </t>
+  </si>
+  <si>
     <t xml:space="preserve">Double-header </t>
   </si>
   <si>
-    <t xml:space="preserve">Northanger Abbey ; Lady Susan ; The Watsons ; and Sanditon </t>
+    <t>"When the lamp is shattered</t>
   </si>
   <si>
     <t>The art of love</t>
@@ -307,33 +526,147 @@
     <t>Rethinking The romance of the Rose</t>
   </si>
   <si>
-    <t>"When the lamp is shattered</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wizard and Wart </t>
   </si>
   <si>
+    <t>Critical tales</t>
+  </si>
+  <si>
+    <t>Fighting for your marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fighting for your marriage </t>
+  </si>
+  <si>
     <t xml:space="preserve">Dear God, kids rainbow </t>
   </si>
   <si>
-    <t>Critical tales</t>
+    <t xml:space="preserve">Daisy Miller </t>
   </si>
   <si>
     <t>Of chastity and power</t>
   </si>
   <si>
+    <t xml:space="preserve">First things first </t>
+  </si>
+  <si>
+    <t xml:space="preserve">River of promise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grandfather's journey </t>
+  </si>
+  <si>
     <t xml:space="preserve">Disney's Beauty and the beast </t>
   </si>
   <si>
     <t>Disney's Beauty and the beast</t>
   </si>
   <si>
-    <t xml:space="preserve">Grandfather's journey </t>
+    <t xml:space="preserve">The portrait of a lady </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavenly love? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love cools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love and profit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When families fight </t>
+  </si>
+  <si>
+    <t>Little Women</t>
+  </si>
+  <si>
+    <t>Love and ideology in the afternoon</t>
+  </si>
+  <si>
+    <t>The love of learning and the desire for God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you lonesome tonight? </t>
   </si>
   <si>
     <t xml:space="preserve">Shamans and kushtakas </t>
   </si>
   <si>
+    <t xml:space="preserve">How to go on living when someone you love dies </t>
+  </si>
+  <si>
+    <t>Where "something catches</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The steps we took </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to stop the one you love from drinking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love's encore </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Persian boy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Her bread to earn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children's edition of touching incidents and remarkable Answers to prayer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The stoic in love </t>
+  </si>
+  <si>
+    <t>George Meredith</t>
+  </si>
+  <si>
+    <t>Love of learning</t>
+  </si>
+  <si>
+    <t>For love of the automobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose Madder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do what you love, the money will follow </t>
+  </si>
+  <si>
+    <t>The Development of the Sonnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A light in the window </t>
+  </si>
+  <si>
+    <t>For love of the world</t>
+  </si>
+  <si>
+    <t>Sundering Flood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating family traditions </t>
+  </si>
+  <si>
+    <t>Did my first mother love me? : a story for an adopted child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical terminology made easy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tender is the night </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The last tycoon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low fat &amp; loving it </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sharkproof </t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
@@ -379,9 +712,15 @@
     <t>['love', 'literature', 'european', 'friendship']</t>
   </si>
   <si>
+    <t>['man', 'woman', 'relationships', 'americans']</t>
+  </si>
+  <si>
     <t>['sonnets', 'english', 'poetry', 'love']</t>
   </si>
   <si>
+    <t>['young', 'women', 'female', 'friendship', 'fathers', 'daughters']</t>
+  </si>
+  <si>
     <t>['english', 'city', 'town', 'life', 'married', 'people', 'young', 'women']</t>
   </si>
   <si>
@@ -391,43 +730,76 @@
     <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
   </si>
   <si>
+    <t>['young', 'women', 'sisters', 'courtship', 'social', 'classes']</t>
+  </si>
+  <si>
     <t>['love', 'stories', 'detective', 'mystery']</t>
   </si>
   <si>
+    <t>['widows', 'friendship', 'man', 'woman', 'relationship']</t>
+  </si>
+  <si>
+    <t>['fathers']</t>
+  </si>
+  <si>
     <t>['english', 'fiction', 'women', 'literature', 'love', 'stories']</t>
   </si>
   <si>
+    <t>['man', 'woman', 'relationships', 'men', 'individuality', 'time', 'travel']</t>
+  </si>
+  <si>
+    <t>['mate', 'selection', 'man', 'woman', 'relationships', 'dating', 'social', 'customs', 'love']</t>
+  </si>
+  <si>
     <t>['governesses', 'fathers', 'daughters', 'mentally', 'ill', 'women', 'charity', 'schools', 'married', 'people', 'country', 'homes', 'young', 'orphans']</t>
   </si>
   <si>
+    <t>['english', 'mistresses', 'young', 'women']</t>
+  </si>
+  <si>
     <t>['english', 'fiction', 'love', 'stories', 'literature']</t>
   </si>
   <si>
-    <t>['mate', 'selection', 'man', 'woman', 'relationships', 'dating', 'social', 'customs', 'love']</t>
-  </si>
-  <si>
     <t>['comedy', 'films', 'love', 'motion', 'pictures']</t>
   </si>
   <si>
+    <t>['lesbian', 'couples']</t>
+  </si>
+  <si>
+    <t>['god', 'love', 'self', 'esteem', 'large', 'type', 'books']</t>
+  </si>
+  <si>
     <t>['love', 'stories', 'english', 'american', 'fiction']</t>
   </si>
   <si>
     <t>['literature', 'historical', 'fiction', 'love', 'stories']</t>
   </si>
   <si>
-    <t>['god', 'love', 'self', 'esteem', 'large', 'type', 'books']</t>
+    <t>['italian', 'american', 'families', 'fathers', 'daughters', 'americans']</t>
+  </si>
+  <si>
+    <t>['african', 'american', 'women', 'men', 'female', 'friendship']</t>
+  </si>
+  <si>
+    <t>['fathers', 'daughters', 'literature', 'female', 'friendship', 'mate', 'selection', 'young', 'women']</t>
   </si>
   <si>
     <t>['world', 'war', 'authors', 'welsh', 'soldiers', 'love', 'letters']</t>
   </si>
   <si>
+    <t>['self', 'actualization', 'psychology', 'maturation', 'interpersonal', 'relations', 'love', 'values', 'spirituality']</t>
+  </si>
+  <si>
     <t>['spanish', 'poetry', 'courtly', 'love', 'literature', 'authors', 'patrons']</t>
   </si>
   <si>
+    <t>['country', 'homes', 'employees']</t>
+  </si>
+  <si>
     <t>['french', 'fiction', 'epistolary', 'love', 'stories', 'women', 'literature', 'letters']</t>
   </si>
   <si>
-    <t>['self', 'actualization', 'psychology', 'maturation', 'interpersonal', 'relations', 'love', 'values', 'spirituality']</t>
+    <t>['abusive', 'men', 'violence', 'family']</t>
   </si>
   <si>
     <t>['verse', 'satire', 'latin', 'love', 'epigrams']</t>
@@ -436,13 +808,25 @@
     <t>['love', 'poetry', 'european', 'latin', 'medieval', 'modern']</t>
   </si>
   <si>
+    <t>['literature', 'social', 'classes', 'sisters', 'young', 'women', 'inheritance', 'succession']</t>
+  </si>
+  <si>
     <t>['man', 'woman', 'relationships', 'teenagers', 'love', 'mate', 'selection', 'family', 'marriage', 'sociology', 'social', 'history', 'sciences']</t>
   </si>
   <si>
+    <t>['intercountry', 'marriage', 'interethnic', 'married', 'women']</t>
+  </si>
+  <si>
+    <t>['horror', 'tales', 'books', 'reading', 'love', 'stories', 'english']</t>
+  </si>
+  <si>
+    <t>['british', 'man', 'woman', 'relationships']</t>
+  </si>
+  <si>
     <t>['monsters', 'baseball', 'early', 'childhood', 'education', 'children', 'stories']</t>
   </si>
   <si>
-    <t>['horror', 'tales', 'books', 'reading', 'love', 'stories', 'english']</t>
+    <t>['love', 'poetry', 'latin', 'psychoanalysis', 'literature', 'desire', 'narration', 'rhetoric', 'rome', 'ancient']</t>
   </si>
   <si>
     <t>['courtly', 'love', 'literature', 'poetry', 'latin', 'medieval', 'modern']</t>
@@ -451,34 +835,145 @@
     <t>['love', 'poetry', 'french', 'literature', 'medieval', 'romances', 'manuscripts', 'courtly']</t>
   </si>
   <si>
-    <t>['love', 'poetry', 'latin', 'psychoanalysis', 'literature', 'desire', 'narration', 'rhetoric', 'rome', 'ancient']</t>
-  </si>
-  <si>
     <t>['wizards', 'magic', 'animals', 'witchcraft', 'early', 'childhood', 'education', 'children', 'stories']</t>
   </si>
   <si>
+    <t>['women', 'literature', 'love', 'stories', 'french', 'characters', 'characteristics', 'rhetoric', 'literary', 'form']</t>
+  </si>
+  <si>
+    <t>['marriage', 'interpersonal', 'relations', 'communication']</t>
+  </si>
+  <si>
     <t>['god', 'christianity', 'providence', 'government', 'color', 'early', 'childhood', 'education', 'children', 'stories']</t>
   </si>
   <si>
-    <t>['women', 'literature', 'love', 'stories', 'french', 'characters', 'characteristics', 'rhetoric', 'literary', 'form']</t>
+    <t>['fiction', 'english', 'inheritance', 'succession', 'children', 'rich', 'young', 'women', 'fathers', 'daughters', 'courtship', 'beauty', 'personal']</t>
   </si>
   <si>
     <t>['chastity', 'literature', 'english', 'feminism', 'kings', 'rulers', 'social', 'sciences', 'queens', 'sex', 'role', 'single', 'women']</t>
   </si>
   <si>
+    <t>['conduct', 'life', 'time', 'management']</t>
+  </si>
+  <si>
+    <t>['lesbian', 'mothers', 'adoption']</t>
+  </si>
+  <si>
+    <t>['grandfathers', 'caldecott', 'medal', 'voyages', 'travels', 'homesickness', 'early', 'childhood', 'education', 'children', 'stories', 'social', 'issues', 'japanese', 'americans']</t>
+  </si>
+  <si>
     <t>['early', 'childhood', 'education', 'children', 'stories', 'fairy', 'tales', 'folklore']</t>
   </si>
   <si>
     <t>['folklore', 'fairy', 'tales', 'early', 'childhood', 'education', 'children', 'stories']</t>
   </si>
   <si>
-    <t>['grandfathers', 'caldecott', 'medal', 'voyages', 'travels', 'homesickness', 'early', 'childhood', 'education', 'children', 'stories', 'social', 'issues', 'japanese', 'americans']</t>
+    <t>['archer', 'isabel', 'fictitious', 'character', 'triangles', 'interpersonal', 'relations', 'inheritance', 'succession', 'fathers', 'daughters', 'americans', 'married', 'women']</t>
+  </si>
+  <si>
+    <t>['literature', 'modern', 'lesbians', 'writings', 'lesbianism']</t>
+  </si>
+  <si>
+    <t>['private', 'schools']</t>
+  </si>
+  <si>
+    <t>['job', 'enrichment', 'caring', 'interpersonal', 'relations', 'organizational', 'change']</t>
+  </si>
+  <si>
+    <t>['family', 'interpersonal', 'conflict', 'life', 'cycle', 'human']</t>
+  </si>
+  <si>
+    <t>['family', 'life', 'history', 'th', 'century', 'fiction', 'new', 'england', 'sisters']</t>
+  </si>
+  <si>
+    <t>['soap', 'operas', 'television', 'women', 'viewers']</t>
+  </si>
+  <si>
+    <t>['monasticism', 'religious', 'orders', 'learning', 'christian', 'literature', 'early', 'theology']</t>
+  </si>
+  <si>
+    <t>['rock', 'musicians']</t>
   </si>
   <si>
     <t>['tlingit', 'indians', 'haida', 'mythology', 'ethnic', 'race', 'studies', 'gender', 'social', 'sciences']</t>
   </si>
   <si>
-    <t>['-X0acnkBJOmTXcZdudCi', '-n0acnkBJOmTXcZdudCp', '-30acnkBJOmTXcZdudCx', '_H0acnkBJOmTXcZdudC5', '_X0acnkBJOmTXcZdudC_', '830acnkBJOmTXcZdudBy']</t>
+    <t>['grief', 'bereavement']</t>
+  </si>
+  <si>
+    <t>['identity', 'psychology', 'youth', 'stigma', 'social', 'group']</t>
+  </si>
+  <si>
+    <t>['social', 'service', 'alcoholics', 'twelve', 'step', 'programs']</t>
+  </si>
+  <si>
+    <t>['alcoholics', 'alcoholism']</t>
+  </si>
+  <si>
+    <t>['women', 'interior', 'decorators', 'architecture']</t>
+  </si>
+  <si>
+    <t>['kings', 'rulers', 'generals', 'eunuchs']</t>
+  </si>
+  <si>
+    <t>['literature', 'english', 'fiction', 'women', 'society', 'social', 'problems', 'money']</t>
+  </si>
+  <si>
+    <t>['christian', 'life', 'prayer', 'children', 'salvation']</t>
+  </si>
+  <si>
+    <t>['literature', 'modern', 'classical', 'english']</t>
+  </si>
+  <si>
+    <t>['authors', 'english']</t>
+  </si>
+  <si>
+    <t>['catholic', 'universities', 'colleges', 'christianity', 'justice', 'poor', 'educational', 'equalization', 'liberation', 'theology']</t>
+  </si>
+  <si>
+    <t>['automobiles', 'technology', 'civilization']</t>
+  </si>
+  <si>
+    <t>['runaway', 'wives', 'revenge']</t>
+  </si>
+  <si>
+    <t>['vocational', 'interests', 'job', 'satisfaction', 'self', 'actualization', 'psychology', 'work']</t>
+  </si>
+  <si>
+    <t>['english', 'poetry', 'sonnet', 'sonnets', 'languages', 'literatures']</t>
+  </si>
+  <si>
+    <t>['city', 'town', 'life', 'christian', 'fiction', 'domestic']</t>
+  </si>
+  <si>
+    <t>['american', 'literature', 'natural', 'history', 'nature']</t>
+  </si>
+  <si>
+    <t>['fantasy', 'literature']</t>
+  </si>
+  <si>
+    <t>['creative', 'activities', 'seat', 'work', 'holiday', 'decorations', 'handicraft']</t>
+  </si>
+  <si>
+    <t>['languages', 'literatures', 'general']</t>
+  </si>
+  <si>
+    <t>['medicine', 'terminology']</t>
+  </si>
+  <si>
+    <t>['psychiatrists', 'wealth']</t>
+  </si>
+  <si>
+    <t>['motion', 'picture', 'industry']</t>
+  </si>
+  <si>
+    <t>['low', 'fat', 'diet']</t>
+  </si>
+  <si>
+    <t>['job', 'hunting']</t>
+  </si>
+  <si>
+    <t>['J-zeIXkB7x-SzQ_eAsxG', 'KOzeIXkB7x-SzQ_eAsxO', 'KezeIXkB7x-SzQ_eAsxi', 'KuzeIXkB7x-SzQ_eAsxq', 'K-zeIXkB7x-SzQ_eAsxy', 'IezeIXkB7x-SzQ_eAswC']</t>
   </si>
   <si>
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
@@ -520,9 +1015,15 @@
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['european', 'European'], ['friendship', 'friendly_relationship']]</t>
   </si>
   <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['americans', 'American', 'American_English', 'American_language']]</t>
+  </si>
+  <si>
     <t>[['sonnets', 'sonnet'], ['english', 'English', 'English_language', 'English_people', 'side'], ['poetry', 'poesy', 'verse'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
   </si>
   <si>
+    <t>[['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['female', 'female_person', 'distaff'], ['friendship', 'friendly_relationship'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl']]</t>
+  </si>
+  <si>
     <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
   </si>
   <si>
@@ -532,91 +1033,247 @@
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
   </si>
   <si>
+    <t>[['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe'], ['courtship', 'wooing', 'courting', 'suit'], ['social', 'sociable', 'mixer', 'societal'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+  </si>
+  <si>
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['detective', 'investigator', 'tec', 'police_detective'], ['mystery', 'enigma', 'secret', 'closed_book', 'mystery_story', 'whodunit']]</t>
   </si>
   <si>
+    <t>[['widows', 'widow', 'widow_woman'], ['friendship', 'friendly_relationship'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationship', 'human_relationship', 'kinship', 'family_relationship']]</t>
+  </si>
+  <si>
+    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth']]</t>
+  </si>
+  <si>
     <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
   </si>
   <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['men', 'work_force', 'workforce', 'manpower', 'hands', 'man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['identity', 'personal_identity', 'individuality', 'identity_element', 'identity_operator', 'identicalness', 'indistinguishability'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['travels', 'travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around']]</t>
+  </si>
+  <si>
+    <t>[['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
     <t>[['governesses', 'governess', 'regulate', 'regularize', 'regularise', 'order', 'govern', 'rule'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['mentally'], ['ill', 'ailment', 'complaint', 'sick', 'inauspicious', 'ominous', 'badly', 'poorly'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['charity', 'brotherly_love', "Jacob's_ladder", 'Greek_valerian', 'Polemonium_caeruleum', 'Polemonium_van-bruntiae', 'Polymonium_caeruleum_van-bruntiae'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['country', 'state', 'nation', 'land', 'commonwealth', 'res_publica', 'body_politic', 'rural_area', 'area'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['orphans', 'orphan']]</t>
   </si>
   <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['mistresses', 'mistress', 'kept_woman', 'fancy_woman', 'schoolmarm', "schoolma'am", 'schoolmistress'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
     <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['literature', 'lit']]</t>
   </si>
   <si>
-    <t>[['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
-  </si>
-  <si>
     <t>[['comedy', 'drollery', 'clowning', 'funniness'], ['films', 'movie', 'film', 'picture', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'cinema', 'celluloid', 'photographic_film', 'plastic_film', 'shoot', 'take'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['motion', 'gesture', 'movement', 'move', 'motility', 'question', 'apparent_motion', 'apparent_movement', 'gesticulate'], ['pictures', 'picture', 'image', 'icon', 'ikon', 'painting', 'mental_picture', 'impression', 'scene', 'pictorial_matter', 'movie', 'film', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'video', 'word_picture', 'word-painting', 'delineation', 'depiction', 'characterization', 'characterisation', 'photograph', 'photo', 'exposure', 'visualize', 'visualise', 'envision', 'project', 'fancy', 'see', 'figure', 'depict', 'render', 'show']]</t>
   </si>
   <si>
+    <t>[['lesbian', 'tribade', 'gay_woman', 'Lesbian', 'sapphic'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate']]</t>
+  </si>
+  <si>
+    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['self', 'ego'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['large', 'big', 'bombastic', 'declamatory', 'orotund', 'tumid', 'turgid', 'magnanimous', 'prominent', 'enceinte', 'expectant', 'gravid', 'great', 'heavy', 'with_child', 'boastfully', 'vauntingly'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold']]</t>
+  </si>
+  <si>
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side'], ['american', 'American', 'American_English', 'American_language'], ['fiction', 'fabrication', 'fable']]</t>
   </si>
   <si>
     <t>[['literature', 'lit'], ['historical', 'historic', 'diachronic'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
   </si>
   <si>
-    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['self', 'ego'], ['esteem', 'regard', 'respect', 'admiration', 'value', 'prize', 'prise', 'think_of', 'repute', 'regard_as', 'look_upon', 'look_on', 'take_to_be'], ['large', 'big', 'bombastic', 'declamatory', 'orotund', 'tumid', 'turgid', 'magnanimous', 'prominent', 'enceinte', 'expectant', 'gravid', 'great', 'heavy', 'with_child', 'boastfully', 'vauntingly'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold']]</t>
+    <t>[['italian', 'Italian'], ['american', 'American', 'American_English', 'American_language'], ['families', 'family', 'household', 'house', 'home', 'menage', 'family_unit', 'class', 'category', 'family_line', 'folk', 'kinfolk', 'kinsfolk', 'sept', 'phratry', 'kin', 'kinsperson', 'syndicate', 'crime_syndicate', 'mob', 'fellowship'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['americans', 'American', 'American_English', 'American_language']]</t>
+  </si>
+  <si>
+    <t>[['african', 'African'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['men', 'work_force', 'workforce', 'manpower', 'hands', 'man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['female', 'female_person', 'distaff'], ['friendship', 'friendly_relationship']]</t>
+  </si>
+  <si>
+    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['literature', 'lit'], ['female', 'female_person', 'distaff'], ['friendship', 'friendly_relationship'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
   </si>
   <si>
     <t>[['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['war', 'warfare', 'state_of_war'], ['authors', 'writer', 'author', 'generator', 'source'], ['welsh', 'Welshman', 'Welsh', 'Cambrian', 'Cymry', 'Cymric', 'Welsh_Black', 'welch'], ['soldiers', 'soldier'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
   </si>
   <si>
+    <t>[['self', 'ego'], ['actualization', 'realization', 'realisation', 'actualisation'], ['psychology', 'psychological_science'], ['maturation', 'ripening', 'maturement', 'growth', 'growing', 'development', 'ontogeny', 'ontogenesis', 'festering', 'suppuration'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['spirituality', 'spiritualty', 'church_property', 'spiritualism', 'spiritism', 'otherworldliness']]</t>
+  </si>
+  <si>
     <t>[['spanish', 'Spanish', 'Spanish_people'], ['poetry', 'poesy', 'verse'], ['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['authors', 'writer', 'author', 'generator', 'source'], ['patrons', 'patron', 'frequenter', 'sponsor', 'supporter']]</t>
   </si>
   <si>
+    <t>[['country', 'state', 'nation', 'land', 'commonwealth', 'res_publica', 'body_politic', 'rural_area', 'area'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['employees', 'employee']]</t>
+  </si>
+  <si>
     <t>[['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['fiction', 'fabrication', 'fable'], ['epistolary', 'epistolatory'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
   </si>
   <si>
-    <t>[['self', 'ego'], ['actualization', 'realization', 'realisation', 'actualisation'], ['psychology', 'psychological_science'], ['maturation', 'ripening', 'maturement', 'growth', 'growing', 'development', 'ontogeny', 'ontogenesis', 'festering', 'suppuration'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['spirituality', 'spiritualty', 'church_property', 'spiritualism', 'spiritism', 'otherworldliness']]</t>
-  </si>
-  <si>
-    <t>[['poetry', 'poesy', 'verse'], ['satire', 'sarcasm', 'irony', 'caustic_remark'], ['latin', 'Latin', 'Romance'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['epigrams', 'epigram', 'quip']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['latin', 'Latin', 'Romance'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+    <t>[['abusive', 'opprobrious', 'scurrilous'], ['men', 'work_force', 'workforce', 'manpower', 'hands', 'man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['violence', 'force', 'ferocity', 'fierceness', 'furiousness', 'fury', 'vehemence', 'wildness'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home']]</t>
+  </si>
+  <si>
+    <t>[['poetry', 'poesy', 'verse'], ['satire', 'sarcasm', 'irony', 'caustic_remark'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['epigrams', 'epigram', 'quip']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['social', 'sociable', 'mixer', 'societal'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over']]</t>
   </si>
   <si>
     <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['teenagers', 'adolescent', 'stripling', 'teenager', 'teen'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['sociology'], ['social', 'sociable', 'mixer', 'societal'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
   </si>
   <si>
+    <t>[['intercountry'], ['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['interethnic'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['horror', 'repugnance', 'repulsion', 'revulsion'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold'], ['reading', 'meter_reading', 'indication', 'reading_material', 'interpretation', 'version', 'Reading', 'recitation', 'recital', 'read', 'say', 'scan', 'take', 'learn', 'study', 'register', 'show', 'record', 'understand', 'interpret', 'translate'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
+  </si>
+  <si>
+    <t>[['british', 'British', 'British_people', 'Brits'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship']]</t>
+  </si>
+  <si>
     <t>[['monsters', 'monster', 'giant', 'goliath', 'behemoth', 'colossus', 'freak', 'monstrosity', 'lusus_naturae', 'fiend', 'devil', 'demon', 'ogre', 'teras'], ['baseball', 'baseball_game'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
   </si>
   <si>
-    <t>[['horror', 'repugnance', 'repulsion', 'revulsion'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold'], ['reading', 'meter_reading', 'indication', 'reading_material', 'interpretation', 'version', 'Reading', 'recitation', 'recital', 'read', 'say', 'scan', 'take', 'learn', 'study', 'register', 'show', 'record', 'understand', 'interpret', 'translate'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
-  </si>
-  <si>
-    <t>[['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['poetry', 'poesy', 'verse'], ['latin', 'Latin', 'Romance'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
+  </si>
+  <si>
+    <t>[['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
   </si>
   <si>
     <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['literature', 'lit'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['romances', 'love_affair', 'romance', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash'], ['manuscripts', 'manuscript', 'ms', 'holograph'], ['courtly', 'formal', 'stately']]</t>
   </si>
   <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['latin', 'Latin', 'Romance'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
-  </si>
-  <si>
     <t>[['wizards', 'ace', 'adept', 'champion', 'sensation', 'maven', 'mavin', 'virtuoso', 'genius', 'hotshot', 'star', 'superstar', 'whiz', 'whizz', 'wizard', 'wiz', 'sorcerer', 'magician', 'necromancer', 'thaumaturge', 'thaumaturgist'], ['magic', 'thaumaturgy', 'magic_trick', 'conjuring_trick', 'trick', 'legerdemain', 'conjuration', 'illusion', 'deception', 'charming', 'magical', 'sorcerous', 'witching', 'wizard', 'wizardly'], ['animals', 'animal', 'animate_being', 'beast', 'brute', 'creature', 'fauna'], ['witchcraft', 'witchery'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
   </si>
   <si>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+  </si>
+  <si>
+    <t>[['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['communication', 'communicating']]</t>
+  </si>
+  <si>
     <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['christianity', 'Christianity', 'Christian_religion', 'Christendom'], ['providence', 'Providence', 'capital_of_Rhode_Island'], ['government', 'authorities', 'regime', 'governing', 'governance', 'government_activity', 'administration', 'politics', 'political_science'], ['color', 'colour', 'coloring', 'colouring', 'vividness', 'coloration', 'colouration', 'people_of_color', 'people_of_colour', 'semblance', 'gloss', 'coloring_material', 'colouring_material', 'colorize', 'colorise', 'colourise', 'colourize', 'color_in', 'colour_in', 'tinge', 'distort', 'emblazon', 'discolor', 'discolour'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
   </si>
   <si>
-    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+    <t>[['fiction', 'fabrication', 'fable'], ['english', 'English', 'English_language', 'English_people', 'side'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['fat', 'adipose_tissue', 'fatty_tissue', 'fatness', 'blubber', 'avoirdupois', 'fatten', 'flesh_out', 'fill_out', 'plump', 'plump_out', 'fatten_out', 'fatten_up', 'fatty', 'juicy', 'fertile', 'productive', 'rich'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['courtship', 'wooing', 'courting', 'suit'], ['beauty', 'smasher', 'stunner', 'knockout', 'ravisher', 'sweetheart', 'peach', 'lulu', 'looker', 'mantrap', 'dish', 'beaut'], ['personal']]</t>
   </si>
   <si>
     <t>[['chastity', 'celibacy', 'sexual_abstention', 'virtue', 'sexual_morality'], ['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side'], ['feminism', 'feminist_movement', "women's_liberation_movement", "women's_lib"], ['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['rulers', 'ruler', 'swayer', 'rule'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill'], ['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['single', 'bingle', 'one', '1', 'I', 'ace', 'unity', 'individual', 'unmarried', 'undivided', 'exclusive'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
   </si>
   <si>
+    <t>[['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['management', 'direction']]</t>
+  </si>
+  <si>
+    <t>[['lesbian', 'tribade', 'gay_woman', 'Lesbian', 'sapphic'], ['mothers', 'mother', 'female_parent', 'fuss', 'overprotect', 'beget', 'get', 'engender', 'father', 'sire', 'generate', 'bring_forth'], ['adoption', 'acceptance', 'acceptation', 'espousal', 'borrowing']]</t>
+  </si>
+  <si>
+    <t>[['grandfathers', 'grandfather', 'gramps', 'granddad', 'grandad', 'granddaddy', 'grandpa'], ['caldecott'], ['medal', 'decoration', 'laurel_wreath', 'medallion', 'palm', 'ribbon'], ['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['travels', 'travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around'], ['homesickness'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['social', 'sociable', 'mixer', 'societal'], ['issues', 'issue', 'number', 'topic', 'subject', 'matter', 'issuing', 'issuance', 'military_issue', 'government_issue', 'return', 'take', 'takings', 'proceeds', 'yield', 'payoff', 'consequence', 'effect', 'outcome', 'result', 'event', 'upshot', 'offspring', 'progeny', 'emergence', 'egress', 'exit', 'outlet', 'way_out', 'publication', 'publish', 'bring_out', 'put_out', 'release', 'supply', 'emerge', 'come_out', 'come_forth', 'go_forth', 'write_out', 'make_out', 'cut'], ['japanese', 'Japanese', 'Nipponese'], ['americans', 'American', 'American_English', 'American_language']]</t>
+  </si>
+  <si>
     <t>[['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['folklore']]</t>
   </si>
   <si>
     <t>[['folklore'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
   </si>
   <si>
-    <t>[['grandfathers', 'grandfather', 'gramps', 'granddad', 'grandad', 'granddaddy', 'grandpa'], ['caldecott'], ['medal', 'decoration', 'laurel_wreath', 'medallion', 'palm', 'ribbon'], ['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['travels', 'travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around'], ['homesickness'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['social', 'sociable', 'mixer', 'societal'], ['issues', 'issue', 'number', 'topic', 'subject', 'matter', 'issuing', 'issuance', 'military_issue', 'government_issue', 'return', 'take', 'takings', 'proceeds', 'yield', 'payoff', 'consequence', 'effect', 'outcome', 'result', 'event', 'upshot', 'offspring', 'progeny', 'emergence', 'egress', 'exit', 'outlet', 'way_out', 'publication', 'publish', 'bring_out', 'put_out', 'release', 'supply', 'emerge', 'come_out', 'come_forth', 'go_forth', 'write_out', 'make_out', 'cut'], ['japanese', 'Japanese', 'Nipponese'], ['americans', 'American', 'American_English', 'American_language']]</t>
+    <t>[['archer', 'bowman', 'Sagittarius', 'Archer', 'Sagittarius_the_Archer'], ['isabel'], ['fictitious', 'fabricated', 'fancied', 'fictional', 'assumed', 'false', 'fictive', 'pretended', 'put_on', 'sham'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['triangles', 'triangle', 'trigon', 'trilateral', 'Triangulum', 'Triangle'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['americans', 'American', 'American_English', 'American_language'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New'], ['lesbians', 'lesbian', 'tribade', 'gay_woman', 'Lesbian'], ['writings', 'Hagiographa', 'Ketubim', 'Writings', 'writing', 'authorship', 'composition', 'penning', 'written_material', 'piece_of_writing', 'committal_to_writing', 'write', 'compose', 'pen', 'indite', 'publish', 'drop_a_line', 'save', 'spell'], ['lesbianism', 'sapphism']]</t>
+  </si>
+  <si>
+    <t>[['private', 'buck_private', 'common_soldier', 'individual', 'secret'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise']]</t>
+  </si>
+  <si>
+    <t>[['problems', 'problem', 'job', 'trouble'], ['enrichment'], ['caring', 'lovingness', 'care', 'give_care', 'wish', 'like', 'manage', 'deal', 'handle', 'worry'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['organizational', 'organisational'], ['change', 'alteration', 'modification', 'variety', 'alter', 'modify', 'vary', 'switch', 'shift', 'exchange', 'commute', 'convert', 'interchange', 'transfer', 'deepen']]</t>
+  </si>
+  <si>
+    <t>[['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['interpersonal'], ['conflict', 'struggle', 'battle', 'fight', 'engagement', 'dispute', 'difference', 'difference_of_opinion', 'run_afoul', 'infringe', 'contravene'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['cycle', 'rhythm', 'round', 'hertz', 'Hz', 'cycle_per_second', 'cycles/second', 'cps', 'oscillation', 'bicycle', 'bike', 'wheel', 'motorbike', 'motorcycle', 'pedal'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind']]</t>
+  </si>
+  <si>
+    <t>[['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['th', 'Thursday', 'Th', 'thorium', 'atomic_number_90'], ['century', 'hundred', '100', 'C', 'one_C'], ['fiction', 'fabrication', 'fable'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New'], ['england', 'England'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe']]</t>
+  </si>
+  <si>
+    <t>[['soap', 'scoop', 'max', 'liquid_ecstasy', 'grievous_bodily_harm', 'goop', 'Georgia_home_boy', 'easy_lay', 'lather'], ['operas', 'opera', 'Opera', 'opera_house'], ['television', 'telecasting', 'TV', 'video', 'television_system', 'television_receiver', 'television_set', 'tv', 'tv_set', 'idiot_box', 'boob_tube', 'telly', 'goggle_box'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['viewers', 'viewing_audience', 'TV_audience', 'spectator', 'witness', 'viewer', 'watcher', 'looker']]</t>
+  </si>
+  <si>
+    <t>[['monasticism'], ['religious', 'spiritual'], ['orders', 'order', 'order_of_magnitude', 'ordering', 'ordination', 'orderliness', 'decree', 'edict', 'fiat', 'rescript', 'purchase_order', 'club', 'social_club', 'society', 'guild', 'gild', 'lodge', 'rules_of_order', 'parliamentary_law', 'parliamentary_procedure', 'Holy_Order', 'Order', 'monastic_order', 'tell', 'enjoin', 'say', 'prescribe', 'dictate', 'regulate', 'regularize', 'regularise', 'govern', 'ordain', 'consecrate', 'ordinate', 'arrange', 'set_up', 'put', 'rate', 'rank', 'range', 'grade', 'place'], ['learning', 'acquisition', 'eruditeness', 'erudition', 'learnedness', 'scholarship', 'encyclopedism', 'encyclopaedism', 'learn', 'larn', 'acquire', 'hear', 'get_word', 'get_wind', 'pick_up', 'find_out', 'get_a_line', 'discover', 'see', 'memorize', 'memorise', 'con', 'study', 'read', 'take', 'teach', 'instruct', 'determine', 'check', 'ascertain', 'watch'], ['christian', 'Christian'], ['literature', 'lit'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['theology', 'divinity', 'theological_system']]</t>
+  </si>
+  <si>
+    <t>[['rock', 'stone', 'Rock', 'John_Rock', 'rock_candy', "rock_'n'_roll", "rock'n'roll", 'rock-and-roll', 'rock_and_roll', 'rock_music', 'careen', 'sway', 'tilt', 'shake'], ['musicians', 'musician', 'instrumentalist', 'player']]</t>
   </si>
   <si>
     <t>[['tlingit', 'Tlingit'], ['indians', 'Indian', 'American_Indian', 'Red_Indian', 'Amerind', 'Amerindian_language', 'American-Indian_language'], ['haida', 'Haida'], ['mythology'], ['ethnic', 'cultural', 'ethnical', 'heathen', 'heathenish', 'pagan'], ['race', 'subspecies', 'slipstream', 'airstream', 'backwash', 'wash', 'raceway', 'rush', 'hotfoot', 'hasten', 'hie', 'speed', 'pelt_along', 'rush_along', 'cannonball_along', 'bucket_along', 'belt_along', 'step_on_it', 'run'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
+  </si>
+  <si>
+    <t>[['grief', 'heartache', 'heartbreak', 'brokenheartedness', 'sorrow'], ['bereavement', 'mourning']]</t>
+  </si>
+  <si>
+    <t>[['identity', 'personal_identity', 'individuality', 'identity_element', 'identity_operator', 'identicalness', 'indistinguishability'], ['psychology', 'psychological_science'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['stigma', 'mark', 'brand', 'stain'], ['social', 'sociable', 'mixer', 'societal'], ['group', 'grouping', 'radical', 'chemical_group', 'mathematical_group', 'aggroup']]</t>
+  </si>
+  <si>
+    <t>[['social', 'sociable', 'mixer', 'societal'], ['service', 'religious_service', 'divine_service', 'military_service', 'armed_service', 'Service', 'Robert_William_Service', 'avail', 'help', 'table_service', 'servicing', 'serve', 'serving', 'service_of_process', 'overhaul', 'inspection_and_repair'], ['alcoholics', 'alcoholic', 'alky', 'dipsomaniac', 'boozer', 'lush', 'soaker', 'souse'], ['twelve', '12', 'XII', 'dozen', 'xii'], ['step', 'measure', 'footstep', 'pace', 'stride', 'stair', 'gradation', "stone's_throw", 'footfall', 'tone', 'whole_tone', 'whole_step', 'footprint', 'footmark', 'dance_step', 'tread', 'mistreat', 'maltreat', 'abuse', 'ill-use', 'ill-treat'], ['programs', 'plan', 'program', 'programme', 'broadcast', 'platform', 'political_platform', 'political_program', 'course_of_study', 'curriculum', 'syllabus', 'computer_program', 'computer_programme']]</t>
+  </si>
+  <si>
+    <t>[['alcoholics', 'alcoholic', 'alky', 'dipsomaniac', 'boozer', 'lush', 'soaker', 'souse'], ['alcoholism', 'alcohol_addiction', 'inebriation', 'drunkenness', 'dipsomania', 'potomania']]</t>
+  </si>
+  <si>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['interior', 'inside', 'Department_of_the_Interior', 'Interior_Department', 'Interior', 'DoI', 'home', 'internal', 'national', 'inner', 'midland', 'upcountry'], ['decorators', 'interior_designer', 'designer', 'interior_decorator', 'house_decorator', 'room_decorator', 'decorator', 'ornamentalist'], ['architecture', 'computer_architecture']]</t>
+  </si>
+  <si>
+    <t>[['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['rulers', 'ruler', 'swayer', 'rule'], ['generals', 'general', 'full_general', 'superior_general'], ['eunuchs', 'eunuch', 'castrate']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['society', 'club', 'social_club', 'guild', 'gild', 'lodge', 'order', 'company', 'companionship', 'fellowship', 'high_society', 'beau_monde', 'smart_set', 'bon_ton'], ['social', 'sociable', 'mixer', 'societal'], ['problems', 'problem', 'job', 'trouble'], ['money']]</t>
+  </si>
+  <si>
+    <t>[['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['prayer', 'supplication', 'petition', 'orison', 'entreaty', 'appeal', 'supplicant'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['salvation', 'redemption']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New'], ['classical', 'classical_music', 'serious_music', 'classic', 'authoritative', 'definitive', 'Greco-Roman', 'Graeco-Roman', 'Hellenic'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
+  </si>
+  <si>
+    <t>[['authors', 'writer', 'author', 'generator', 'source'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
+  </si>
+  <si>
+    <t>[['catholic', 'Catholic'], ['universities', 'university'], ['colleges', 'college'], ['christianity', 'Christianity', 'Christian_religion', 'Christendom'], ['justice', 'justness', 'judge', 'jurist', 'Department_of_Justice', 'Justice_Department', 'Justice', 'DoJ'], ['poor', 'poor_people', 'hapless', 'miserable', 'misfortunate', 'pathetic', 'piteous', 'pitiable', 'pitiful', 'wretched', 'inadequate', 'short'], ['educational'], ['equalization', 'equalisation', 'leveling'], ['liberation', 'release', 'freeing', 'dismissal', 'dismission', 'discharge', 'firing', 'sack', 'sacking'], ['theology', 'divinity', 'theological_system']]</t>
+  </si>
+  <si>
+    <t>[['automobiles', 'car', 'auto', 'automobile', 'machine', 'motorcar'], ['technology', 'engineering', 'engineering_science', 'applied_science'], ['civilization', 'civilisation', 'culture', 'refinement']]</t>
+  </si>
+  <si>
+    <t>[['runaway', 'blowout', 'romp', 'laugher', 'shoo-in', 'walkaway', 'fugitive', 'fleer'], ['wives', 'wife', 'married_woman', 'wive'], ['revenge', 'retaliation', 'avenge', 'retaliate']]</t>
+  </si>
+  <si>
+    <t>[['vocational'], ['interests', 'interest', 'involvement', 'sake', 'interestingness', 'stake', 'interest_group', 'pastime', 'pursuit', 'concern', 'occupy', 'worry', 'matter_to'], ['problems', 'problem', 'job', 'trouble'], ['satisfaction', 'gratification', 'atonement', 'expiation'], ['self', 'ego'], ['actualization', 'realization', 'realisation', 'actualisation'], ['psychology', 'psychological_science'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['poetry', 'poesy', 'verse'], ['sonnets', 'sonnet'], ['sonnets', 'sonnet'], ['languages', 'language', 'linguistic_communication', 'speech', 'speech_communication', 'spoken_communication', 'spoken_language', 'voice_communication', 'oral_communication', 'lyric', 'words', 'linguistic_process', 'terminology', 'nomenclature'], ['literatures', 'literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['christian', 'Christian'], ['fiction', 'fabrication', 'fable'], ['domestic', 'domestic_help', 'house_servant', 'domesticated']]</t>
+  </si>
+  <si>
+    <t>[['american', 'American', 'American_English', 'American_language'], ['literature', 'lit'], ['natural', 'cancel', 'instinctive', 'raw', 'rude', 'born', 'innate', 'lifelike'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['nature']]</t>
+  </si>
+  <si>
+    <t>[['fantasy', 'phantasy', 'illusion', 'fancy', 'fantasize', 'fantasise'], ['literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['creative', 'originative'], ['activities', 'activity', 'action', 'activeness', 'bodily_process', 'body_process', 'bodily_function', 'natural_process', 'natural_action'], ['seat', 'place', 'buttocks', 'nates', 'arse', 'butt', 'backside', 'bum', 'buns', 'can', 'fundament', 'hindquarters', 'hind_end', 'keister', 'posterior', 'prat', 'rear', 'rear_end', 'rump', 'stern', 'tail', 'tail_end', 'tooshie', 'tush', 'bottom', 'behind', 'derriere', 'fanny', 'ass', 'sit', 'sit_down', 'induct', 'invest'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate'], ['holiday', 'vacation'], ['decorations', 'decoration', 'ornament', 'ornamentation', 'laurel_wreath', 'medal', 'medallion', 'palm', 'ribbon'], ['handicraft', 'handcraft', 'handiwork', 'handwork']]</t>
+  </si>
+  <si>
+    <t>[['languages', 'language', 'linguistic_communication', 'speech', 'speech_communication', 'spoken_communication', 'spoken_language', 'voice_communication', 'oral_communication', 'lyric', 'words', 'linguistic_process', 'terminology', 'nomenclature'], ['literatures', 'literature', 'lit'], ['generals', 'general', 'full_general', 'superior_general']]</t>
+  </si>
+  <si>
+    <t>[['medicine', 'medical_specialty', 'medication', 'medicament', 'medicinal_drug', 'practice_of_medicine', 'music', 'medicate'], ['terminology', 'nomenclature', 'language']]</t>
+  </si>
+  <si>
+    <t>[['psychiatrists', 'psychiatrist', 'head-shrinker', 'shrink'], ['wealth', 'wealthiness', 'riches']]</t>
+  </si>
+  <si>
+    <t>[['motion', 'gesture', 'movement', 'move', 'motility', 'question', 'apparent_motion', 'apparent_movement', 'gesticulate'], ['films', 'movie', 'film', 'picture', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'cinema', 'celluloid', 'photographic_film', 'plastic_film', 'shoot', 'take'], ['industry', 'manufacture', 'diligence', 'industriousness']]</t>
+  </si>
+  <si>
+    <t>[['low', 'depression', 'Low', 'David_Low', 'Sir_David_Low', 'Sir_David_Alexander_Cecil_Low', 'first_gear', 'first', 'low_gear', 'moo', 'low-toned', 'low-pitched', 'abject', 'low-down', 'miserable', 'scummy', 'scurvy', 'humble', 'lowly', 'modest', 'small', 'depleted', 'broken', 'crushed', 'humbled', 'humiliated', 'gloomy', 'grim', 'blue', 'depressed', 'dispirited', 'down', 'downcast', 'downhearted', 'down_in_the_mouth', 'low-spirited'], ['fat', 'adipose_tissue', 'fatty_tissue', 'fatness', 'blubber', 'avoirdupois', 'fatten', 'flesh_out', 'fill_out', 'plump', 'plump_out', 'fatten_out', 'fatten_up', 'fatty', 'juicy', 'fertile', 'productive', 'rich'], ['diet', 'dieting']]</t>
+  </si>
+  <si>
+    <t>[['problems', 'problem', 'job', 'trouble'], ['hunting', 'hunt', 'search', 'run', 'hunt_down', 'track_down', 'hound', 'trace']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -1015,7 +1672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,19 +1687,19 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>201</v>
+        <v>420</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>202</v>
+        <v>421</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>203</v>
+        <v>422</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>204</v>
+        <v>423</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>205</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
@@ -1053,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>57</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>106</v>
+        <v>217</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>107</v>
+        <v>218</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>154</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1073,16 +1730,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>115</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="F3" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1093,16 +1750,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1113,16 +1770,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>60</v>
+        <v>117</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E5" t="s">
-        <v>108</v>
+        <v>219</v>
       </c>
       <c r="F5" t="s">
-        <v>155</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1133,16 +1790,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="D6">
         <v>71</v>
       </c>
       <c r="E6" t="s">
-        <v>109</v>
+        <v>220</v>
       </c>
       <c r="F6" t="s">
-        <v>156</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1153,16 +1810,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D7">
         <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>221</v>
       </c>
       <c r="F7" t="s">
-        <v>157</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1173,16 +1830,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>63</v>
+        <v>120</v>
       </c>
       <c r="D8">
         <v>55</v>
       </c>
       <c r="E8" t="s">
-        <v>111</v>
+        <v>222</v>
       </c>
       <c r="F8" t="s">
-        <v>158</v>
+        <v>323</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1193,16 +1850,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="D9">
         <v>51</v>
       </c>
       <c r="E9" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="F9" t="s">
-        <v>159</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1213,16 +1870,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D10">
         <v>47</v>
       </c>
       <c r="E10" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="F10" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1233,16 +1890,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="D11">
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="F11" t="s">
-        <v>160</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1253,16 +1910,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D12">
         <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="F12" t="s">
-        <v>161</v>
+        <v>326</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1273,16 +1930,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>67</v>
+        <v>124</v>
       </c>
       <c r="D13">
         <v>42</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="F13" t="s">
-        <v>162</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1293,16 +1950,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>68</v>
+        <v>125</v>
       </c>
       <c r="D14">
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>227</v>
       </c>
       <c r="F14" t="s">
-        <v>163</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1313,16 +1970,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="D15">
         <v>42</v>
       </c>
       <c r="E15" t="s">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="F15" t="s">
-        <v>164</v>
+        <v>329</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1333,16 +1990,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>70</v>
+        <v>127</v>
       </c>
       <c r="D16">
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>330</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1353,16 +2010,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="D17">
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="F17" t="s">
-        <v>166</v>
+        <v>331</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1373,16 +2030,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="D18">
         <v>41</v>
       </c>
       <c r="E18" t="s">
-        <v>119</v>
+        <v>230</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>331</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1393,16 +2050,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="D19">
         <v>41</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="F19" t="s">
-        <v>167</v>
+        <v>332</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1413,16 +2070,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>73</v>
+        <v>130</v>
       </c>
       <c r="D20">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E20" t="s">
-        <v>121</v>
+        <v>232</v>
       </c>
       <c r="F20" t="s">
-        <v>168</v>
+        <v>333</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1433,16 +2090,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>74</v>
+        <v>131</v>
       </c>
       <c r="D21">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E21" t="s">
-        <v>122</v>
+        <v>233</v>
       </c>
       <c r="F21" t="s">
-        <v>169</v>
+        <v>334</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1453,16 +2110,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>75</v>
+        <v>132</v>
       </c>
       <c r="D22">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>123</v>
+        <v>234</v>
       </c>
       <c r="F22" t="s">
-        <v>170</v>
+        <v>335</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1473,16 +2130,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>133</v>
       </c>
       <c r="D23">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>235</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>336</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1493,16 +2150,16 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="D24">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
       <c r="F24" t="s">
-        <v>171</v>
+        <v>337</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1513,16 +2170,16 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E25" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
       <c r="F25" t="s">
-        <v>172</v>
+        <v>338</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1533,16 +2190,16 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>78</v>
+        <v>135</v>
       </c>
       <c r="D26">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E26" t="s">
-        <v>126</v>
+        <v>237</v>
       </c>
       <c r="F26" t="s">
-        <v>173</v>
+        <v>338</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1553,16 +2210,16 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="D27">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E27" t="s">
-        <v>127</v>
+        <v>238</v>
       </c>
       <c r="F27" t="s">
-        <v>174</v>
+        <v>339</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1573,16 +2230,16 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>80</v>
+        <v>137</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E28" t="s">
-        <v>128</v>
+        <v>239</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1593,16 +2250,16 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="D29">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E29" t="s">
-        <v>129</v>
+        <v>240</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>341</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1613,16 +2270,16 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>82</v>
+        <v>139</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E30" t="s">
-        <v>130</v>
+        <v>241</v>
       </c>
       <c r="F30" t="s">
-        <v>177</v>
+        <v>342</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1633,16 +2290,16 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>83</v>
+        <v>140</v>
       </c>
       <c r="D31">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E31" t="s">
-        <v>131</v>
+        <v>242</v>
       </c>
       <c r="F31" t="s">
-        <v>178</v>
+        <v>343</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1653,16 +2310,16 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>84</v>
+        <v>141</v>
       </c>
       <c r="D32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>132</v>
+        <v>243</v>
       </c>
       <c r="F32" t="s">
-        <v>179</v>
+        <v>344</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1673,16 +2330,16 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>85</v>
+        <v>142</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E33" t="s">
-        <v>133</v>
+        <v>244</v>
       </c>
       <c r="F33" t="s">
-        <v>180</v>
+        <v>345</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1693,16 +2350,16 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="D34">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E34" t="s">
-        <v>134</v>
+        <v>245</v>
       </c>
       <c r="F34" t="s">
-        <v>181</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1713,16 +2370,16 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>87</v>
+        <v>144</v>
       </c>
       <c r="D35">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E35" t="s">
-        <v>135</v>
+        <v>246</v>
       </c>
       <c r="F35" t="s">
-        <v>182</v>
+        <v>347</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1733,16 +2390,16 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>145</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E36" t="s">
-        <v>134</v>
+        <v>247</v>
       </c>
       <c r="F36" t="s">
-        <v>181</v>
+        <v>348</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1753,16 +2410,16 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E37" t="s">
-        <v>136</v>
+        <v>248</v>
       </c>
       <c r="F37" t="s">
-        <v>183</v>
+        <v>349</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1773,16 +2430,16 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>137</v>
+        <v>249</v>
       </c>
       <c r="F38" t="s">
-        <v>184</v>
+        <v>350</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1793,16 +2450,16 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E39" t="s">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="F39" t="s">
-        <v>185</v>
+        <v>351</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1813,16 +2470,16 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D40">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E40" t="s">
-        <v>138</v>
+        <v>251</v>
       </c>
       <c r="F40" t="s">
-        <v>185</v>
+        <v>352</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1833,16 +2490,16 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E41" t="s">
-        <v>139</v>
+        <v>252</v>
       </c>
       <c r="F41" t="s">
-        <v>186</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1853,16 +2510,16 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>92</v>
+        <v>151</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
-        <v>140</v>
+        <v>253</v>
       </c>
       <c r="F42" t="s">
-        <v>187</v>
+        <v>354</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1873,16 +2530,16 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>93</v>
+        <v>152</v>
       </c>
       <c r="D43">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E43" t="s">
-        <v>141</v>
+        <v>254</v>
       </c>
       <c r="F43" t="s">
-        <v>188</v>
+        <v>355</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1893,16 +2550,16 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="D44">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E44" t="s">
-        <v>142</v>
+        <v>255</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>356</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1913,16 +2570,16 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E45" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="F45" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1933,16 +2590,16 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="D46">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E46" t="s">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="F46" t="s">
-        <v>190</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1953,16 +2610,16 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="D47">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E47" t="s">
-        <v>144</v>
+        <v>257</v>
       </c>
       <c r="F47" t="s">
-        <v>191</v>
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1973,16 +2630,16 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="D48">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E48" t="s">
-        <v>144</v>
+        <v>258</v>
       </c>
       <c r="F48" t="s">
-        <v>191</v>
+        <v>359</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1993,16 +2650,16 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="D49">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E49" t="s">
-        <v>145</v>
+        <v>259</v>
       </c>
       <c r="F49" t="s">
-        <v>192</v>
+        <v>360</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2013,16 +2670,16 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>157</v>
       </c>
       <c r="D50">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="F50" t="s">
-        <v>193</v>
+        <v>361</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2033,16 +2690,16 @@
         <v>49</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="D51">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s">
-        <v>147</v>
+        <v>261</v>
       </c>
       <c r="F51" t="s">
-        <v>194</v>
+        <v>362</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2053,16 +2710,16 @@
         <v>50</v>
       </c>
       <c r="C52" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="D52">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="F52" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2073,16 +2730,16 @@
         <v>51</v>
       </c>
       <c r="C53" t="s">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="D53">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E53" t="s">
-        <v>148</v>
+        <v>262</v>
       </c>
       <c r="F53" t="s">
-        <v>195</v>
+        <v>363</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2093,16 +2750,16 @@
         <v>52</v>
       </c>
       <c r="C54" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="D54">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s">
-        <v>149</v>
+        <v>263</v>
       </c>
       <c r="F54" t="s">
-        <v>196</v>
+        <v>364</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2113,16 +2770,16 @@
         <v>53</v>
       </c>
       <c r="C55" t="s">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="D55">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>197</v>
+        <v>365</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2133,16 +2790,16 @@
         <v>54</v>
       </c>
       <c r="C56" t="s">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="D56">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E56" t="s">
-        <v>151</v>
+        <v>265</v>
       </c>
       <c r="F56" t="s">
-        <v>198</v>
+        <v>366</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2153,16 +2810,16 @@
         <v>55</v>
       </c>
       <c r="C57" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D57">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s">
-        <v>152</v>
+        <v>266</v>
       </c>
       <c r="F57" t="s">
-        <v>199</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2173,16 +2830,1156 @@
         <v>56</v>
       </c>
       <c r="C58" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58">
+        <v>27</v>
+      </c>
+      <c r="E58" t="s">
+        <v>267</v>
+      </c>
+      <c r="F58" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59">
+        <v>27</v>
+      </c>
+      <c r="E59" t="s">
+        <v>268</v>
+      </c>
+      <c r="F59" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60">
+        <v>27</v>
+      </c>
+      <c r="E60" t="s">
+        <v>269</v>
+      </c>
+      <c r="F60" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>167</v>
+      </c>
+      <c r="D61">
+        <v>26</v>
+      </c>
+      <c r="E61" t="s">
+        <v>270</v>
+      </c>
+      <c r="F61" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>168</v>
+      </c>
+      <c r="D62">
+        <v>26</v>
+      </c>
+      <c r="E62" t="s">
+        <v>271</v>
+      </c>
+      <c r="F62" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63">
+        <v>26</v>
+      </c>
+      <c r="E63" t="s">
+        <v>271</v>
+      </c>
+      <c r="F63" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>169</v>
+      </c>
+      <c r="D64">
+        <v>26</v>
+      </c>
+      <c r="E64" t="s">
+        <v>272</v>
+      </c>
+      <c r="F64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>169</v>
+      </c>
+      <c r="D65">
+        <v>26</v>
+      </c>
+      <c r="E65" t="s">
+        <v>272</v>
+      </c>
+      <c r="F65" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>170</v>
+      </c>
+      <c r="D66">
+        <v>25</v>
+      </c>
+      <c r="E66" t="s">
+        <v>273</v>
+      </c>
+      <c r="F66" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>171</v>
+      </c>
+      <c r="D67">
+        <v>25</v>
+      </c>
+      <c r="E67" t="s">
+        <v>274</v>
+      </c>
+      <c r="F67" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>171</v>
+      </c>
+      <c r="D68">
+        <v>25</v>
+      </c>
+      <c r="E68" t="s">
+        <v>274</v>
+      </c>
+      <c r="F68" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69">
+        <v>25</v>
+      </c>
+      <c r="E69" t="s">
+        <v>275</v>
+      </c>
+      <c r="F69" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>173</v>
+      </c>
+      <c r="D70">
+        <v>25</v>
+      </c>
+      <c r="E70" t="s">
+        <v>275</v>
+      </c>
+      <c r="F70" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71">
+        <v>25</v>
+      </c>
+      <c r="E71" t="s">
+        <v>275</v>
+      </c>
+      <c r="F71" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>174</v>
+      </c>
+      <c r="D72">
+        <v>25</v>
+      </c>
+      <c r="E72" t="s">
+        <v>276</v>
+      </c>
+      <c r="F72" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>277</v>
+      </c>
+      <c r="F73" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74">
+        <v>23</v>
+      </c>
+      <c r="E74" t="s">
+        <v>278</v>
+      </c>
+      <c r="F74" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>177</v>
+      </c>
+      <c r="D75">
+        <v>23</v>
+      </c>
+      <c r="E75" t="s">
+        <v>279</v>
+      </c>
+      <c r="F75" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>178</v>
+      </c>
+      <c r="D76">
+        <v>23</v>
+      </c>
+      <c r="E76" t="s">
+        <v>280</v>
+      </c>
+      <c r="F76" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>179</v>
+      </c>
+      <c r="D77">
+        <v>23</v>
+      </c>
+      <c r="E77" t="s">
+        <v>281</v>
+      </c>
+      <c r="F77" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>180</v>
+      </c>
+      <c r="D78">
+        <v>23</v>
+      </c>
+      <c r="E78" t="s">
+        <v>282</v>
+      </c>
+      <c r="F78" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>181</v>
+      </c>
+      <c r="D79">
+        <v>23</v>
+      </c>
+      <c r="E79" t="s">
+        <v>283</v>
+      </c>
+      <c r="F79" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>182</v>
+      </c>
+      <c r="D80">
+        <v>22</v>
+      </c>
+      <c r="E80" t="s">
+        <v>284</v>
+      </c>
+      <c r="F80" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>183</v>
+      </c>
+      <c r="D81">
+        <v>21</v>
+      </c>
+      <c r="E81" t="s">
+        <v>285</v>
+      </c>
+      <c r="F81" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>184</v>
+      </c>
+      <c r="D82">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>286</v>
+      </c>
+      <c r="F82" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>185</v>
+      </c>
+      <c r="D83">
+        <v>20</v>
+      </c>
+      <c r="E83" t="s">
+        <v>287</v>
+      </c>
+      <c r="F83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>186</v>
+      </c>
+      <c r="D84">
+        <v>20</v>
+      </c>
+      <c r="E84" t="s">
+        <v>288</v>
+      </c>
+      <c r="F84" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>187</v>
+      </c>
+      <c r="D85">
+        <v>20</v>
+      </c>
+      <c r="E85" t="s">
+        <v>289</v>
+      </c>
+      <c r="F85" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>188</v>
+      </c>
+      <c r="D86">
+        <v>20</v>
+      </c>
+      <c r="E86" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>189</v>
+      </c>
+      <c r="D87">
+        <v>20</v>
+      </c>
+      <c r="E87" t="s">
+        <v>291</v>
+      </c>
+      <c r="F87" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>189</v>
+      </c>
+      <c r="D88">
+        <v>20</v>
+      </c>
+      <c r="E88" t="s">
+        <v>291</v>
+      </c>
+      <c r="F88" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>190</v>
+      </c>
+      <c r="D89">
+        <v>20</v>
+      </c>
+      <c r="E89" t="s">
+        <v>292</v>
+      </c>
+      <c r="F89" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90">
+        <v>19</v>
+      </c>
+      <c r="E90" t="s">
+        <v>293</v>
+      </c>
+      <c r="F90" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>192</v>
+      </c>
+      <c r="D91">
+        <v>19</v>
+      </c>
+      <c r="E91" t="s">
+        <v>294</v>
+      </c>
+      <c r="F91" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>193</v>
+      </c>
+      <c r="D92">
+        <v>19</v>
+      </c>
+      <c r="E92" t="s">
+        <v>295</v>
+      </c>
+      <c r="F92" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>194</v>
+      </c>
+      <c r="D93">
+        <v>19</v>
+      </c>
+      <c r="E93" t="s">
+        <v>296</v>
+      </c>
+      <c r="F93" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>195</v>
+      </c>
+      <c r="D94">
+        <v>18</v>
+      </c>
+      <c r="E94" t="s">
+        <v>297</v>
+      </c>
+      <c r="F94" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>196</v>
+      </c>
+      <c r="D95">
+        <v>18</v>
+      </c>
+      <c r="E95" t="s">
+        <v>298</v>
+      </c>
+      <c r="F95" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>197</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96" t="s">
+        <v>299</v>
+      </c>
+      <c r="F96" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>198</v>
+      </c>
+      <c r="D97">
+        <v>18</v>
+      </c>
+      <c r="E97" t="s">
+        <v>300</v>
+      </c>
+      <c r="F97" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>199</v>
+      </c>
+      <c r="D98">
+        <v>17</v>
+      </c>
+      <c r="E98" t="s">
+        <v>301</v>
+      </c>
+      <c r="F98" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>200</v>
+      </c>
+      <c r="D99">
+        <v>16</v>
+      </c>
+      <c r="E99" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>201</v>
+      </c>
+      <c r="D100">
+        <v>15</v>
+      </c>
+      <c r="E100" t="s">
+        <v>303</v>
+      </c>
+      <c r="F100" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>202</v>
+      </c>
+      <c r="D101">
+        <v>15</v>
+      </c>
+      <c r="E101" t="s">
+        <v>304</v>
+      </c>
+      <c r="F101" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>203</v>
+      </c>
+      <c r="D102">
+        <v>15</v>
+      </c>
+      <c r="E102" t="s">
+        <v>305</v>
+      </c>
+      <c r="F102" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>204</v>
+      </c>
+      <c r="D103">
+        <v>15</v>
+      </c>
+      <c r="E103" t="s">
+        <v>306</v>
+      </c>
+      <c r="F103" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>205</v>
+      </c>
+      <c r="D104">
+        <v>15</v>
+      </c>
+      <c r="E104" t="s">
+        <v>307</v>
+      </c>
+      <c r="F104" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>206</v>
+      </c>
+      <c r="D105">
+        <v>15</v>
+      </c>
+      <c r="E105" t="s">
+        <v>308</v>
+      </c>
+      <c r="F105" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>207</v>
+      </c>
+      <c r="D106">
+        <v>14</v>
+      </c>
+      <c r="E106" t="s">
+        <v>309</v>
+      </c>
+      <c r="F106" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="3">
         <v>105</v>
       </c>
-      <c r="D58">
-        <v>19</v>
-      </c>
-      <c r="E58" t="s">
-        <v>153</v>
-      </c>
-      <c r="F58" t="s">
-        <v>200</v>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>208</v>
+      </c>
+      <c r="D107">
+        <v>13</v>
+      </c>
+      <c r="E107" t="s">
+        <v>310</v>
+      </c>
+      <c r="F107" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>209</v>
+      </c>
+      <c r="D108">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>311</v>
+      </c>
+      <c r="F108" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>210</v>
+      </c>
+      <c r="D109">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>312</v>
+      </c>
+      <c r="F109" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>211</v>
+      </c>
+      <c r="D110">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>313</v>
+      </c>
+      <c r="F110" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>212</v>
+      </c>
+      <c r="D111">
+        <v>10</v>
+      </c>
+      <c r="E111" t="s">
+        <v>314</v>
+      </c>
+      <c r="F111" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="3">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>110</v>
+      </c>
+      <c r="C112" t="s">
+        <v>213</v>
+      </c>
+      <c r="D112">
+        <v>10</v>
+      </c>
+      <c r="E112" t="s">
+        <v>315</v>
+      </c>
+      <c r="F112" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="3">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>111</v>
+      </c>
+      <c r="C113" t="s">
+        <v>214</v>
+      </c>
+      <c r="D113">
+        <v>10</v>
+      </c>
+      <c r="E113" t="s">
+        <v>316</v>
+      </c>
+      <c r="F113" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6">
+      <c r="A114" s="3">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>112</v>
+      </c>
+      <c r="C114" t="s">
+        <v>215</v>
+      </c>
+      <c r="D114">
+        <v>9</v>
+      </c>
+      <c r="E114" t="s">
+        <v>317</v>
+      </c>
+      <c r="F114" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6">
+      <c r="A115" s="3">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>113</v>
+      </c>
+      <c r="C115" t="s">
+        <v>216</v>
+      </c>
+      <c r="D115">
+        <v>8</v>
+      </c>
+      <c r="E115" t="s">
+        <v>318</v>
+      </c>
+      <c r="F115" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -7,133 +7,301 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="991000242979704574" sheetId="1" r:id="rId1"/>
+    <sheet name="991000249599704574" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="174">
-  <si>
-    <t>991000242979704574</t>
-  </si>
-  <si>
-    <t>991000001869704574</t>
-  </si>
-  <si>
-    <t>991000236109704574</t>
-  </si>
-  <si>
-    <t>991000248889704574</t>
-  </si>
-  <si>
-    <t>991000244479704574</t>
-  </si>
-  <si>
-    <t>991001069543104574</t>
-  </si>
-  <si>
-    <t>991001070193004574</t>
-  </si>
-  <si>
-    <t>991001070211104574</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="410">
+  <si>
+    <t>991000249599704574</t>
+  </si>
+  <si>
+    <t>991000252329704574</t>
+  </si>
+  <si>
+    <t>991000451399704574</t>
+  </si>
+  <si>
+    <t>991000070059704574</t>
+  </si>
+  <si>
+    <t>991000244239704574</t>
+  </si>
+  <si>
+    <t>991000211589704574</t>
+  </si>
+  <si>
+    <t>991000383989704574</t>
+  </si>
+  <si>
+    <t>991000084539704574</t>
+  </si>
+  <si>
+    <t>991000396619704574</t>
+  </si>
+  <si>
+    <t>991000250779704574</t>
+  </si>
+  <si>
+    <t>991000107239704574</t>
+  </si>
+  <si>
+    <t>991000239839704574</t>
+  </si>
+  <si>
+    <t>991000329829704574</t>
+  </si>
+  <si>
+    <t>991000254419704574</t>
+  </si>
+  <si>
+    <t>991000244649704574</t>
+  </si>
+  <si>
+    <t>991000112729704574</t>
+  </si>
+  <si>
+    <t>991000249439704574</t>
+  </si>
+  <si>
+    <t>991000661829704574</t>
+  </si>
+  <si>
+    <t>991000267479704574</t>
+  </si>
+  <si>
+    <t>991000220919704574</t>
+  </si>
+  <si>
+    <t>991000111799704574</t>
+  </si>
+  <si>
+    <t>991000067479704574</t>
+  </si>
+  <si>
+    <t>991000350969704574</t>
+  </si>
+  <si>
+    <t>991000001799704574</t>
+  </si>
+  <si>
+    <t>991000235819704574</t>
+  </si>
+  <si>
+    <t>991000027049704574</t>
+  </si>
+  <si>
+    <t>991000051309704574</t>
+  </si>
+  <si>
+    <t>991000072849704574</t>
+  </si>
+  <si>
+    <t>991000364539704574</t>
+  </si>
+  <si>
+    <t>991000115259704574</t>
+  </si>
+  <si>
+    <t>991000157529704574</t>
+  </si>
+  <si>
+    <t>991000212849704574</t>
+  </si>
+  <si>
+    <t>991000051099704574</t>
+  </si>
+  <si>
+    <t>991000364389704574</t>
+  </si>
+  <si>
+    <t>991000080409704574</t>
+  </si>
+  <si>
+    <t>991000399779704574</t>
+  </si>
+  <si>
+    <t>991000257629704574</t>
+  </si>
+  <si>
+    <t>991001088454304574</t>
+  </si>
+  <si>
+    <t>991000236569704574</t>
+  </si>
+  <si>
+    <t>991000202639704574</t>
+  </si>
+  <si>
+    <t>991000111389704574</t>
+  </si>
+  <si>
+    <t>991000050149704574</t>
+  </si>
+  <si>
+    <t>991000364949704574</t>
+  </si>
+  <si>
+    <t>991000121389704574</t>
+  </si>
+  <si>
+    <t>991000050239704574</t>
+  </si>
+  <si>
+    <t>991000365019704574</t>
+  </si>
+  <si>
+    <t>991001066317904574</t>
+  </si>
+  <si>
+    <t>991000085869704574</t>
+  </si>
+  <si>
+    <t>991000254299704574</t>
+  </si>
+  <si>
+    <t>991000395659704574</t>
+  </si>
+  <si>
+    <t>991000577529704574</t>
+  </si>
+  <si>
+    <t>991000256869704574</t>
+  </si>
+  <si>
+    <t>991000113699704574</t>
+  </si>
+  <si>
+    <t>991000251009704574</t>
+  </si>
+  <si>
+    <t>991000253529704574</t>
+  </si>
+  <si>
+    <t>991000252139704574</t>
+  </si>
+  <si>
+    <t>991000243739704574</t>
+  </si>
+  <si>
+    <t>991000426459704574</t>
+  </si>
+  <si>
+    <t>991000625779704574</t>
+  </si>
+  <si>
+    <t>991000437229704574</t>
+  </si>
+  <si>
+    <t>991001094847204574</t>
+  </si>
+  <si>
+    <t>991000249889704574</t>
+  </si>
+  <si>
+    <t>991000159439704574</t>
+  </si>
+  <si>
+    <t>991000259889704574</t>
+  </si>
+  <si>
+    <t>991000210359704574</t>
+  </si>
+  <si>
+    <t>991000210179704574</t>
+  </si>
+  <si>
+    <t>991000248489704574</t>
+  </si>
+  <si>
+    <t>991001070167704574</t>
+  </si>
+  <si>
+    <t>991000115369704574</t>
+  </si>
+  <si>
+    <t>991000132589704574</t>
+  </si>
+  <si>
+    <t>991000118409704574</t>
+  </si>
+  <si>
+    <t>991000601979704574</t>
+  </si>
+  <si>
+    <t>991000240249704574</t>
+  </si>
+  <si>
+    <t>991000015309704574</t>
+  </si>
+  <si>
+    <t>991001075576104574</t>
   </si>
   <si>
     <t>991001094802604574</t>
   </si>
   <si>
-    <t>991000123489704574</t>
-  </si>
-  <si>
-    <t>991000106879704574</t>
-  </si>
-  <si>
-    <t>991001070016704574</t>
-  </si>
-  <si>
-    <t>991000244649704574</t>
-  </si>
-  <si>
-    <t>991001070199504574</t>
-  </si>
-  <si>
-    <t>991000661829704574</t>
+    <t>991000247059704574</t>
+  </si>
+  <si>
+    <t>991000117479704574</t>
+  </si>
+  <si>
+    <t>991000576909704574</t>
+  </si>
+  <si>
+    <t>991000451839704574</t>
+  </si>
+  <si>
+    <t>991000116719704574</t>
+  </si>
+  <si>
+    <t>991000111639704574</t>
+  </si>
+  <si>
+    <t>991000099489704574</t>
+  </si>
+  <si>
+    <t>991000014489704574</t>
   </si>
   <si>
     <t>991000244599704574</t>
   </si>
   <si>
-    <t>991001088455804574</t>
-  </si>
-  <si>
-    <t>991001075687704574</t>
-  </si>
-  <si>
-    <t>991000235819704574</t>
-  </si>
-  <si>
-    <t>991000051309704574</t>
-  </si>
-  <si>
-    <t>991000364539704574</t>
-  </si>
-  <si>
-    <t>991000112729704574</t>
-  </si>
-  <si>
-    <t>991000157529704574</t>
-  </si>
-  <si>
-    <t>991000072849704574</t>
-  </si>
-  <si>
-    <t>991000051099704574</t>
-  </si>
-  <si>
-    <t>991000364389704574</t>
-  </si>
-  <si>
-    <t>991000250779704574</t>
-  </si>
-  <si>
-    <t>991000116719704574</t>
-  </si>
-  <si>
-    <t>991000210359704574</t>
-  </si>
-  <si>
-    <t>991000225459704574</t>
-  </si>
-  <si>
-    <t>991000414489704574</t>
-  </si>
-  <si>
-    <t>991000220919704574</t>
-  </si>
-  <si>
-    <t>991000050239704574</t>
-  </si>
-  <si>
-    <t>991000365019704574</t>
+    <t>991000251609704574</t>
   </si>
   <si>
     <t>991000113629704574</t>
   </si>
   <si>
-    <t>991000050149704574</t>
-  </si>
-  <si>
-    <t>991000364949704574</t>
-  </si>
-  <si>
-    <t>991000027049704574</t>
-  </si>
-  <si>
-    <t>991000249439704574</t>
-  </si>
-  <si>
-    <t>991000202639704574</t>
+    <t>991000304229704574</t>
+  </si>
+  <si>
+    <t>991000241149704574</t>
+  </si>
+  <si>
+    <t>991000155069704574</t>
+  </si>
+  <si>
+    <t>991000122539704574</t>
+  </si>
+  <si>
+    <t>991000027439704574</t>
+  </si>
+  <si>
+    <t>991001070189604574</t>
+  </si>
+  <si>
+    <t>991000022749704574</t>
+  </si>
+  <si>
+    <t>991001070197204574</t>
+  </si>
+  <si>
+    <t>991000120499704574</t>
   </si>
   <si>
     <t>991000054469704574</t>
@@ -142,385 +310,925 @@
     <t>991000360649704574</t>
   </si>
   <si>
-    <t>991000122539704574</t>
-  </si>
-  <si>
-    <t>991001070189604574</t>
-  </si>
-  <si>
-    <t>991000249889704574</t>
-  </si>
-  <si>
-    <t>991001075576104574</t>
-  </si>
-  <si>
-    <t>991000329829704574</t>
-  </si>
-  <si>
-    <t>991000099489704574</t>
-  </si>
-  <si>
-    <t>991000625779704574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Heath introduction to literature </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Literature </t>
-  </si>
-  <si>
-    <t>Tales of O. Henry</t>
-  </si>
-  <si>
-    <t>The best of O. Henry</t>
-  </si>
-  <si>
-    <t>Ben Jonson</t>
-  </si>
-  <si>
-    <t>H.G. Wells</t>
-  </si>
-  <si>
-    <t>D. H. Lawrence</t>
+    <t>991000129619704574</t>
+  </si>
+  <si>
+    <t>991000285879704574</t>
+  </si>
+  <si>
+    <t>991000127189704574</t>
+  </si>
+  <si>
+    <t>991000171739704574</t>
+  </si>
+  <si>
+    <t>991000230989704574</t>
+  </si>
+  <si>
+    <t>991001069871904574</t>
+  </si>
+  <si>
+    <t>991000241429704574</t>
+  </si>
+  <si>
+    <t>991000666319704574</t>
+  </si>
+  <si>
+    <t>991000250269704574</t>
+  </si>
+  <si>
+    <t>991000157689704574</t>
+  </si>
+  <si>
+    <t>991000155099704574</t>
+  </si>
+  <si>
+    <t>991001070750004574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating love </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pursuit of love </t>
+  </si>
+  <si>
+    <t>The art of loving</t>
+  </si>
+  <si>
+    <t>Love and friendship in Plato and Aristotle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting the love you want </t>
+  </si>
+  <si>
+    <t>The Song of Eros</t>
+  </si>
+  <si>
+    <t>Boston marriages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love and friendship </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Elizabethan love sonnet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angels of September </t>
+  </si>
+  <si>
+    <t>The Symposium ; and, The Phaedrus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex, dating, and love </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erotic faith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Austen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love &amp; loss </t>
+  </si>
+  <si>
+    <t>Four complete novels /</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Be happy you are loved </t>
+  </si>
+  <si>
+    <t>Transforming desire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical Hollywood comedy </t>
+  </si>
+  <si>
+    <t>Catullan provocations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love and sex after 60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jane Austen and the war of ideas </t>
+  </si>
+  <si>
+    <t>The currency of Eros</t>
+  </si>
+  <si>
+    <t>Rethinking The romance of the Rose</t>
+  </si>
+  <si>
+    <t>Writing love</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northanger Abbey ; Lady Susan ; The Watsons ; and Sanditon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Of kings and poets </t>
+  </si>
+  <si>
+    <t>Medieval Latin and the rise of European love-lyric</t>
+  </si>
+  <si>
+    <t>The art of love</t>
+  </si>
+  <si>
+    <t>Letters to Margaret Gilcriest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I'd rather be married </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything to gain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The road less traveled </t>
+  </si>
+  <si>
+    <t>"When the lamp is shattered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to go on living when someone you love dies </t>
+  </si>
+  <si>
+    <t>Dangerous men &amp; adventurous women</t>
+  </si>
+  <si>
+    <t>The sacred and profane love machine</t>
+  </si>
+  <si>
+    <t>Critical tales</t>
+  </si>
+  <si>
+    <t>Teenage couples. how to build a relationship that lasts / Caring, commitment, and change</t>
+  </si>
+  <si>
+    <t>Fighting for your marriage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fighting for your marriage </t>
+  </si>
+  <si>
+    <t>A father's love: tributes, praise, and wisdom about dads and their offspring</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For love and for life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">James Clavell's Gai-Jin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love and infamy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Emma </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free to love again </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When families fight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthem </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Daisy Miller </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlearning violence </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children's edition of touching incidents and remarkable Answers to prayer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">River of promise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rose Madder </t>
+  </si>
+  <si>
+    <t>For love of the world</t>
+  </si>
+  <si>
+    <t>Where love leaves us</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waiting to exhale </t>
+  </si>
+  <si>
+    <t>The Development of the Sonnet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love and profit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The portrait of a lady </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do what you love, the money will follow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Middlemarch </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dear God, kids rainbow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pride and prejudice </t>
+  </si>
+  <si>
+    <t>Little Women</t>
   </si>
   <si>
     <t>Sundering Flood</t>
   </si>
   <si>
-    <t>The American tradition in literature</t>
-  </si>
-  <si>
-    <t>The enduring legacy: biblical dimensions in modern literature</t>
-  </si>
-  <si>
-    <t>Women, texts, and histories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Erotic faith </t>
-  </si>
-  <si>
-    <t>Women and writing in medieval Europe</t>
-  </si>
-  <si>
-    <t>Four complete novels /</t>
+    <t xml:space="preserve">Jane Eyre </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disney's Beauty and the beast </t>
+  </si>
+  <si>
+    <t>Disney's Beauty and the beast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wizard and Wart </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heavenly love? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First things first </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A light in the window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sister Carrie </t>
   </si>
   <si>
     <t xml:space="preserve">The stoic in love </t>
   </si>
   <si>
-    <t xml:space="preserve">Man of my dreams </t>
-  </si>
-  <si>
-    <t xml:space="preserve">D. H. Lawrence's </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Austen and the war of ideas </t>
-  </si>
-  <si>
-    <t>Rethinking The romance of the Rose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jane Austen </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Of kings and poets </t>
-  </si>
-  <si>
-    <t>Writing love</t>
-  </si>
-  <si>
-    <t>The art of love</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love and friendship </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heavenly love? </t>
-  </si>
-  <si>
-    <t>For love of the world</t>
-  </si>
-  <si>
-    <t>Rabbits, crabs, etc</t>
-  </si>
-  <si>
-    <t>Transforming desire</t>
-  </si>
-  <si>
-    <t>Critical tales</t>
+    <t xml:space="preserve">Grandfather's journey </t>
   </si>
   <si>
     <t xml:space="preserve">Her bread to earn </t>
   </si>
   <si>
-    <t>Dangerous men &amp; adventurous women</t>
-  </si>
-  <si>
-    <t>The currency of Eros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love &amp; loss </t>
-  </si>
-  <si>
-    <t>"When the lamp is shattered</t>
+    <t xml:space="preserve">Sharkproof </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to stop the one you love from drinking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The remains of the day </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sense and sensibility </t>
+  </si>
+  <si>
+    <t>Love and ideology in the afternoon</t>
+  </si>
+  <si>
+    <t>Of chastity and power</t>
+  </si>
+  <si>
+    <t>Where "something catches</t>
+  </si>
+  <si>
+    <t>George Meredith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love's encore </t>
   </si>
   <si>
     <t>The love of learning and the desire for God</t>
   </si>
   <si>
-    <t xml:space="preserve">Sense and sensibility </t>
-  </si>
-  <si>
-    <t>Of chastity and power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Emma </t>
-  </si>
-  <si>
-    <t>Little Women</t>
-  </si>
-  <si>
-    <t>The Symposium ; and, The Phaedrus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A light in the window </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Daisy Miller </t>
+    <t xml:space="preserve">Tender is the night </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating family traditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The last tycoon </t>
+  </si>
+  <si>
+    <t>Love of learning</t>
+  </si>
+  <si>
+    <t>For love of the automobile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shamans and kushtakas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Persian boy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The steps we took </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical terminology made easy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love cools </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Low fat &amp; loving it </t>
+  </si>
+  <si>
+    <t>Did my first mother love me? : a story for an adopted child</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>['literature']</t>
-  </si>
-  <si>
-    <t>['literature', 'english']</t>
-  </si>
-  <si>
-    <t>['english', 'literature']</t>
+    <t>['love']</t>
+  </si>
+  <si>
+    <t>['love', 'friendship']</t>
+  </si>
+  <si>
+    <t>['marriage', 'love']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'greek']</t>
+  </si>
+  <si>
+    <t>['lesbian', 'couples', 'platonic', 'love']</t>
+  </si>
+  <si>
+    <t>['love', 'literature', 'european', 'friendship']</t>
+  </si>
+  <si>
+    <t>['sonnets', 'english', 'poetry', 'love']</t>
+  </si>
+  <si>
+    <t>['love', 'stories', 'detective', 'mystery']</t>
+  </si>
+  <si>
+    <t>['love', 'soul', 'rhetoric', 'ancient']</t>
+  </si>
+  <si>
+    <t>['dating', 'social', 'customs', 'love', 'sex']</t>
+  </si>
+  <si>
+    <t>['english', 'fiction', 'love', 'stories', 'literature']</t>
+  </si>
+  <si>
+    <t>['women', 'literature', 'love', 'stories', 'english']</t>
+  </si>
+  <si>
+    <t>['love', 'stories', 'english', 'american', 'fiction']</t>
+  </si>
+  <si>
+    <t>['literature', 'historical', 'fiction', 'love', 'stories']</t>
+  </si>
+  <si>
+    <t>['god', 'love', 'self', 'esteem', 'large', 'type', 'books']</t>
+  </si>
+  <si>
+    <t>['erotic', 'poetry', 'english', 'epic', 'desire', 'literature', 'love', 'sex']</t>
+  </si>
+  <si>
+    <t>['comedy', 'films', 'love', 'motion', 'pictures']</t>
+  </si>
+  <si>
+    <t>['verse', 'satire', 'latin', 'love', 'epigrams']</t>
+  </si>
+  <si>
+    <t>['sex', 'instruction', 'older', 'people', 'love', 'age']</t>
+  </si>
+  <si>
+    <t>['english', 'fiction', 'women', 'literature', 'love', 'stories']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'european', 'literature', 'women', 'sex', 'role']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'french', 'literature', 'medieval', 'romances', 'manuscripts', 'courtly']</t>
+  </si>
+  <si>
+    <t>['french', 'fiction', 'epistolary', 'love', 'stories', 'women', 'literature', 'letters']</t>
+  </si>
+  <si>
+    <t>['horror', 'tales', 'books', 'reading', 'love', 'stories', 'english']</t>
+  </si>
+  <si>
+    <t>['spanish', 'poetry', 'courtly', 'love', 'literature', 'authors', 'patrons']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'european', 'latin', 'medieval', 'modern']</t>
+  </si>
+  <si>
+    <t>['courtly', 'love', 'literature', 'poetry', 'latin', 'medieval', 'modern']</t>
+  </si>
+  <si>
+    <t>['world', 'war', 'authors', 'welsh', 'soldiers', 'love', 'letters']</t>
+  </si>
+  <si>
+    <t>['mate', 'selection', 'man', 'woman', 'relationships', 'dating', 'social', 'customs', 'love']</t>
+  </si>
+  <si>
+    <t>['widows', 'friendship', 'man', 'woman', 'relationship']</t>
+  </si>
+  <si>
+    <t>['self', 'actualization', 'psychology', 'maturation', 'interpersonal', 'relations', 'love', 'values', 'spirituality']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'latin', 'psychoanalysis', 'literature', 'desire', 'narration', 'rhetoric', 'rome', 'ancient']</t>
+  </si>
+  <si>
+    <t>['grief', 'bereavement']</t>
+  </si>
+  <si>
+    <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
+  </si>
+  <si>
+    <t>['man', 'woman', 'relationships', 'married', 'people']</t>
+  </si>
+  <si>
+    <t>['women', 'literature', 'love', 'stories', 'french', 'characters', 'characteristics', 'rhetoric', 'literary', 'form']</t>
+  </si>
+  <si>
+    <t>['man', 'woman', 'relationships', 'teenagers', 'love', 'mate', 'selection', 'family', 'marriage', 'sociology', 'social', 'history', 'sciences']</t>
+  </si>
+  <si>
+    <t>['marriage', 'interpersonal', 'relations', 'communication']</t>
+  </si>
+  <si>
+    <t>['fathers']</t>
+  </si>
+  <si>
+    <t>['lesbian', 'couples']</t>
+  </si>
+  <si>
+    <t>['british', 'man', 'woman', 'relationships']</t>
+  </si>
+  <si>
+    <t>['man', 'woman', 'relationships', 'americans']</t>
+  </si>
+  <si>
+    <t>['young', 'women', 'female', 'friendship', 'fathers', 'daughters']</t>
+  </si>
+  <si>
+    <t>['sex', 'christian', 'life']</t>
+  </si>
+  <si>
+    <t>['family', 'interpersonal', 'conflict', 'life', 'cycle', 'human']</t>
+  </si>
+  <si>
+    <t>['man', 'woman', 'relationships', 'men', 'individuality', 'time', 'travel']</t>
+  </si>
+  <si>
+    <t>['fiction', 'english', 'inheritance', 'succession', 'children', 'rich', 'young', 'women', 'fathers', 'daughters', 'courtship', 'beauty', 'personal']</t>
+  </si>
+  <si>
+    <t>['abusive', 'men', 'violence', 'family']</t>
+  </si>
+  <si>
+    <t>['christian', 'life', 'prayer', 'children', 'salvation']</t>
+  </si>
+  <si>
+    <t>['fathers', 'daughters', 'literature', 'female', 'friendship', 'mate', 'selection', 'young', 'women']</t>
+  </si>
+  <si>
+    <t>['lesbian', 'mothers', 'adoption']</t>
+  </si>
+  <si>
+    <t>['runaway', 'wives', 'revenge']</t>
+  </si>
+  <si>
+    <t>['american', 'literature', 'natural', 'history', 'nature']</t>
+  </si>
+  <si>
+    <t>['italian', 'american', 'families', 'fathers', 'daughters', 'americans']</t>
+  </si>
+  <si>
+    <t>['african', 'american', 'women', 'men', 'female', 'friendship']</t>
+  </si>
+  <si>
+    <t>['english', 'poetry', 'sonnet', 'sonnets', 'languages', 'literatures']</t>
+  </si>
+  <si>
+    <t>['job', 'enrichment', 'caring', 'interpersonal', 'relations', 'organizational', 'change']</t>
+  </si>
+  <si>
+    <t>['archer', 'isabel', 'fictitious', 'character', 'triangles', 'interpersonal', 'relations', 'inheritance', 'succession', 'fathers', 'daughters', 'americans', 'married', 'women']</t>
+  </si>
+  <si>
+    <t>['vocational', 'interests', 'job', 'satisfaction', 'self', 'actualization', 'psychology', 'work']</t>
+  </si>
+  <si>
+    <t>['english', 'city', 'town', 'life', 'married', 'people', 'young', 'women']</t>
+  </si>
+  <si>
+    <t>['god', 'christianity', 'providence', 'government', 'color', 'early', 'childhood', 'education', 'children', 'stories']</t>
+  </si>
+  <si>
+    <t>['young', 'women', 'sisters', 'courtship', 'social', 'classes']</t>
+  </si>
+  <si>
+    <t>['family', 'life', 'history', 'th', 'century', 'fiction', 'new', 'england', 'sisters']</t>
   </si>
   <si>
     <t>['fantasy', 'literature']</t>
   </si>
   <si>
-    <t>['american', 'literature']</t>
-  </si>
-  <si>
-    <t>['american', 'literature', 'english']</t>
-  </si>
-  <si>
-    <t>['english', 'literature', 'women']</t>
-  </si>
-  <si>
-    <t>['english', 'fiction', 'love', 'stories', 'literature']</t>
-  </si>
-  <si>
-    <t>['literature', 'medieval', 'women']</t>
-  </si>
-  <si>
-    <t>['literature', 'historical', 'fiction', 'love', 'stories']</t>
+    <t>['governesses', 'fathers', 'daughters', 'mentally', 'ill', 'women', 'charity', 'schools', 'married', 'people', 'country', 'homes', 'young', 'orphans']</t>
+  </si>
+  <si>
+    <t>['early', 'childhood', 'education', 'children', 'stories', 'fairy', 'tales', 'folklore']</t>
+  </si>
+  <si>
+    <t>['folklore', 'fairy', 'tales', 'early', 'childhood', 'education', 'children', 'stories']</t>
+  </si>
+  <si>
+    <t>['wizards', 'magic', 'animals', 'witchcraft', 'early', 'childhood', 'education', 'children', 'stories']</t>
+  </si>
+  <si>
+    <t>['literature', 'modern', 'lesbians', 'writings', 'lesbianism']</t>
+  </si>
+  <si>
+    <t>['conduct', 'life', 'time', 'management']</t>
+  </si>
+  <si>
+    <t>['city', 'town', 'life', 'christian', 'fiction', 'domestic']</t>
+  </si>
+  <si>
+    <t>['english', 'mistresses', 'young', 'women']</t>
   </si>
   <si>
     <t>['literature', 'modern', 'classical', 'english']</t>
   </si>
   <si>
-    <t>['romance', 'fiction']</t>
-  </si>
-  <si>
-    <t>['english', 'fiction']</t>
-  </si>
-  <si>
-    <t>['english', 'fiction', 'women', 'literature', 'love', 'stories']</t>
-  </si>
-  <si>
-    <t>['love', 'poetry', 'french', 'literature', 'medieval', 'romances', 'manuscripts', 'courtly']</t>
-  </si>
-  <si>
-    <t>['women', 'literature', 'love', 'stories', 'english']</t>
-  </si>
-  <si>
-    <t>['spanish', 'poetry', 'courtly', 'love', 'literature', 'authors', 'patrons']</t>
-  </si>
-  <si>
-    <t>['french', 'fiction', 'epistolary', 'love', 'stories', 'women', 'literature', 'letters']</t>
-  </si>
-  <si>
-    <t>['courtly', 'love', 'literature', 'poetry', 'latin', 'medieval', 'modern']</t>
-  </si>
-  <si>
-    <t>['love', 'literature', 'european', 'friendship']</t>
-  </si>
-  <si>
-    <t>['literature', 'modern', 'lesbians', 'writings', 'lesbianism']</t>
-  </si>
-  <si>
-    <t>['american', 'literature', 'natural', 'history', 'nature']</t>
-  </si>
-  <si>
-    <t>['japanese', 'fiction']</t>
-  </si>
-  <si>
-    <t>['erotic', 'poetry', 'english', 'epic', 'desire', 'literature', 'love', 'sex']</t>
-  </si>
-  <si>
-    <t>['women', 'literature', 'love', 'stories', 'french', 'characters', 'characteristics', 'rhetoric', 'literary', 'form']</t>
+    <t>['grandfathers', 'caldecott', 'medal', 'voyages', 'travels', 'homesickness', 'early', 'childhood', 'education', 'children', 'stories', 'social', 'issues', 'japanese', 'americans']</t>
   </si>
   <si>
     <t>['literature', 'english', 'fiction', 'women', 'society', 'social', 'problems', 'money']</t>
   </si>
   <si>
-    <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
-  </si>
-  <si>
-    <t>['love', 'poetry', 'european', 'literature', 'women', 'sex', 'role']</t>
-  </si>
-  <si>
-    <t>['love', 'stories', 'english', 'american', 'fiction']</t>
-  </si>
-  <si>
-    <t>['love', 'poetry', 'latin', 'psychoanalysis', 'literature', 'desire', 'narration', 'rhetoric', 'rome', 'ancient']</t>
+    <t>['job', 'hunting']</t>
+  </si>
+  <si>
+    <t>['alcoholics', 'alcoholism']</t>
+  </si>
+  <si>
+    <t>['country', 'homes', 'employees']</t>
+  </si>
+  <si>
+    <t>['literature', 'social', 'classes', 'sisters', 'young', 'women', 'inheritance', 'succession']</t>
+  </si>
+  <si>
+    <t>['soap', 'operas', 'television', 'women', 'viewers']</t>
+  </si>
+  <si>
+    <t>['chastity', 'literature', 'english', 'feminism', 'kings', 'rulers', 'social', 'sciences', 'queens', 'sex', 'role', 'single', 'women']</t>
+  </si>
+  <si>
+    <t>['identity', 'psychology', 'youth', 'stigma', 'social', 'group']</t>
+  </si>
+  <si>
+    <t>['authors', 'english']</t>
+  </si>
+  <si>
+    <t>['women', 'interior', 'decorators', 'architecture']</t>
   </si>
   <si>
     <t>['monasticism', 'religious', 'orders', 'learning', 'christian', 'literature', 'early', 'theology']</t>
   </si>
   <si>
-    <t>['literature', 'social', 'classes', 'sisters', 'young', 'women', 'inheritance', 'succession']</t>
-  </si>
-  <si>
-    <t>['chastity', 'literature', 'english', 'feminism', 'kings', 'rulers', 'social', 'sciences', 'queens', 'sex', 'role', 'single', 'women']</t>
-  </si>
-  <si>
-    <t>['fathers', 'daughters', 'literature', 'female', 'friendship', 'mate', 'selection', 'young', 'women']</t>
-  </si>
-  <si>
-    <t>['family', 'life', 'history', 'th', 'century', 'fiction', 'new', 'england', 'sisters']</t>
-  </si>
-  <si>
-    <t>['love', 'soul', 'rhetoric', 'ancient']</t>
-  </si>
-  <si>
-    <t>['city', 'town', 'life', 'christian', 'fiction', 'domestic']</t>
-  </si>
-  <si>
-    <t>['fiction', 'english', 'inheritance', 'succession', 'children', 'rich', 'young', 'women', 'fathers', 'daughters', 'courtship', 'beauty', 'personal']</t>
-  </si>
-  <si>
-    <t>['IOzeIXkB7x-SzQ_eAczv']</t>
-  </si>
-  <si>
-    <t>[['literature', 'lit']]</t>
-  </si>
-  <si>
-    <t>[['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['literature', 'lit']]</t>
+    <t>['psychiatrists', 'wealth']</t>
+  </si>
+  <si>
+    <t>['creative', 'activities', 'seat', 'work', 'holiday', 'decorations', 'handicraft']</t>
+  </si>
+  <si>
+    <t>['motion', 'picture', 'industry']</t>
+  </si>
+  <si>
+    <t>['catholic', 'universities', 'colleges', 'christianity', 'justice', 'poor', 'educational', 'equalization', 'liberation', 'theology']</t>
+  </si>
+  <si>
+    <t>['automobiles', 'technology', 'civilization']</t>
+  </si>
+  <si>
+    <t>['tlingit', 'indians', 'haida', 'mythology', 'ethnic', 'race', 'studies', 'gender', 'social', 'sciences']</t>
+  </si>
+  <si>
+    <t>['kings', 'rulers', 'generals', 'eunuchs']</t>
+  </si>
+  <si>
+    <t>['social', 'service', 'alcoholics', 'twelve', 'step', 'programs']</t>
+  </si>
+  <si>
+    <t>['medicine', 'terminology']</t>
+  </si>
+  <si>
+    <t>['private', 'schools']</t>
+  </si>
+  <si>
+    <t>['low', 'fat', 'diet']</t>
+  </si>
+  <si>
+    <t>['languages', 'literatures', 'general']</t>
+  </si>
+  <si>
+    <t>['K-zeIXkB7x-SzQ_eAsxy']</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['friendship', 'friendly_relationship']]</t>
+  </si>
+  <si>
+    <t>[['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['greek', 'Greek', 'Hellenic', 'Hellenic_language', 'Hellene', 'Grecian']]</t>
+  </si>
+  <si>
+    <t>[['lesbian', 'tribade', 'gay_woman', 'Lesbian', 'sapphic'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['platonic', 'Platonic'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['european', 'European'], ['friendship', 'friendly_relationship']]</t>
+  </si>
+  <si>
+    <t>[['sonnets', 'sonnet'], ['english', 'English', 'English_language', 'English_people', 'side'], ['poetry', 'poesy', 'verse'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['detective', 'investigator', 'tec', 'police_detective'], ['mystery', 'enigma', 'secret', 'closed_book', 'mystery_story', 'whodunit']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['soul', 'psyche', 'person', 'individual', 'someone', 'somebody', 'mortal', 'soulfulness'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['ancient', 'antediluvian']]</t>
+  </si>
+  <si>
+    <t>[['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side'], ['american', 'American', 'American_English', 'American_language'], ['fiction', 'fabrication', 'fable']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['historical', 'historic', 'diachronic'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['self', 'ego'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['large', 'big', 'bombastic', 'declamatory', 'orotund', 'tumid', 'turgid', 'magnanimous', 'prominent', 'enceinte', 'expectant', 'gravid', 'great', 'heavy', 'with_child', 'boastfully', 'vauntingly'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold']]</t>
+  </si>
+  <si>
+    <t>[['erotic', 'titillating'], ['poetry', 'poesy', 'verse'], ['english', 'English', 'English_language', 'English_people', 'side'], ['epic', 'epic_poem', 'heroic_poem', 'epos', 'heroic', 'larger-than-life', 'epical'], ['desire', 'want', 'hope', 'trust'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
+  </si>
+  <si>
+    <t>[['comedy', 'drollery', 'clowning', 'funniness'], ['films', 'movie', 'film', 'picture', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'cinema', 'celluloid', 'photographic_film', 'plastic_film', 'shoot', 'take'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['motion', 'gesture', 'movement', 'move', 'motility', 'question', 'apparent_motion', 'apparent_movement', 'gesticulate'], ['pictures', 'picture', 'image', 'icon', 'ikon', 'painting', 'mental_picture', 'impression', 'scene', 'pictorial_matter', 'movie', 'film', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'video', 'word_picture', 'word-painting', 'delineation', 'depiction', 'characterization', 'characterisation', 'photograph', 'photo', 'exposure', 'visualize', 'visualise', 'envision', 'project', 'fancy', 'see', 'figure', 'depict', 'render', 'show']]</t>
+  </si>
+  <si>
+    <t>[['poetry', 'poesy', 'verse'], ['satire', 'sarcasm', 'irony', 'caustic_remark'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['epigrams', 'epigram', 'quip']]</t>
+  </si>
+  <si>
+    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['older', 'aged', 'elderly', 'senior', 'elder', 'sr.', 'old', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['aging', 'ripening', 'ageing', 'senescence', 'age', 'senesce', 'get_on', 'mature', 'maturate', 'senescent']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['literature', 'lit'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['literature', 'lit'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['romances', 'love_affair', 'romance', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash'], ['manuscripts', 'manuscript', 'ms', 'holograph'], ['courtly', 'formal', 'stately']]</t>
+  </si>
+  <si>
+    <t>[['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['fiction', 'fabrication', 'fable'], ['epistolary', 'epistolatory'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
+  </si>
+  <si>
+    <t>[['horror', 'repugnance', 'repulsion', 'revulsion'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['books', 'book', 'volume', 'record', 'record_book', 'script', 'playscript', 'ledger', 'leger', 'account_book', 'book_of_account', 'rule_book', 'Koran', 'Quran', "al-Qur'an", 'Book', 'Bible', 'Christian_Bible', 'Good_Book', 'Holy_Scripture', 'Holy_Writ', 'Scripture', 'Word_of_God', 'Word', 'reserve', 'hold'], ['reading', 'meter_reading', 'indication', 'reading_material', 'interpretation', 'version', 'Reading', 'recitation', 'recital', 'read', 'say', 'scan', 'take', 'learn', 'study', 'register', 'show', 'record', 'understand', 'interpret', 'translate'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
+  </si>
+  <si>
+    <t>[['spanish', 'Spanish', 'Spanish_people'], ['poetry', 'poesy', 'verse'], ['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['authors', 'writer', 'author', 'generator', 'source'], ['patrons', 'patron', 'frequenter', 'sponsor', 'supporter']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+  </si>
+  <si>
+    <t>[['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
+  </si>
+  <si>
+    <t>[['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['war', 'warfare', 'state_of_war'], ['authors', 'writer', 'author', 'generator', 'source'], ['welsh', 'Welshman', 'Welsh', 'Cambrian', 'Cymry', 'Cymric', 'Welsh_Black', 'welch'], ['soldiers', 'soldier'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
+  </si>
+  <si>
+    <t>[['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['widows', 'widow', 'widow_woman'], ['friendship', 'friendly_relationship'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationship', 'human_relationship', 'kinship', 'family_relationship']]</t>
+  </si>
+  <si>
+    <t>[['self', 'ego'], ['actualization', 'realization', 'realisation', 'actualisation'], ['psychology', 'psychological_science'], ['maturation', 'ripening', 'maturement', 'growth', 'growing', 'development', 'ontogeny', 'ontogenesis', 'festering', 'suppuration'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['values', 'value', 'economic_value', 'time_value', 'note_value', 'prize', 'treasure', 'appreciate', 'respect', 'esteem', 'prise', 'measure', 'evaluate', 'valuate', 'assess', 'appraise', 'rate'], ['spirituality', 'spiritualty', 'church_property', 'spiritualism', 'spiritism', 'otherworldliness']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
+  </si>
+  <si>
+    <t>[['grief', 'heartache', 'heartbreak', 'brokenheartedness', 'sorrow'], ['bereavement', 'mourning']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed']]</t>
+  </si>
+  <si>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+  </si>
+  <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['teenagers', 'adolescent', 'stripling', 'teenager', 'teen'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['sociology'], ['social', 'sociable', 'mixer', 'societal'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
+  </si>
+  <si>
+    <t>[['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['communication', 'communicating']]</t>
+  </si>
+  <si>
+    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth']]</t>
+  </si>
+  <si>
+    <t>[['lesbian', 'tribade', 'gay_woman', 'Lesbian', 'sapphic'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate']]</t>
+  </si>
+  <si>
+    <t>[['british', 'British', 'British_people', 'Brits'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship']]</t>
+  </si>
+  <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['americans', 'American', 'American_English', 'American_language']]</t>
+  </si>
+  <si>
+    <t>[['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['female', 'female_person', 'distaff'], ['friendship', 'friendly_relationship'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl']]</t>
+  </si>
+  <si>
+    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence']]</t>
+  </si>
+  <si>
+    <t>[['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['interpersonal'], ['conflict', 'struggle', 'battle', 'fight', 'engagement', 'dispute', 'difference', 'difference_of_opinion', 'run_afoul', 'infringe', 'contravene'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['cycle', 'rhythm', 'round', 'hertz', 'Hz', 'cycle_per_second', 'cycles/second', 'cps', 'oscillation', 'bicycle', 'bike', 'wheel', 'motorbike', 'motorcycle', 'pedal'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind']]</t>
+  </si>
+  <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['men', 'work_force', 'workforce', 'manpower', 'hands', 'man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['identity', 'personal_identity', 'individuality', 'identity_element', 'identity_operator', 'identicalness', 'indistinguishability'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['travels', 'travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around']]</t>
+  </si>
+  <si>
+    <t>[['fiction', 'fabrication', 'fable'], ['english', 'English', 'English_language', 'English_people', 'side'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['fat', 'adipose_tissue', 'fatty_tissue', 'fatness', 'blubber', 'avoirdupois', 'fatten', 'flesh_out', 'fill_out', 'plump', 'plump_out', 'fatten_out', 'fatten_up', 'fatty', 'juicy', 'fertile', 'productive', 'rich'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['courtship', 'wooing', 'courting', 'suit'], ['beauty', 'smasher', 'stunner', 'knockout', 'ravisher', 'sweetheart', 'peach', 'lulu', 'looker', 'mantrap', 'dish', 'beaut'], ['personal']]</t>
+  </si>
+  <si>
+    <t>[['abusive', 'opprobrious', 'scurrilous'], ['men', 'work_force', 'workforce', 'manpower', 'hands', 'man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['violence', 'force', 'ferocity', 'fierceness', 'furiousness', 'fury', 'vehemence', 'wildness'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home']]</t>
+  </si>
+  <si>
+    <t>[['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['prayer', 'supplication', 'petition', 'orison', 'entreaty', 'appeal', 'supplicant'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['salvation', 'redemption']]</t>
+  </si>
+  <si>
+    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['literature', 'lit'], ['female', 'female_person', 'distaff'], ['friendship', 'friendly_relationship'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['lesbian', 'tribade', 'gay_woman', 'Lesbian', 'sapphic'], ['mothers', 'mother', 'female_parent', 'fuss', 'overprotect', 'beget', 'get', 'engender', 'father', 'sire', 'generate', 'bring_forth'], ['adoption', 'acceptance', 'acceptation', 'espousal', 'borrowing']]</t>
+  </si>
+  <si>
+    <t>[['runaway', 'blowout', 'romp', 'laugher', 'shoo-in', 'walkaway', 'fugitive', 'fleer'], ['wives', 'wife', 'married_woman', 'wive'], ['revenge', 'retaliation', 'avenge', 'retaliate']]</t>
+  </si>
+  <si>
+    <t>[['american', 'American', 'American_English', 'American_language'], ['literature', 'lit'], ['natural', 'cancel', 'instinctive', 'raw', 'rude', 'born', 'innate', 'lifelike'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['nature']]</t>
+  </si>
+  <si>
+    <t>[['italian', 'Italian'], ['american', 'American', 'American_English', 'American_language'], ['families', 'family', 'household', 'house', 'home', 'menage', 'family_unit', 'class', 'category', 'family_line', 'folk', 'kinfolk', 'kinsfolk', 'sept', 'phratry', 'kin', 'kinsperson', 'syndicate', 'crime_syndicate', 'mob', 'fellowship'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['americans', 'American', 'American_English', 'American_language']]</t>
+  </si>
+  <si>
+    <t>[['african', 'African'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['men', 'work_force', 'workforce', 'manpower', 'hands', 'man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['female', 'female_person', 'distaff'], ['friendship', 'friendly_relationship']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['poetry', 'poesy', 'verse'], ['sonnets', 'sonnet'], ['sonnets', 'sonnet'], ['languages', 'language', 'linguistic_communication', 'speech', 'speech_communication', 'spoken_communication', 'spoken_language', 'voice_communication', 'oral_communication', 'lyric', 'words', 'linguistic_process', 'terminology', 'nomenclature'], ['literatures', 'literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['problems', 'problem', 'job', 'trouble'], ['enrichment'], ['caring', 'lovingness', 'care', 'give_care', 'wish', 'like', 'manage', 'deal', 'handle', 'worry'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['organizational', 'organisational'], ['change', 'alteration', 'modification', 'variety', 'alter', 'modify', 'vary', 'switch', 'shift', 'exchange', 'commute', 'convert', 'interchange', 'transfer', 'deepen']]</t>
+  </si>
+  <si>
+    <t>[['archer', 'bowman', 'Sagittarius', 'Archer', 'Sagittarius_the_Archer'], ['isabel'], ['fictitious', 'fabricated', 'fancied', 'fictional', 'assumed', 'false', 'fictive', 'pretended', 'put_on', 'sham'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['triangles', 'triangle', 'trigon', 'trilateral', 'Triangulum', 'Triangle'], ['interpersonal'], ['relations', 'dealings', 'relation', 'sexual_intercourse', 'intercourse', 'sex_act', 'copulation', 'coitus', 'coition', 'sexual_congress', 'congress', 'sexual_relation', 'carnal_knowledge', 'relative', 'telling', 'recounting', 'relation_back'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['americans', 'American', 'American_English', 'American_language'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['vocational'], ['interests', 'interest', 'involvement', 'sake', 'interestingness', 'stake', 'interest_group', 'pastime', 'pursuit', 'concern', 'occupy', 'worry', 'matter_to'], ['problems', 'problem', 'job', 'trouble'], ['satisfaction', 'gratification', 'atonement', 'expiation'], ['self', 'ego'], ['actualization', 'realization', 'realisation', 'actualisation'], ['psychology', 'psychological_science'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['christianity', 'Christianity', 'Christian_religion', 'Christendom'], ['providence', 'Providence', 'capital_of_Rhode_Island'], ['government', 'authorities', 'regime', 'governing', 'governance', 'government_activity', 'administration', 'politics', 'political_science'], ['color', 'colour', 'coloring', 'colouring', 'vividness', 'coloration', 'colouration', 'people_of_color', 'people_of_colour', 'semblance', 'gloss', 'coloring_material', 'colouring_material', 'colorize', 'colorise', 'colourise', 'colourize', 'color_in', 'colour_in', 'tinge', 'distort', 'emblazon', 'discolor', 'discolour'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe'], ['courtship', 'wooing', 'courting', 'suit'], ['social', 'sociable', 'mixer', 'societal'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+  </si>
+  <si>
+    <t>[['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['th', 'Thursday', 'Th', 'thorium', 'atomic_number_90'], ['century', 'hundred', '100', 'C', 'one_C'], ['fiction', 'fabrication', 'fable'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New'], ['england', 'England'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe']]</t>
   </si>
   <si>
     <t>[['fantasy', 'phantasy', 'illusion', 'fancy', 'fantasize', 'fantasise'], ['literature', 'lit']]</t>
   </si>
   <si>
-    <t>[['american', 'American', 'American_English', 'American_language'], ['literature', 'lit']]</t>
-  </si>
-  <si>
-    <t>[['american', 'American', 'American_English', 'American_language'], ['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['literature', 'lit'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['literature', 'lit']]</t>
-  </si>
-  <si>
-    <t>[['literature', 'lit'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['literature', 'lit'], ['historical', 'historic', 'diachronic'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+    <t>[['governesses', 'governess', 'regulate', 'regularize', 'regularise', 'order', 'govern', 'rule'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['mentally'], ['ill', 'ailment', 'complaint', 'sick', 'inauspicious', 'ominous', 'badly', 'poorly'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['charity', 'brotherly_love', "Jacob's_ladder", 'Greek_valerian', 'Polemonium_caeruleum', 'Polemonium_van-bruntiae', 'Polymonium_caeruleum_van-bruntiae'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['country', 'state', 'nation', 'land', 'commonwealth', 'res_publica', 'body_politic', 'rural_area', 'area'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['orphans', 'orphan']]</t>
+  </si>
+  <si>
+    <t>[['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['folklore']]</t>
+  </si>
+  <si>
+    <t>[['folklore'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['wizards', 'ace', 'adept', 'champion', 'sensation', 'maven', 'mavin', 'virtuoso', 'genius', 'hotshot', 'star', 'superstar', 'whiz', 'whizz', 'wizard', 'wiz', 'sorcerer', 'magician', 'necromancer', 'thaumaturge', 'thaumaturgist'], ['magic', 'thaumaturgy', 'magic_trick', 'conjuring_trick', 'trick', 'legerdemain', 'conjuration', 'illusion', 'deception', 'charming', 'magical', 'sorcerous', 'witching', 'wizard', 'wizardly'], ['animals', 'animal', 'animate_being', 'beast', 'brute', 'creature', 'fauna'], ['witchcraft', 'witchery'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New'], ['lesbians', 'lesbian', 'tribade', 'gay_woman', 'Lesbian'], ['writings', 'Hagiographa', 'Ketubim', 'Writings', 'writing', 'authorship', 'composition', 'penning', 'written_material', 'piece_of_writing', 'committal_to_writing', 'write', 'compose', 'pen', 'indite', 'publish', 'drop_a_line', 'save', 'spell'], ['lesbianism', 'sapphism']]</t>
+  </si>
+  <si>
+    <t>[['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['management', 'direction']]</t>
+  </si>
+  <si>
+    <t>[['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['christian', 'Christian'], ['fiction', 'fabrication', 'fable'], ['domestic', 'domestic_help', 'house_servant', 'domesticated']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['mistresses', 'mistress', 'kept_woman', 'fancy_woman', 'schoolmarm', "schoolma'am", 'schoolmistress'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
   </si>
   <si>
     <t>[['literature', 'lit'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New'], ['classical', 'classical_music', 'serious_music', 'classic', 'authoritative', 'definitive', 'Greco-Roman', 'Graeco-Roman', 'Hellenic'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
   </si>
   <si>
-    <t>[['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['fiction', 'fabrication', 'fable']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['literature', 'lit'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['romances', 'love_affair', 'romance', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash'], ['manuscripts', 'manuscript', 'ms', 'holograph'], ['courtly', 'formal', 'stately']]</t>
-  </si>
-  <si>
-    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
-  </si>
-  <si>
-    <t>[['spanish', 'Spanish', 'Spanish_people'], ['poetry', 'poesy', 'verse'], ['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['authors', 'writer', 'author', 'generator', 'source'], ['patrons', 'patron', 'frequenter', 'sponsor', 'supporter']]</t>
-  </si>
-  <si>
-    <t>[['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['fiction', 'fabrication', 'fable'], ['epistolary', 'epistolatory'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['letters', 'letter', 'missive', 'letter_of_the_alphabet', 'alphabetic_character', 'varsity_letter']]</t>
-  </si>
-  <si>
-    <t>[['courtly', 'formal', 'stately'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['medieval', 'mediaeval', 'gothic', 'chivalric', 'knightly'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['european', 'European'], ['friendship', 'friendly_relationship']]</t>
-  </si>
-  <si>
-    <t>[['literature', 'lit'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New'], ['lesbians', 'lesbian', 'tribade', 'gay_woman', 'Lesbian'], ['writings', 'Hagiographa', 'Ketubim', 'Writings', 'writing', 'authorship', 'composition', 'penning', 'written_material', 'piece_of_writing', 'committal_to_writing', 'write', 'compose', 'pen', 'indite', 'publish', 'drop_a_line', 'save', 'spell'], ['lesbianism', 'sapphism']]</t>
-  </si>
-  <si>
-    <t>[['american', 'American', 'American_English', 'American_language'], ['literature', 'lit'], ['natural', 'cancel', 'instinctive', 'raw', 'rude', 'born', 'innate', 'lifelike'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['nature']]</t>
-  </si>
-  <si>
-    <t>[['japanese', 'Japanese', 'Nipponese'], ['fiction', 'fabrication', 'fable']]</t>
-  </si>
-  <si>
-    <t>[['erotic', 'titillating'], ['poetry', 'poesy', 'verse'], ['english', 'English', 'English_language', 'English_people', 'side'], ['epic', 'epic_poem', 'heroic_poem', 'epos', 'heroic', 'larger-than-life', 'epical'], ['desire', 'want', 'hope', 'trust'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
-  </si>
-  <si>
-    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['french', 'French', 'French_people', 'Daniel_Chester_French', 'Gallic'], ['characters', 'fictional_character', 'fictitious_character', 'character', 'quality', 'lineament', 'fiber', 'fibre', 'role', 'theatrical_role', 'part', 'persona', 'eccentric', 'type', 'case', 'reference', 'character_reference', 'grapheme', 'graphic_symbol'], ['characteristics', 'feature', 'characteristic', 'device_characteristic'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['literary'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate']]</t>
+    <t>[['grandfathers', 'grandfather', 'gramps', 'granddad', 'grandad', 'granddaddy', 'grandpa'], ['caldecott'], ['medal', 'decoration', 'laurel_wreath', 'medallion', 'palm', 'ribbon'], ['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['travels', 'travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around'], ['homesickness'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['social', 'sociable', 'mixer', 'societal'], ['issues', 'issue', 'number', 'topic', 'subject', 'matter', 'issuing', 'issuance', 'military_issue', 'government_issue', 'return', 'take', 'takings', 'proceeds', 'yield', 'payoff', 'consequence', 'effect', 'outcome', 'result', 'event', 'upshot', 'offspring', 'progeny', 'emergence', 'egress', 'exit', 'outlet', 'way_out', 'publication', 'publish', 'bring_out', 'put_out', 'release', 'supply', 'emerge', 'come_out', 'come_forth', 'go_forth', 'write_out', 'make_out', 'cut'], ['japanese', 'Japanese', 'Nipponese'], ['americans', 'American', 'American_English', 'American_language']]</t>
   </si>
   <si>
     <t>[['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['society', 'club', 'social_club', 'guild', 'gild', 'lodge', 'order', 'company', 'companionship', 'fellowship', 'high_society', 'beau_monde', 'smart_set', 'bon_ton'], ['social', 'sociable', 'mixer', 'societal'], ['problems', 'problem', 'job', 'trouble'], ['money']]</t>
   </si>
   <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['literature', 'lit'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side'], ['american', 'American', 'American_English', 'American_language'], ['fiction', 'fabrication', 'fable']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
+    <t>[['problems', 'problem', 'job', 'trouble'], ['hunting', 'hunt', 'search', 'run', 'hunt_down', 'track_down', 'hound', 'trace']]</t>
+  </si>
+  <si>
+    <t>[['alcoholics', 'alcoholic', 'alky', 'dipsomaniac', 'boozer', 'lush', 'soaker', 'souse'], ['alcoholism', 'alcohol_addiction', 'inebriation', 'drunkenness', 'dipsomania', 'potomania']]</t>
+  </si>
+  <si>
+    <t>[['country', 'state', 'nation', 'land', 'commonwealth', 'res_publica', 'body_politic', 'rural_area', 'area'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['employees', 'employee']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['social', 'sociable', 'mixer', 'societal'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over']]</t>
+  </si>
+  <si>
+    <t>[['soap', 'scoop', 'max', 'liquid_ecstasy', 'grievous_bodily_harm', 'goop', 'Georgia_home_boy', 'easy_lay', 'lather'], ['operas', 'opera', 'Opera', 'opera_house'], ['television', 'telecasting', 'TV', 'video', 'television_system', 'television_receiver', 'television_set', 'tv', 'tv_set', 'idiot_box', 'boob_tube', 'telly', 'goggle_box'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['viewers', 'viewing_audience', 'TV_audience', 'spectator', 'witness', 'viewer', 'watcher', 'looker']]</t>
+  </si>
+  <si>
+    <t>[['chastity', 'celibacy', 'sexual_abstention', 'virtue', 'sexual_morality'], ['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side'], ['feminism', 'feminist_movement', "women's_liberation_movement", "women's_lib"], ['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['rulers', 'ruler', 'swayer', 'rule'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill'], ['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['single', 'bingle', 'one', '1', 'I', 'ace', 'unity', 'individual', 'unmarried', 'undivided', 'exclusive'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['identity', 'personal_identity', 'individuality', 'identity_element', 'identity_operator', 'identicalness', 'indistinguishability'], ['psychology', 'psychological_science'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['stigma', 'mark', 'brand', 'stain'], ['social', 'sociable', 'mixer', 'societal'], ['group', 'grouping', 'radical', 'chemical_group', 'mathematical_group', 'aggroup']]</t>
+  </si>
+  <si>
+    <t>[['authors', 'writer', 'author', 'generator', 'source'], ['english', 'English', 'English_language', 'English_people', 'side']]</t>
+  </si>
+  <si>
+    <t>[['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['interior', 'inside', 'Department_of_the_Interior', 'Interior_Department', 'Interior', 'DoI', 'home', 'internal', 'national', 'inner', 'midland', 'upcountry'], ['decorators', 'interior_designer', 'designer', 'interior_decorator', 'house_decorator', 'room_decorator', 'decorator', 'ornamentalist'], ['architecture', 'computer_architecture']]</t>
   </si>
   <si>
     <t>[['monasticism'], ['religious', 'spiritual'], ['orders', 'order', 'order_of_magnitude', 'ordering', 'ordination', 'orderliness', 'decree', 'edict', 'fiat', 'rescript', 'purchase_order', 'club', 'social_club', 'society', 'guild', 'gild', 'lodge', 'rules_of_order', 'parliamentary_law', 'parliamentary_procedure', 'Holy_Order', 'Order', 'monastic_order', 'tell', 'enjoin', 'say', 'prescribe', 'dictate', 'regulate', 'regularize', 'regularise', 'govern', 'ordain', 'consecrate', 'ordinate', 'arrange', 'set_up', 'put', 'rate', 'rank', 'range', 'grade', 'place'], ['learning', 'acquisition', 'eruditeness', 'erudition', 'learnedness', 'scholarship', 'encyclopedism', 'encyclopaedism', 'learn', 'larn', 'acquire', 'hear', 'get_word', 'get_wind', 'pick_up', 'find_out', 'get_a_line', 'discover', 'see', 'memorize', 'memorise', 'con', 'study', 'read', 'take', 'teach', 'instruct', 'determine', 'check', 'ascertain', 'watch'], ['christian', 'Christian'], ['literature', 'lit'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['theology', 'divinity', 'theological_system']]</t>
   </si>
   <si>
-    <t>[['literature', 'lit'], ['social', 'sociable', 'mixer', 'societal'], ['classes', 'class', 'category', 'family', 'form', 'grade', 'course', 'stratum', 'social_class', 'socio-economic_class', 'course_of_study', 'course_of_instruction', 'division', 'year', 'classify', 'sort', 'assort', 'sort_out', 'separate'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over']]</t>
-  </si>
-  <si>
-    <t>[['chastity', 'celibacy', 'sexual_abstention', 'virtue', 'sexual_morality'], ['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side'], ['feminism', 'feminist_movement', "women's_liberation_movement", "women's_lib"], ['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['rulers', 'ruler', 'swayer', 'rule'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill'], ['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['single', 'bingle', 'one', '1', 'I', 'ace', 'unity', 'individual', 'unmarried', 'undivided', 'exclusive'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['literature', 'lit'], ['female', 'female_person', 'distaff'], ['friendship', 'friendly_relationship'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['selection', 'choice', 'option', 'pick', 'survival', 'survival_of_the_fittest', 'natural_selection', 'excerpt', 'excerption', 'extract'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['th', 'Thursday', 'Th', 'thorium', 'atomic_number_90'], ['century', 'hundred', '100', 'C', 'one_C'], ['fiction', 'fabrication', 'fable'], ['modern', 'modern_font', 'Bodoni', 'Bodoni_font', 'mod', 'modernistic', 'advanced', 'forward-looking', 'innovative', 'Modern', 'New'], ['england', 'England'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['soul', 'psyche', 'person', 'individual', 'someone', 'somebody', 'mortal', 'soulfulness'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['ancient', 'antediluvian']]</t>
-  </si>
-  <si>
-    <t>[['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['christian', 'Christian'], ['fiction', 'fabrication', 'fable'], ['domestic', 'domestic_help', 'house_servant', 'domesticated']]</t>
-  </si>
-  <si>
-    <t>[['fiction', 'fabrication', 'fable'], ['english', 'English', 'English_language', 'English_people', 'side'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['fat', 'adipose_tissue', 'fatty_tissue', 'fatness', 'blubber', 'avoirdupois', 'fatten', 'flesh_out', 'fill_out', 'plump', 'plump_out', 'fatten_out', 'fatten_up', 'fatty', 'juicy', 'fertile', 'productive', 'rich'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['fathers', 'father', 'male_parent', 'begetter', 'forefather', 'sire', 'Father', 'Padre', 'Church_Father', 'Father_of_the_Church', 'Father-God', 'Fatherhood', 'founder', 'beginner', 'founding_father', 'don', 'beget', 'get', 'engender', 'mother', 'generate', 'bring_forth'], ['daughters', 'daughter', 'girl'], ['courtship', 'wooing', 'courting', 'suit'], ['beauty', 'smasher', 'stunner', 'knockout', 'ravisher', 'sweetheart', 'peach', 'lulu', 'looker', 'mantrap', 'dish', 'beaut'], ['personal']]</t>
+    <t>[['psychiatrists', 'psychiatrist', 'head-shrinker', 'shrink'], ['wealth', 'wealthiness', 'riches']]</t>
+  </si>
+  <si>
+    <t>[['creative', 'originative'], ['activities', 'activity', 'action', 'activeness', 'bodily_process', 'body_process', 'bodily_function', 'natural_process', 'natural_action'], ['seat', 'place', 'buttocks', 'nates', 'arse', 'butt', 'backside', 'bum', 'buns', 'can', 'fundament', 'hindquarters', 'hind_end', 'keister', 'posterior', 'prat', 'rear', 'rear_end', 'rump', 'stern', 'tail', 'tail_end', 'tooshie', 'tush', 'bottom', 'behind', 'derriere', 'fanny', 'ass', 'sit', 'sit_down', 'induct', 'invest'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate'], ['holiday', 'vacation'], ['decorations', 'decoration', 'ornament', 'ornamentation', 'laurel_wreath', 'medal', 'medallion', 'palm', 'ribbon'], ['handicraft', 'handcraft', 'handiwork', 'handwork']]</t>
+  </si>
+  <si>
+    <t>[['motion', 'gesture', 'movement', 'move', 'motility', 'question', 'apparent_motion', 'apparent_movement', 'gesticulate'], ['films', 'movie', 'film', 'picture', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'cinema', 'celluloid', 'photographic_film', 'plastic_film', 'shoot', 'take'], ['industry', 'manufacture', 'diligence', 'industriousness']]</t>
+  </si>
+  <si>
+    <t>[['catholic', 'Catholic'], ['universities', 'university'], ['colleges', 'college'], ['christianity', 'Christianity', 'Christian_religion', 'Christendom'], ['justice', 'justness', 'judge', 'jurist', 'Department_of_Justice', 'Justice_Department', 'Justice', 'DoJ'], ['poor', 'poor_people', 'hapless', 'miserable', 'misfortunate', 'pathetic', 'piteous', 'pitiable', 'pitiful', 'wretched', 'inadequate', 'short'], ['educational'], ['equalization', 'equalisation', 'leveling'], ['liberation', 'release', 'freeing', 'dismissal', 'dismission', 'discharge', 'firing', 'sack', 'sacking'], ['theology', 'divinity', 'theological_system']]</t>
+  </si>
+  <si>
+    <t>[['automobiles', 'car', 'auto', 'automobile', 'machine', 'motorcar'], ['technology', 'engineering', 'engineering_science', 'applied_science'], ['civilization', 'civilisation', 'culture', 'refinement']]</t>
+  </si>
+  <si>
+    <t>[['tlingit', 'Tlingit'], ['indians', 'Indian', 'American_Indian', 'Red_Indian', 'Amerind', 'Amerindian_language', 'American-Indian_language'], ['haida', 'Haida'], ['mythology'], ['ethnic', 'cultural', 'ethnical', 'heathen', 'heathenish', 'pagan'], ['race', 'subspecies', 'slipstream', 'airstream', 'backwash', 'wash', 'raceway', 'rush', 'hotfoot', 'hasten', 'hie', 'speed', 'pelt_along', 'rush_along', 'cannonball_along', 'bucket_along', 'belt_along', 'step_on_it', 'run'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
+  </si>
+  <si>
+    <t>[['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['rulers', 'ruler', 'swayer', 'rule'], ['generals', 'general', 'full_general', 'superior_general'], ['eunuchs', 'eunuch', 'castrate']]</t>
+  </si>
+  <si>
+    <t>[['social', 'sociable', 'mixer', 'societal'], ['service', 'religious_service', 'divine_service', 'military_service', 'armed_service', 'Service', 'Robert_William_Service', 'avail', 'help', 'table_service', 'servicing', 'serve', 'serving', 'service_of_process', 'overhaul', 'inspection_and_repair'], ['alcoholics', 'alcoholic', 'alky', 'dipsomaniac', 'boozer', 'lush', 'soaker', 'souse'], ['twelve', '12', 'XII', 'dozen', 'xii'], ['step', 'measure', 'footstep', 'pace', 'stride', 'stair', 'gradation', "stone's_throw", 'footfall', 'tone', 'whole_tone', 'whole_step', 'footprint', 'footmark', 'dance_step', 'tread', 'mistreat', 'maltreat', 'abuse', 'ill-use', 'ill-treat'], ['programs', 'plan', 'program', 'programme', 'broadcast', 'platform', 'political_platform', 'political_program', 'course_of_study', 'curriculum', 'syllabus', 'computer_program', 'computer_programme']]</t>
+  </si>
+  <si>
+    <t>[['medicine', 'medical_specialty', 'medication', 'medicament', 'medicinal_drug', 'practice_of_medicine', 'music', 'medicate'], ['terminology', 'nomenclature', 'language']]</t>
+  </si>
+  <si>
+    <t>[['private', 'buck_private', 'common_soldier', 'individual', 'secret'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise']]</t>
+  </si>
+  <si>
+    <t>[['low', 'depression', 'Low', 'David_Low', 'Sir_David_Low', 'Sir_David_Alexander_Cecil_Low', 'first_gear', 'first', 'low_gear', 'moo', 'low-toned', 'low-pitched', 'abject', 'low-down', 'miserable', 'scummy', 'scurvy', 'humble', 'lowly', 'modest', 'small', 'depleted', 'broken', 'crushed', 'humbled', 'humiliated', 'gloomy', 'grim', 'blue', 'depressed', 'dispirited', 'down', 'downcast', 'downhearted', 'down_in_the_mouth', 'low-spirited'], ['fat', 'adipose_tissue', 'fatty_tissue', 'fatness', 'blubber', 'avoirdupois', 'fatten', 'flesh_out', 'fill_out', 'plump', 'plump_out', 'fatten_out', 'fatten_up', 'fatty', 'juicy', 'fertile', 'productive', 'rich'], ['diet', 'dieting']]</t>
+  </si>
+  <si>
+    <t>[['languages', 'language', 'linguistic_communication', 'speech', 'speech_communication', 'spoken_communication', 'spoken_language', 'voice_communication', 'oral_communication', 'lyric', 'words', 'linguistic_process', 'terminology', 'nomenclature'], ['literatures', 'literature', 'lit'], ['generals', 'general', 'full_general', 'superior_general']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -919,34 +1627,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="150.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1556.7109375" customWidth="1"/>
+    <col min="5" max="5" width="181.7109375" customWidth="1"/>
+    <col min="6" max="6" width="2007.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
-        <v>169</v>
+        <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>170</v>
+        <v>406</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>171</v>
+        <v>407</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>172</v>
+        <v>408</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>173</v>
+        <v>409</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="2" customFormat="1">
@@ -957,16 +1665,16 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>49</v>
+        <v>110</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>209</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -977,16 +1685,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="D3">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -997,16 +1705,16 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>112</v>
       </c>
       <c r="D4">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1017,16 +1725,16 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="D5">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>211</v>
       </c>
       <c r="F5" t="s">
-        <v>131</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1037,16 +1745,16 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="D6">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
       <c r="F6" t="s">
-        <v>132</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1057,16 +1765,16 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>115</v>
       </c>
       <c r="D7">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1077,16 +1785,16 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>115</v>
       </c>
       <c r="D8">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1097,16 +1805,16 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="D9">
-        <v>64</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>94</v>
+        <v>214</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1117,16 +1825,16 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>116</v>
       </c>
       <c r="D10">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>134</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1137,16 +1845,16 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="D11">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
-        <v>135</v>
+        <v>313</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1157,16 +1865,16 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="D12">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>97</v>
+        <v>216</v>
       </c>
       <c r="F12" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1177,16 +1885,16 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="D13">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>217</v>
       </c>
       <c r="F13" t="s">
-        <v>137</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1197,16 +1905,16 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="D14">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>218</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>316</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1217,16 +1925,16 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>121</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="F15" t="s">
-        <v>139</v>
+        <v>317</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1237,16 +1945,16 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>122</v>
       </c>
       <c r="D16">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>101</v>
+        <v>220</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1257,16 +1965,16 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="D17">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>102</v>
+        <v>221</v>
       </c>
       <c r="F17" t="s">
-        <v>141</v>
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1277,16 +1985,16 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="D18">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
-        <v>142</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1297,16 +2005,16 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D19">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>223</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>321</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1317,16 +2025,16 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>66</v>
+        <v>126</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>105</v>
+        <v>224</v>
       </c>
       <c r="F20" t="s">
-        <v>144</v>
+        <v>322</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1337,16 +2045,16 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="D21">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>106</v>
+        <v>225</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>323</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1357,16 +2065,16 @@
         <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>128</v>
       </c>
       <c r="D22">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E22" t="s">
-        <v>106</v>
+        <v>226</v>
       </c>
       <c r="F22" t="s">
-        <v>145</v>
+        <v>324</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1377,16 +2085,16 @@
         <v>21</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>129</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E23" t="s">
-        <v>107</v>
+        <v>227</v>
       </c>
       <c r="F23" t="s">
-        <v>146</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1397,16 +2105,16 @@
         <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="D24">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>108</v>
+        <v>227</v>
       </c>
       <c r="F24" t="s">
-        <v>147</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1417,16 +2125,16 @@
         <v>23</v>
       </c>
       <c r="C25" t="s">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="D25">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E25" t="s">
-        <v>109</v>
+        <v>228</v>
       </c>
       <c r="F25" t="s">
-        <v>148</v>
+        <v>326</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1437,16 +2145,16 @@
         <v>24</v>
       </c>
       <c r="C26" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="D26">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>229</v>
       </c>
       <c r="F26" t="s">
-        <v>149</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1457,16 +2165,16 @@
         <v>25</v>
       </c>
       <c r="C27" t="s">
-        <v>71</v>
+        <v>132</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>230</v>
       </c>
       <c r="F27" t="s">
-        <v>149</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1477,16 +2185,16 @@
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="D28">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E28" t="s">
-        <v>111</v>
+        <v>231</v>
       </c>
       <c r="F28" t="s">
-        <v>150</v>
+        <v>329</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1497,16 +2205,16 @@
         <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>134</v>
       </c>
       <c r="D29">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E29" t="s">
-        <v>112</v>
+        <v>232</v>
       </c>
       <c r="F29" t="s">
-        <v>151</v>
+        <v>330</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1517,16 +2225,16 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="D30">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E30" t="s">
-        <v>113</v>
+        <v>231</v>
       </c>
       <c r="F30" t="s">
-        <v>152</v>
+        <v>329</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1537,16 +2245,16 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>75</v>
+        <v>135</v>
       </c>
       <c r="D31">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E31" t="s">
-        <v>114</v>
+        <v>233</v>
       </c>
       <c r="F31" t="s">
-        <v>153</v>
+        <v>331</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1557,16 +2265,16 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>75</v>
+        <v>136</v>
       </c>
       <c r="D32">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E32" t="s">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="F32" t="s">
-        <v>153</v>
+        <v>332</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1577,16 +2285,16 @@
         <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>76</v>
+        <v>137</v>
       </c>
       <c r="D33">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="F33" t="s">
-        <v>154</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1597,16 +2305,16 @@
         <v>32</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="D34">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E34" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="F34" t="s">
-        <v>155</v>
+        <v>334</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1617,16 +2325,16 @@
         <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="D35">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>236</v>
       </c>
       <c r="F35" t="s">
-        <v>155</v>
+        <v>334</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1637,16 +2345,16 @@
         <v>34</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>139</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>237</v>
       </c>
       <c r="F36" t="s">
-        <v>156</v>
+        <v>335</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1657,16 +2365,16 @@
         <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="D37">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E37" t="s">
-        <v>118</v>
+        <v>237</v>
       </c>
       <c r="F37" t="s">
-        <v>157</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1677,16 +2385,16 @@
         <v>36</v>
       </c>
       <c r="C38" t="s">
-        <v>79</v>
+        <v>140</v>
       </c>
       <c r="D38">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="E38" t="s">
-        <v>118</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s">
-        <v>157</v>
+        <v>336</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1697,16 +2405,16 @@
         <v>37</v>
       </c>
       <c r="C39" t="s">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="D39">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="F39" t="s">
-        <v>158</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1717,16 +2425,16 @@
         <v>38</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>142</v>
       </c>
       <c r="D40">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E40" t="s">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="F40" t="s">
-        <v>159</v>
+        <v>338</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1737,16 +2445,16 @@
         <v>39</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>143</v>
       </c>
       <c r="D41">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="E41" t="s">
-        <v>121</v>
+        <v>241</v>
       </c>
       <c r="F41" t="s">
-        <v>160</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1757,16 +2465,16 @@
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>144</v>
       </c>
       <c r="D42">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E42" t="s">
-        <v>122</v>
+        <v>242</v>
       </c>
       <c r="F42" t="s">
-        <v>161</v>
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1777,16 +2485,16 @@
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>83</v>
+        <v>145</v>
       </c>
       <c r="D43">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E43" t="s">
-        <v>122</v>
+        <v>243</v>
       </c>
       <c r="F43" t="s">
-        <v>161</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1797,16 +2505,16 @@
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>84</v>
+        <v>145</v>
       </c>
       <c r="D44">
         <v>18</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>243</v>
       </c>
       <c r="F44" t="s">
-        <v>162</v>
+        <v>341</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1817,16 +2525,16 @@
         <v>43</v>
       </c>
       <c r="C45" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="D45">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>124</v>
+        <v>244</v>
       </c>
       <c r="F45" t="s">
-        <v>163</v>
+        <v>342</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1837,16 +2545,16 @@
         <v>44</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>147</v>
       </c>
       <c r="D46">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" t="s">
-        <v>125</v>
+        <v>245</v>
       </c>
       <c r="F46" t="s">
-        <v>164</v>
+        <v>343</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1857,16 +2565,16 @@
         <v>45</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>147</v>
       </c>
       <c r="D47">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>126</v>
+        <v>245</v>
       </c>
       <c r="F47" t="s">
-        <v>165</v>
+        <v>343</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1877,16 +2585,16 @@
         <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>148</v>
       </c>
       <c r="D48">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>127</v>
+        <v>246</v>
       </c>
       <c r="F48" t="s">
-        <v>166</v>
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1897,16 +2605,16 @@
         <v>47</v>
       </c>
       <c r="C49" t="s">
-        <v>89</v>
+        <v>149</v>
       </c>
       <c r="D49">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="F49" t="s">
-        <v>167</v>
+        <v>345</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1917,16 +2625,1236 @@
         <v>48</v>
       </c>
       <c r="C50" t="s">
+        <v>150</v>
+      </c>
+      <c r="D50">
+        <v>15</v>
+      </c>
+      <c r="E50" t="s">
+        <v>247</v>
+      </c>
+      <c r="F50" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51">
+        <v>15</v>
+      </c>
+      <c r="E51" t="s">
+        <v>247</v>
+      </c>
+      <c r="F51" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52">
+        <v>14</v>
+      </c>
+      <c r="E52" t="s">
+        <v>248</v>
+      </c>
+      <c r="F52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" t="s">
+        <v>152</v>
+      </c>
+      <c r="D53">
+        <v>14</v>
+      </c>
+      <c r="E53" t="s">
+        <v>249</v>
+      </c>
+      <c r="F53" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" t="s">
+        <v>153</v>
+      </c>
+      <c r="D54">
+        <v>14</v>
+      </c>
+      <c r="E54" t="s">
+        <v>250</v>
+      </c>
+      <c r="F54" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C55" t="s">
+        <v>154</v>
+      </c>
+      <c r="D55">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>251</v>
+      </c>
+      <c r="F55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>54</v>
+      </c>
+      <c r="C56" t="s">
+        <v>155</v>
+      </c>
+      <c r="D56">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>252</v>
+      </c>
+      <c r="F56" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" t="s">
+        <v>156</v>
+      </c>
+      <c r="D57">
+        <v>13</v>
+      </c>
+      <c r="E57" t="s">
+        <v>253</v>
+      </c>
+      <c r="F57" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" t="s">
+        <v>157</v>
+      </c>
+      <c r="D58">
+        <v>13</v>
+      </c>
+      <c r="E58" t="s">
+        <v>254</v>
+      </c>
+      <c r="F58" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" t="s">
+        <v>158</v>
+      </c>
+      <c r="D59">
+        <v>12</v>
+      </c>
+      <c r="E59" t="s">
+        <v>255</v>
+      </c>
+      <c r="F59" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>159</v>
+      </c>
+      <c r="D60">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>256</v>
+      </c>
+      <c r="F60" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>160</v>
+      </c>
+      <c r="D61">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>257</v>
+      </c>
+      <c r="F61" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>60</v>
+      </c>
+      <c r="C62" t="s">
+        <v>161</v>
+      </c>
+      <c r="D62">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>258</v>
+      </c>
+      <c r="F62" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" t="s">
+        <v>155</v>
+      </c>
+      <c r="D63">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>259</v>
+      </c>
+      <c r="F63" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>62</v>
+      </c>
+      <c r="C64" t="s">
+        <v>162</v>
+      </c>
+      <c r="D64">
+        <v>10</v>
+      </c>
+      <c r="E64" t="s">
+        <v>260</v>
+      </c>
+      <c r="F64" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>63</v>
+      </c>
+      <c r="C65" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65" t="s">
+        <v>261</v>
+      </c>
+      <c r="F65" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>64</v>
+      </c>
+      <c r="C66" t="s">
+        <v>164</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66" t="s">
+        <v>262</v>
+      </c>
+      <c r="F66" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="s">
+        <v>165</v>
+      </c>
+      <c r="D67">
+        <v>10</v>
+      </c>
+      <c r="E67" t="s">
+        <v>263</v>
+      </c>
+      <c r="F67" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>66</v>
+      </c>
+      <c r="C68" t="s">
+        <v>166</v>
+      </c>
+      <c r="D68">
+        <v>10</v>
+      </c>
+      <c r="E68" t="s">
+        <v>264</v>
+      </c>
+      <c r="F68" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" t="s">
+        <v>167</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69" t="s">
+        <v>265</v>
+      </c>
+      <c r="F69" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>68</v>
+      </c>
+      <c r="C70" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>266</v>
+      </c>
+      <c r="F70" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>69</v>
+      </c>
+      <c r="C71" t="s">
+        <v>169</v>
+      </c>
+      <c r="D71">
+        <v>9</v>
+      </c>
+      <c r="E71" t="s">
+        <v>267</v>
+      </c>
+      <c r="F71" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>170</v>
+      </c>
+      <c r="D72">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s">
+        <v>268</v>
+      </c>
+      <c r="F72" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C73" t="s">
+        <v>171</v>
+      </c>
+      <c r="D73">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s">
+        <v>269</v>
+      </c>
+      <c r="F73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>172</v>
+      </c>
+      <c r="D74">
+        <v>9</v>
+      </c>
+      <c r="E74" t="s">
+        <v>270</v>
+      </c>
+      <c r="F74" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>173</v>
+      </c>
+      <c r="D75">
+        <v>9</v>
+      </c>
+      <c r="E75" t="s">
+        <v>271</v>
+      </c>
+      <c r="F75" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>174</v>
+      </c>
+      <c r="D76">
+        <v>8</v>
+      </c>
+      <c r="E76" t="s">
+        <v>272</v>
+      </c>
+      <c r="F76" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77">
+        <v>8</v>
+      </c>
+      <c r="E77" t="s">
+        <v>273</v>
+      </c>
+      <c r="F77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="3">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>176</v>
+      </c>
+      <c r="D78">
+        <v>8</v>
+      </c>
+      <c r="E78" t="s">
+        <v>274</v>
+      </c>
+      <c r="F78" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="3">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>275</v>
+      </c>
+      <c r="F79" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="3">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>178</v>
+      </c>
+      <c r="D80">
+        <v>8</v>
+      </c>
+      <c r="E80" t="s">
+        <v>276</v>
+      </c>
+      <c r="F80" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="3">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>179</v>
+      </c>
+      <c r="D81">
+        <v>8</v>
+      </c>
+      <c r="E81" t="s">
+        <v>277</v>
+      </c>
+      <c r="F81" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="3">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>180</v>
+      </c>
+      <c r="D82">
+        <v>7</v>
+      </c>
+      <c r="E82" t="s">
+        <v>278</v>
+      </c>
+      <c r="F82" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="3">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>181</v>
+      </c>
+      <c r="D83">
+        <v>7</v>
+      </c>
+      <c r="E83" t="s">
+        <v>279</v>
+      </c>
+      <c r="F83" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="3">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>82</v>
+      </c>
+      <c r="C84" t="s">
+        <v>182</v>
+      </c>
+      <c r="D84">
+        <v>7</v>
+      </c>
+      <c r="E84" t="s">
+        <v>280</v>
+      </c>
+      <c r="F84" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="3">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>83</v>
+      </c>
+      <c r="C85" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85">
+        <v>7</v>
+      </c>
+      <c r="E85" t="s">
+        <v>281</v>
+      </c>
+      <c r="F85" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="3">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>184</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" t="s">
+        <v>282</v>
+      </c>
+      <c r="F86" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="3">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>185</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>283</v>
+      </c>
+      <c r="F87" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="3">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>86</v>
+      </c>
+      <c r="C88" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88" t="s">
+        <v>284</v>
+      </c>
+      <c r="F88" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="3">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>87</v>
+      </c>
+      <c r="C89" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89" t="s">
+        <v>285</v>
+      </c>
+      <c r="F89" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="3">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>188</v>
+      </c>
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90" t="s">
+        <v>286</v>
+      </c>
+      <c r="F90" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="3">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>189</v>
+      </c>
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>287</v>
+      </c>
+      <c r="F91" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="3">
         <v>90</v>
       </c>
-      <c r="D50">
-        <v>10</v>
-      </c>
-      <c r="E50" t="s">
-        <v>129</v>
-      </c>
-      <c r="F50" t="s">
-        <v>168</v>
+      <c r="B92" t="s">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>190</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>288</v>
+      </c>
+      <c r="F92" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="3">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>191</v>
+      </c>
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93" t="s">
+        <v>289</v>
+      </c>
+      <c r="F93" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="3">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>192</v>
+      </c>
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94" t="s">
+        <v>290</v>
+      </c>
+      <c r="F94" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="3">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>93</v>
+      </c>
+      <c r="C95" t="s">
+        <v>193</v>
+      </c>
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95" t="s">
+        <v>291</v>
+      </c>
+      <c r="F95" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="3">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>94</v>
+      </c>
+      <c r="C96" t="s">
+        <v>194</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>292</v>
+      </c>
+      <c r="F96" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="3">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>95</v>
+      </c>
+      <c r="C97" t="s">
+        <v>195</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>293</v>
+      </c>
+      <c r="F97" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="3">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>96</v>
+      </c>
+      <c r="C98" t="s">
+        <v>196</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>294</v>
+      </c>
+      <c r="F98" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="3">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>196</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>294</v>
+      </c>
+      <c r="F99" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="3">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>197</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100" t="s">
+        <v>295</v>
+      </c>
+      <c r="F100" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="3">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>198</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101" t="s">
+        <v>296</v>
+      </c>
+      <c r="F101" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" s="3">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>199</v>
+      </c>
+      <c r="D102">
+        <v>3</v>
+      </c>
+      <c r="E102" t="s">
+        <v>297</v>
+      </c>
+      <c r="F102" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" s="3">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" t="s">
+        <v>200</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>298</v>
+      </c>
+      <c r="F103" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="3">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>102</v>
+      </c>
+      <c r="C104" t="s">
+        <v>201</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>299</v>
+      </c>
+      <c r="F104" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" s="3">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" t="s">
+        <v>202</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>300</v>
+      </c>
+      <c r="F105" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" s="3">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>104</v>
+      </c>
+      <c r="C106" t="s">
+        <v>203</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>301</v>
+      </c>
+      <c r="F106" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" s="3">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>105</v>
+      </c>
+      <c r="C107" t="s">
+        <v>204</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>302</v>
+      </c>
+      <c r="F107" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="3">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>106</v>
+      </c>
+      <c r="C108" t="s">
+        <v>205</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>303</v>
+      </c>
+      <c r="F108" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="3">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>107</v>
+      </c>
+      <c r="C109" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>304</v>
+      </c>
+      <c r="F109" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="3">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C110" t="s">
+        <v>207</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>305</v>
+      </c>
+      <c r="F110" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="3">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" t="s">
+        <v>208</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>306</v>
+      </c>
+      <c r="F111" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -1,181 +1,145 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\97252\Desktop\פרויקט גמר\NLP_Book_Recommendation\BackEnd\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C67C1E-51C4-438C-BA0D-2BA73208B235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-113" yWindow="-113" windowWidth="21262" windowHeight="12772" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="991000001799704574" sheetId="1" r:id="rId1"/>
+    <sheet name="991001094847204574" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="58">
-  <si>
-    <t>991000001799704574</t>
-  </si>
-  <si>
-    <t>991000254419704574</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+  <si>
+    <t>991001094847204574</t>
   </si>
   <si>
     <t>991000252139704574</t>
   </si>
   <si>
-    <t>991000027049704574</t>
-  </si>
-  <si>
-    <t>991000220919704574</t>
-  </si>
-  <si>
-    <t>991000050149704574</t>
-  </si>
-  <si>
-    <t>991000364949704574</t>
-  </si>
-  <si>
-    <t>991000250179704574</t>
-  </si>
-  <si>
-    <t>991001070189604574</t>
-  </si>
-  <si>
-    <t>991000117479704574</t>
-  </si>
-  <si>
-    <t>991001069871904574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love and sex after 60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex, dating, and love </t>
+    <t>991000248959704574</t>
+  </si>
+  <si>
+    <t>991000099489704574</t>
+  </si>
+  <si>
+    <t>991000054469704574</t>
+  </si>
+  <si>
+    <t>991000360649704574</t>
+  </si>
+  <si>
+    <t>991000111639704574</t>
+  </si>
+  <si>
+    <t>991000243739704574</t>
+  </si>
+  <si>
+    <t>991000426459704574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children's edition of touching incidents and remarkable Answers to prayer </t>
   </si>
   <si>
     <t xml:space="preserve">Free to love again </t>
   </si>
   <si>
-    <t>The currency of Eros</t>
-  </si>
-  <si>
-    <t>Transforming desire</t>
-  </si>
-  <si>
-    <t>Dangerous men &amp; adventurous women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double-header </t>
-  </si>
-  <si>
-    <t>Of chastity and power</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disney's Beauty and the beast </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shamans and kushtakas </t>
+    <t xml:space="preserve">To mother with love </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A light in the window </t>
+  </si>
+  <si>
+    <t>The love of learning and the desire for God</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First things first </t>
+  </si>
+  <si>
+    <t xml:space="preserve">When families fight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anthem </t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>['Sex instruction for older people.', 'Older people', 'Love in old age.']</t>
-  </si>
-  <si>
-    <t>['Dating (Social customs)', 'Love.', 'Sex.']</t>
+    <t>['Christian life', 'Prayer', 'Children', 'Salvation', 'Christian life.', 'Children', 'Salvation.', 'Prayer.']</t>
   </si>
   <si>
     <t>['Sex', 'Christian life.']</t>
   </si>
   <si>
-    <t>['Love poetry, European', 'European literature', 'European literature', 'Women in literature.', 'Sex role in literature.']</t>
-  </si>
-  <si>
-    <t>['Erotic poetry, English', 'Epic poetry, English', 'Desire in literature.', 'Love in literature.', 'Sex in literature.']</t>
-  </si>
-  <si>
-    <t>['Love stories, American', 'Women', 'Authors and readers', 'Love stories', 'Sex role in literature.']</t>
-  </si>
-  <si>
-    <t>['Monsters', 'Baseball', 'Early childhood education.', "Children's stories."]</t>
-  </si>
-  <si>
-    <t>['Chastity in literature.', 'English literature', 'Feminism and literature', 'Kings and rulers in literature.', 'Power (Social sciences) in literature.', 'Queens in literature.', 'Sex role in literature.', 'Single women in literature.', 'Women and literature']</t>
-  </si>
-  <si>
-    <t>['Early childhood education.', "Children's stories.", 'Fairy tales.', 'Folklore']</t>
-  </si>
-  <si>
-    <t>['Tlingit Indians', 'Haida Indians', 'Tlingit Indians', 'Haida Indians', 'Tlingit Indians', 'Haida Indians', 'Tlingit mythology.', 'Haida mythology.', 'Tlingit Indians', 'Haida Indians', 'Tlingit mythology', 'Haida mythology', 'Ethnic &amp; Race Studies', 'Gender &amp; Ethnic Studies', 'Social Sciences']</t>
-  </si>
-  <si>
-    <t>['sex', 'instruction', 'older', 'people', 'love', 'age']</t>
-  </si>
-  <si>
-    <t>['dating', 'social', 'customs', 'love', 'sex']</t>
+    <t>['Christian poetry, American.', 'Poetry.']</t>
+  </si>
+  <si>
+    <t>['City and town life', 'Christian fiction.', 'Domestic fiction.']</t>
+  </si>
+  <si>
+    <t>['Monasticism and religious orders', 'Learning and scholarship', 'Christian literature, Early', 'Theology']</t>
+  </si>
+  <si>
+    <t>['Conduct of life.', 'Time management.']</t>
+  </si>
+  <si>
+    <t>['Family', 'Interpersonal conflict.', 'Life cycle, Human']</t>
+  </si>
+  <si>
+    <t>['Man-woman relationships', 'Men', 'Individuality', 'Time travel']</t>
+  </si>
+  <si>
+    <t>['christian', 'life', 'prayer', 'children', 'salvation']</t>
   </si>
   <si>
     <t>['sex', 'christian', 'life']</t>
   </si>
   <si>
-    <t>['love', 'poetry', 'european', 'literature', 'women', 'sex', 'role']</t>
-  </si>
-  <si>
-    <t>['erotic', 'poetry', 'english', 'epic', 'desire', 'literature', 'love', 'sex']</t>
-  </si>
-  <si>
-    <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
-  </si>
-  <si>
-    <t>['monsters', 'baseball', 'early', 'childhood', 'education', 'children', 'stories']</t>
-  </si>
-  <si>
-    <t>['chastity', 'literature', 'english', 'feminism', 'kings', 'rulers', 'social', 'sciences', 'queens', 'sex', 'role', 'single', 'women']</t>
-  </si>
-  <si>
-    <t>['early', 'childhood', 'education', 'children', 'stories', 'fairy', 'tales', 'folklore']</t>
-  </si>
-  <si>
-    <t>['tlingit', 'indians', 'haida', 'mythology', 'ethnic', 'race', 'studies', 'gender', 'social', 'sciences']</t>
-  </si>
-  <si>
-    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['older', 'aged', 'elderly', 'senior', 'elder', 'sr.', 'old', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['aging', 'ripening', 'ageing', 'senescence', 'age', 'senesce', 'get_on', 'mature', 'maturate', 'senescent']]</t>
-  </si>
-  <si>
-    <t>[['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
+    <t>['christian', 'poetry', 'american']</t>
+  </si>
+  <si>
+    <t>['city', 'town', 'life', 'christian', 'fiction', 'domestic']</t>
+  </si>
+  <si>
+    <t>['monasticism', 'religious', 'orders', 'learning', 'christian', 'literature', 'early', 'theology']</t>
+  </si>
+  <si>
+    <t>['conduct', 'life', 'time', 'management']</t>
+  </si>
+  <si>
+    <t>['family', 'interpersonal', 'conflict', 'life', 'cycle', 'human']</t>
+  </si>
+  <si>
+    <t>['man', 'woman', 'relationships', 'men', 'individuality', 'time', 'travel']</t>
+  </si>
+  <si>
+    <t>[['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['prayer', 'supplication', 'petition', 'orison', 'entreaty', 'appeal', 'supplicant'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['salvation', 'redemption']]</t>
   </si>
   <si>
     <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence']]</t>
   </si>
   <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['european', 'European'], ['literature', 'lit'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use']]</t>
-  </si>
-  <si>
-    <t>[['erotic', 'titillating'], ['poetry', 'poesy', 'verse'], ['english', 'English', 'English_language', 'English_people', 'side'], ['epic', 'epic_poem', 'heroic_poem', 'epos', 'heroic', 'larger-than-life', 'epical'], ['desire', 'want', 'hope', 'trust'], ['literature', 'lit'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
-  </si>
-  <si>
-    <t>[['monsters', 'monster', 'giant', 'goliath', 'behemoth', 'colossus', 'freak', 'monstrosity', 'lusus_naturae', 'fiend', 'devil', 'demon', 'ogre', 'teras'], ['baseball', 'baseball_game'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
-    <t>[['chastity', 'celibacy', 'sexual_abstention', 'virtue', 'sexual_morality'], ['literature', 'lit'], ['english', 'English', 'English_language', 'English_people', 'side'], ['feminism', 'feminist_movement', "women's_liberation_movement", "women's_lib"], ['kings', 'king', 'male_monarch', 'Rex', 'queen', 'world-beater', 'baron', 'big_businessman', 'business_leader', 'magnate', 'mogul', 'power', 'top_executive', 'tycoon', 'King', 'Billie_Jean_King', 'Billie_Jean_Moffitt_King', 'B._B._King', 'Riley_B_King', 'Martin_Luther_King', 'Martin_Luther_King_Jr.'], ['rulers', 'ruler', 'swayer', 'rule'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill'], ['queens', 'Queens', 'queen', 'queen_regnant', 'female_monarch', 'king', 'world-beater', 'fagot', 'faggot', 'fag', 'fairy', 'nance', 'pansy', 'queer', 'poof', 'poove', 'pouf', 'queen_mole_rat', 'tabby'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['single', 'bingle', 'one', '1', 'I', 'ace', 'unity', 'individual', 'unmarried', 'undivided', 'exclusive'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['folklore']]</t>
-  </si>
-  <si>
-    <t>[['tlingit', 'Tlingit'], ['indians', 'Indian', 'American_Indian', 'Red_Indian', 'Amerind', 'Amerindian_language', 'American-Indian_language'], ['haida', 'Haida'], ['mythology'], ['ethnic', 'cultural', 'ethnical', 'heathen', 'heathenish', 'pagan'], ['race', 'subspecies', 'slipstream', 'airstream', 'backwash', 'wash', 'raceway', 'rush', 'hotfoot', 'hasten', 'hie', 'speed', 'pelt_along', 'rush_along', 'cannonball_along', 'bucket_along', 'belt_along', 'step_on_it', 'run'], ['studies', 'survey', 'study', 'work', 'report', 'written_report', 'discipline', 'subject', 'subject_area', 'subject_field', 'field', 'field_of_study', 'bailiwick', 'sketch', 'cogitation', 'analyze', 'analyse', 'examine', 'canvass', 'canvas', 'consider', 'learn', 'read', 'take', 'hit_the_books', 'meditate', 'contemplate'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['social', 'sociable', 'mixer', 'societal'], ['sciences', 'science', 'scientific_discipline', 'skill']]</t>
+    <t>[['christian', 'Christian'], ['poetry', 'poesy', 'verse'], ['american', 'American', 'American_English', 'American_language']]</t>
+  </si>
+  <si>
+    <t>[['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['christian', 'Christian'], ['fiction', 'fabrication', 'fable'], ['domestic', 'domestic_help', 'house_servant', 'domesticated']]</t>
+  </si>
+  <si>
+    <t>[['monasticism'], ['religious', 'spiritual'], ['orders', 'order', 'order_of_magnitude', 'ordering', 'ordination', 'orderliness', 'decree', 'edict', 'fiat', 'rescript', 'purchase_order', 'club', 'social_club', 'society', 'guild', 'gild', 'lodge', 'rules_of_order', 'parliamentary_law', 'parliamentary_procedure', 'Holy_Order', 'Order', 'monastic_order', 'tell', 'enjoin', 'say', 'prescribe', 'dictate', 'regulate', 'regularize', 'regularise', 'govern', 'ordain', 'consecrate', 'ordinate', 'arrange', 'set_up', 'put', 'rate', 'rank', 'range', 'grade', 'place'], ['learning', 'acquisition', 'eruditeness', 'erudition', 'learnedness', 'scholarship', 'encyclopedism', 'encyclopaedism', 'learn', 'larn', 'acquire', 'hear', 'get_word', 'get_wind', 'pick_up', 'find_out', 'get_a_line', 'discover', 'see', 'memorize', 'memorise', 'con', 'study', 'read', 'take', 'teach', 'instruct', 'determine', 'check', 'ascertain', 'watch'], ['christian', 'Christian'], ['literature', 'lit'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['theology', 'divinity', 'theological_system']]</t>
+  </si>
+  <si>
+    <t>[['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['management', 'direction']]</t>
+  </si>
+  <si>
+    <t>[['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['interpersonal'], ['conflict', 'struggle', 'battle', 'fight', 'engagement', 'dispute', 'difference', 'difference_of_opinion', 'run_afoul', 'infringe', 'contravene'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['cycle', 'rhythm', 'round', 'hertz', 'Hz', 'cycle_per_second', 'cycles/second', 'cps', 'oscillation', 'bicycle', 'bike', 'wheel', 'motorbike', 'motorcycle', 'pedal'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind']]</t>
+  </si>
+  <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['men', 'work_force', 'workforce', 'manpower', 'hands', 'man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['identity', 'personal_identity', 'individuality', 'identity_element', 'identity_operator', 'identicalness', 'indistinguishability'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -199,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,14 +253,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -343,7 +299,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -375,27 +331,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -427,24 +365,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -620,42 +540,42 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="3" max="3" width="35.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.6640625" customWidth="1"/>
-    <col min="5" max="7" width="100.77734375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" customWidth="1"/>
+    <col min="4" max="4" width="7.7109375" customWidth="1"/>
+    <col min="5" max="5" width="111.7109375" customWidth="1"/>
+    <col min="6" max="6" width="100.7109375" customWidth="1"/>
+    <col min="7" max="7" width="1298.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -663,22 +583,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -686,22 +606,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="G3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -709,22 +629,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -732,22 +652,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -755,22 +675,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -778,22 +698,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -801,22 +721,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -824,22 +744,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -847,65 +767,19 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>31</v>
-      </c>
-      <c r="F12" t="s">
         <v>41</v>
-      </c>
-      <c r="G12" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -7,139 +7,154 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="991001094847204574" sheetId="1" r:id="rId1"/>
+    <sheet name="991000001799704574" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
-  <si>
-    <t>991001094847204574</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
+  <si>
+    <t>991000001799704574</t>
+  </si>
+  <si>
+    <t>991000254419704574</t>
+  </si>
+  <si>
+    <t>991000121389704574</t>
   </si>
   <si>
     <t>991000252139704574</t>
   </si>
   <si>
-    <t>991000248959704574</t>
-  </si>
-  <si>
-    <t>991000099489704574</t>
-  </si>
-  <si>
-    <t>991000054469704574</t>
-  </si>
-  <si>
-    <t>991000360649704574</t>
-  </si>
-  <si>
-    <t>991000111639704574</t>
-  </si>
-  <si>
-    <t>991000243739704574</t>
-  </si>
-  <si>
-    <t>991000426459704574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Children's edition of touching incidents and remarkable Answers to prayer </t>
+    <t>991000601979704574</t>
+  </si>
+  <si>
+    <t>991000050149704574</t>
+  </si>
+  <si>
+    <t>991000364949704574</t>
+  </si>
+  <si>
+    <t>991000250179704574</t>
+  </si>
+  <si>
+    <t>991000117479704574</t>
+  </si>
+  <si>
+    <t>991000576909704574</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love and sex after 60 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex, dating, and love </t>
+  </si>
+  <si>
+    <t>The sacred and profane love machine</t>
   </si>
   <si>
     <t xml:space="preserve">Free to love again </t>
   </si>
   <si>
-    <t xml:space="preserve">To mother with love </t>
-  </si>
-  <si>
-    <t xml:space="preserve">A light in the window </t>
-  </si>
-  <si>
-    <t>The love of learning and the desire for God</t>
-  </si>
-  <si>
-    <t xml:space="preserve">First things first </t>
-  </si>
-  <si>
-    <t xml:space="preserve">When families fight </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anthem </t>
+    <t xml:space="preserve">Middlemarch </t>
+  </si>
+  <si>
+    <t>Dangerous men &amp; adventurous women</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Double-header </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Disney's Beauty and the beast </t>
+  </si>
+  <si>
+    <t>Disney's Beauty and the beast</t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>['Christian life', 'Prayer', 'Children', 'Salvation', 'Christian life.', 'Children', 'Salvation.', 'Prayer.']</t>
+    <t>['Sex instruction for older people.', 'Older people', 'Love in old age.']</t>
+  </si>
+  <si>
+    <t>['Dating (Social customs)', 'Love.', 'Sex.']</t>
+  </si>
+  <si>
+    <t>['Man-woman relationships', 'Married people']</t>
   </si>
   <si>
     <t>['Sex', 'Christian life.']</t>
   </si>
   <si>
-    <t>['Christian poetry, American.', 'Poetry.']</t>
-  </si>
-  <si>
-    <t>['City and town life', 'Christian fiction.', 'Domestic fiction.']</t>
-  </si>
-  <si>
-    <t>['Monasticism and religious orders', 'Learning and scholarship', 'Christian literature, Early', 'Theology']</t>
-  </si>
-  <si>
-    <t>['Conduct of life.', 'Time management.']</t>
-  </si>
-  <si>
-    <t>['Family', 'Interpersonal conflict.', 'Life cycle, Human']</t>
-  </si>
-  <si>
-    <t>['Man-woman relationships', 'Men', 'Individuality', 'Time travel']</t>
-  </si>
-  <si>
-    <t>['christian', 'life', 'prayer', 'children', 'salvation']</t>
+    <t>['English.', 'City and town life', 'Married people', 'Young women', 'City and town life', 'Married people', 'Young women']</t>
+  </si>
+  <si>
+    <t>['Love stories, American', 'Women', 'Authors and readers', 'Love stories', 'Sex role in literature.']</t>
+  </si>
+  <si>
+    <t>['Monsters', 'Baseball', 'Early childhood education.', "Children's stories."]</t>
+  </si>
+  <si>
+    <t>['Early childhood education.', "Children's stories.", 'Fairy tales.', 'Folklore']</t>
+  </si>
+  <si>
+    <t>['Folklore.', 'Fairy tales.', 'Early childhood education.', "Children's stories."]</t>
+  </si>
+  <si>
+    <t>['sex', 'instruction', 'older', 'people', 'love', 'age']</t>
+  </si>
+  <si>
+    <t>['dating', 'social', 'customs', 'love', 'sex']</t>
+  </si>
+  <si>
+    <t>['man', 'woman', 'relationships', 'married', 'people']</t>
   </si>
   <si>
     <t>['sex', 'christian', 'life']</t>
   </si>
   <si>
-    <t>['christian', 'poetry', 'american']</t>
-  </si>
-  <si>
-    <t>['city', 'town', 'life', 'christian', 'fiction', 'domestic']</t>
-  </si>
-  <si>
-    <t>['monasticism', 'religious', 'orders', 'learning', 'christian', 'literature', 'early', 'theology']</t>
-  </si>
-  <si>
-    <t>['conduct', 'life', 'time', 'management']</t>
-  </si>
-  <si>
-    <t>['family', 'interpersonal', 'conflict', 'life', 'cycle', 'human']</t>
-  </si>
-  <si>
-    <t>['man', 'woman', 'relationships', 'men', 'individuality', 'time', 'travel']</t>
-  </si>
-  <si>
-    <t>[['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['prayer', 'supplication', 'petition', 'orison', 'entreaty', 'appeal', 'supplicant'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['salvation', 'redemption']]</t>
+    <t>['english', 'city', 'town', 'life', 'married', 'people', 'young', 'women']</t>
+  </si>
+  <si>
+    <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
+  </si>
+  <si>
+    <t>['monsters', 'baseball', 'early', 'childhood', 'education', 'children', 'stories']</t>
+  </si>
+  <si>
+    <t>['early', 'childhood', 'education', 'children', 'stories', 'fairy', 'tales', 'folklore']</t>
+  </si>
+  <si>
+    <t>['folklore', 'fairy', 'tales', 'early', 'childhood', 'education', 'children', 'stories']</t>
+  </si>
+  <si>
+    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['older', 'aged', 'elderly', 'senior', 'elder', 'sr.', 'old', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['age', 'historic_period', 'eld', 'long_time', 'years', 'old_age', 'geezerhood', 'senesce', 'get_on', 'mature', 'maturate']]</t>
+  </si>
+  <si>
+    <t>[['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
+  </si>
+  <si>
+    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed']]</t>
   </si>
   <si>
     <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence']]</t>
   </si>
   <si>
-    <t>[['christian', 'Christian'], ['poetry', 'poesy', 'verse'], ['american', 'American', 'American_English', 'American_language']]</t>
-  </si>
-  <si>
-    <t>[['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['christian', 'Christian'], ['fiction', 'fabrication', 'fable'], ['domestic', 'domestic_help', 'house_servant', 'domesticated']]</t>
-  </si>
-  <si>
-    <t>[['monasticism'], ['religious', 'spiritual'], ['orders', 'order', 'order_of_magnitude', 'ordering', 'ordination', 'orderliness', 'decree', 'edict', 'fiat', 'rescript', 'purchase_order', 'club', 'social_club', 'society', 'guild', 'gild', 'lodge', 'rules_of_order', 'parliamentary_law', 'parliamentary_procedure', 'Holy_Order', 'Order', 'monastic_order', 'tell', 'enjoin', 'say', 'prescribe', 'dictate', 'regulate', 'regularize', 'regularise', 'govern', 'ordain', 'consecrate', 'ordinate', 'arrange', 'set_up', 'put', 'rate', 'rank', 'range', 'grade', 'place'], ['learning', 'acquisition', 'eruditeness', 'erudition', 'learnedness', 'scholarship', 'encyclopedism', 'encyclopaedism', 'learn', 'larn', 'acquire', 'hear', 'get_word', 'get_wind', 'pick_up', 'find_out', 'get_a_line', 'discover', 'see', 'memorize', 'memorise', 'con', 'study', 'read', 'take', 'teach', 'instruct', 'determine', 'check', 'ascertain', 'watch'], ['christian', 'Christian'], ['literature', 'lit'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['theology', 'divinity', 'theological_system']]</t>
-  </si>
-  <si>
-    <t>[['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['management', 'direction']]</t>
-  </si>
-  <si>
-    <t>[['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home'], ['interpersonal'], ['conflict', 'struggle', 'battle', 'fight', 'engagement', 'dispute', 'difference', 'difference_of_opinion', 'run_afoul', 'infringe', 'contravene'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['cycle', 'rhythm', 'round', 'hertz', 'Hz', 'cycle_per_second', 'cycles/second', 'cps', 'oscillation', 'bicycle', 'bike', 'wheel', 'motorbike', 'motorcycle', 'pedal'], ['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind']]</t>
-  </si>
-  <si>
-    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['men', 'work_force', 'workforce', 'manpower', 'hands', 'man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['identity', 'personal_identity', 'individuality', 'identity_element', 'identity_operator', 'identicalness', 'indistinguishability'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['travel', 'traveling', 'travelling', 'change_of_location', 'locomotion', 'go', 'move', 'locomote', 'journey', 'trip', 'jaunt', 'move_around']]</t>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['monsters', 'monster', 'giant', 'goliath', 'behemoth', 'colossus', 'freak', 'monstrosity', 'lusus_naturae', 'fiend', 'devil', 'demon', 'ogre', 'teras'], ['baseball', 'baseball_game'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['folklore']]</t>
+  </si>
+  <si>
+    <t>[['folklore'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -154,7 +169,10 @@
     <t>Original Topics</t>
   </si>
   <si>
-    <t>Topics</t>
+    <t>Normalized Topics</t>
+  </si>
+  <si>
+    <t>Reduced Topics</t>
   </si>
   <si>
     <t>Synonyms</t>
@@ -541,41 +559,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="76.7109375" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="111.7109375" customWidth="1"/>
-    <col min="6" max="6" width="100.7109375" customWidth="1"/>
-    <col min="7" max="7" width="1298.7109375" customWidth="1"/>
+    <col min="5" max="5" width="124.7109375" customWidth="1"/>
+    <col min="6" max="6" width="93.7109375" customWidth="1"/>
+    <col min="7" max="7" width="93.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1229.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1">
+        <v>52</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="2" customFormat="1">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -583,22 +605,25 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -606,22 +631,25 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -629,22 +657,25 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -652,22 +683,25 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>32</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -675,22 +709,25 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6">
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>33</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -698,22 +735,25 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="H7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -721,22 +761,25 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D8">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>31</v>
-      </c>
       <c r="G8" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>34</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -744,22 +787,25 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>35</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -767,19 +813,48 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11">
+        <v>23</v>
+      </c>
+      <c r="E11" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -7,154 +7,220 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="991000001799704574" sheetId="1" r:id="rId1"/>
+    <sheet name="99155559305803941" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
-  <si>
-    <t>991000001799704574</t>
-  </si>
-  <si>
-    <t>991000254419704574</t>
-  </si>
-  <si>
-    <t>991000121389704574</t>
-  </si>
-  <si>
-    <t>991000252139704574</t>
-  </si>
-  <si>
-    <t>991000601979704574</t>
-  </si>
-  <si>
-    <t>991000050149704574</t>
-  </si>
-  <si>
-    <t>991000364949704574</t>
-  </si>
-  <si>
-    <t>991000250179704574</t>
-  </si>
-  <si>
-    <t>991000117479704574</t>
-  </si>
-  <si>
-    <t>991000576909704574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love and sex after 60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex, dating, and love </t>
-  </si>
-  <si>
-    <t>The sacred and profane love machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free to love again </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middlemarch </t>
-  </si>
-  <si>
-    <t>Dangerous men &amp; adventurous women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double-header </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disney's Beauty and the beast </t>
-  </si>
-  <si>
-    <t>Disney's Beauty and the beast</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
+  <si>
+    <t>99155559305803941</t>
+  </si>
+  <si>
+    <t>99155559167503941</t>
+  </si>
+  <si>
+    <t>99155558791603941</t>
+  </si>
+  <si>
+    <t>99155558321503941</t>
+  </si>
+  <si>
+    <t>99155558849903941</t>
+  </si>
+  <si>
+    <t>99155558656303941</t>
+  </si>
+  <si>
+    <t>99155558713603941</t>
+  </si>
+  <si>
+    <t>99155558316903941</t>
+  </si>
+  <si>
+    <t>99155558304803941</t>
+  </si>
+  <si>
+    <t>99155559456703941</t>
+  </si>
+  <si>
+    <t>99155558597703941</t>
+  </si>
+  <si>
+    <t>99155558564803941</t>
+  </si>
+  <si>
+    <t>99155558939603941</t>
+  </si>
+  <si>
+    <t>99155558492803941</t>
+  </si>
+  <si>
+    <t>99155559126103941</t>
+  </si>
+  <si>
+    <t>99155558965603941</t>
+  </si>
+  <si>
+    <t>99155558145203941</t>
+  </si>
+  <si>
+    <t>990110696010203941</t>
+  </si>
+  <si>
+    <t>99155558164503941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The crown of success, or, Four heads to furnish </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Worth, not wealth </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Industry and perseverance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bold as a lion and other stories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bessie and Tom, or, Perseverance rewarded </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jack the conqueror, or, Overcoming difficulties </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Persevere and prosper, or, Fanny and Arthur </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New stories suggested by old rhymes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">No and other stories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The economy of human life </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Try again, or, The trials and triumphs of Harry West </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Little-basket-maker, and other tales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willie wishing to be useful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stories of colonial children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical tales of illustrious British children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As we sweep through the deep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our folks at home, or, life at the old manor house </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Greek children </t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>['Sex instruction for older people.', 'Older people', 'Love in old age.']</t>
-  </si>
-  <si>
-    <t>['Dating (Social customs)', 'Love.', 'Sex.']</t>
-  </si>
-  <si>
-    <t>['Man-woman relationships', 'Married people']</t>
-  </si>
-  <si>
-    <t>['Sex', 'Christian life.']</t>
-  </si>
-  <si>
-    <t>['English.', 'City and town life', 'Married people', 'Young women', 'City and town life', 'Married people', 'Young women']</t>
-  </si>
-  <si>
-    <t>['Love stories, American', 'Women', 'Authors and readers', 'Love stories', 'Sex role in literature.']</t>
-  </si>
-  <si>
-    <t>['Monsters', 'Baseball', 'Early childhood education.', "Children's stories."]</t>
-  </si>
-  <si>
-    <t>['Early childhood education.', "Children's stories.", 'Fairy tales.', 'Folklore']</t>
-  </si>
-  <si>
-    <t>['Folklore.', 'Fairy tales.', 'Early childhood education.', "Children's stories."]</t>
-  </si>
-  <si>
-    <t>['sex', 'instruction', 'older', 'people', 'love', 'age']</t>
-  </si>
-  <si>
-    <t>['dating', 'social', 'customs', 'love', 'sex']</t>
-  </si>
-  <si>
-    <t>['man', 'woman', 'relationships', 'married', 'people']</t>
-  </si>
-  <si>
-    <t>['sex', 'christian', 'life']</t>
-  </si>
-  <si>
-    <t>['english', 'city', 'town', 'life', 'married', 'people', 'young', 'women']</t>
-  </si>
-  <si>
-    <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
-  </si>
-  <si>
-    <t>['monsters', 'baseball', 'early', 'childhood', 'education', 'children', 'stories']</t>
-  </si>
-  <si>
-    <t>['early', 'childhood', 'education', 'children', 'stories', 'fairy', 'tales', 'folklore']</t>
-  </si>
-  <si>
-    <t>['folklore', 'fairy', 'tales', 'early', 'childhood', 'education', 'children', 'stories']</t>
-  </si>
-  <si>
-    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['older', 'aged', 'elderly', 'senior', 'elder', 'sr.', 'old', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['age', 'historic_period', 'eld', 'long_time', 'years', 'old_age', 'geezerhood', 'senesce', 'get_on', 'mature', 'maturate']]</t>
-  </si>
-  <si>
-    <t>[['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
-  </si>
-  <si>
-    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed']]</t>
-  </si>
-  <si>
-    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
-  </si>
-  <si>
-    <t>[['monsters', 'monster', 'giant', 'goliath', 'behemoth', 'colossus', 'freak', 'monstrosity', 'lusus_naturae', 'fiend', 'devil', 'demon', 'ogre', 'teras'], ['baseball', 'baseball_game'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
-    <t>[['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['folklore']]</t>
-  </si>
-  <si>
-    <t>[['folklore'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+    <t>['Children', 'Conduct of life', 'Learning', 'Games', 'Courage', 'Perseverance (Ethics)', 'Kindness']</t>
+  </si>
+  <si>
+    <t>['Children', 'Conduct of life', 'School children', 'Perseverance (Ethics)']</t>
+  </si>
+  <si>
+    <t>['Orphans', 'Children', 'Conduct of life', 'Perseverance (Ethics)']</t>
+  </si>
+  <si>
+    <t>['Children', 'Conduct of life', 'Courage', 'Theft', 'Ethics']</t>
+  </si>
+  <si>
+    <t>['Brothers and sisters', 'Christian life', 'Children', 'Conduct of life', 'Perseverance (Ethics)']</t>
+  </si>
+  <si>
+    <t>['Children', 'Conduct of life', 'Perseverance (Ethics)', 'Diligence', 'Success', "Children's stories"]</t>
+  </si>
+  <si>
+    <t>['Children', 'Conduct of life', 'Perseverance (Ethics)', 'Success', 'Brothers and sisters']</t>
+  </si>
+  <si>
+    <t>['Conduct of life']</t>
+  </si>
+  <si>
+    <t>['Perseverance (Ethics)', 'Orphans', 'Success', 'Poverty', 'Inheritance and succession']</t>
+  </si>
+  <si>
+    <t>['Children']</t>
+  </si>
+  <si>
+    <t>['children', 'conduct', 'life', 'learning', 'games', 'courage', 'perseverance', 'ethics', 'kindness']</t>
+  </si>
+  <si>
+    <t>['children', 'conduct', 'life', 'school', 'perseverance', 'ethics']</t>
+  </si>
+  <si>
+    <t>['orphans', 'children', 'conduct', 'life', 'perseverance', 'ethics']</t>
+  </si>
+  <si>
+    <t>['children', 'conduct', 'life', 'courage', 'theft', 'ethics']</t>
+  </si>
+  <si>
+    <t>['brothers', 'sisters', 'christian', 'life', 'children', 'conduct', 'perseverance', 'ethics']</t>
+  </si>
+  <si>
+    <t>['children', 'conduct', 'life', 'perseverance', 'ethics', 'diligence', 'success', 'stories']</t>
+  </si>
+  <si>
+    <t>['children', 'conduct', 'life', 'perseverance', 'ethics', 'success', 'brothers', 'sisters']</t>
+  </si>
+  <si>
+    <t>['conduct', 'life']</t>
+  </si>
+  <si>
+    <t>['perseverance', 'ethics', 'orphans', 'success', 'poverty', 'inheritance', 'succession']</t>
+  </si>
+  <si>
+    <t>['children']</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['learning', 'acquisition', 'eruditeness', 'erudition', 'learnedness', 'scholarship', 'encyclopedism', 'encyclopaedism', 'learn', 'larn', 'acquire', 'hear', 'get_word', 'get_wind', 'pick_up', 'find_out', 'get_a_line', 'discover', 'see', 'memorize', 'memorise', 'con', 'study', 'read', 'take', 'teach', 'instruct', 'determine', 'check', 'ascertain', 'watch'], ['games', 'game', 'plot', 'secret_plan', 'biz', 'bet_on', 'back', 'gage', 'stake', 'punt'], ['courage', 'courageousness', 'bravery', 'braveness'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code'], ['kindness', 'forgivingness', 'benignity']]</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code']]</t>
+  </si>
+  <si>
+    <t>[['orphans', 'orphan'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code']]</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['courage', 'courageousness', 'bravery', 'braveness'], ['theft', 'larceny', 'thievery', 'thieving', 'stealing'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code']]</t>
+  </si>
+  <si>
+    <t>[['brothers', 'brother', 'blood_brother', 'buddy', 'chum', 'crony', 'pal', 'sidekick', 'comrade', 'Brother'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe'], ['christian', 'Christian'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code']]</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code'], ['industry', 'manufacture', 'diligence', 'industriousness'], ['success', 'achiever', 'winner', 'succeeder'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code'], ['success', 'achiever', 'winner', 'succeeder'], ['brothers', 'brother', 'blood_brother', 'buddy', 'chum', 'crony', 'pal', 'sidekick', 'comrade', 'Brother'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe']]</t>
+  </si>
+  <si>
+    <t>[['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi']]</t>
+  </si>
+  <si>
+    <t>[['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code'], ['orphans', 'orphan'], ['success', 'achiever', 'winner', 'succeeder'], ['poverty', 'poorness', 'impoverishment'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over']]</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -559,42 +625,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="55.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="124.7109375" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" customWidth="1"/>
-    <col min="7" max="7" width="93.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1229.7109375" customWidth="1"/>
+    <col min="5" max="5" width="104.7109375" customWidth="1"/>
+    <col min="6" max="6" width="103.7109375" customWidth="1"/>
+    <col min="7" max="7" width="103.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1270.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1">
@@ -605,22 +671,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -631,22 +697,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>40</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -657,22 +723,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -683,22 +749,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D5">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
         <v>42</v>
       </c>
-      <c r="E5" t="s">
-        <v>23</v>
-      </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -709,22 +775,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D6">
         <v>37</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -735,22 +801,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D7">
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -761,22 +827,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -787,22 +853,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -813,22 +879,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -839,22 +905,256 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" t="s">
+        <v>58</v>
+      </c>
+      <c r="H13" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>58</v>
+      </c>
+      <c r="H16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" t="s">
+        <v>58</v>
+      </c>
+      <c r="G18" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" t="s">
+        <v>58</v>
+      </c>
+      <c r="H19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="D11">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
         <v>37</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
+      <c r="D20">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -7,154 +7,199 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="991000001799704574" sheetId="1" r:id="rId1"/>
+    <sheet name="99153832509803941" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="54">
-  <si>
-    <t>991000001799704574</t>
-  </si>
-  <si>
-    <t>991000254419704574</t>
-  </si>
-  <si>
-    <t>991000121389704574</t>
-  </si>
-  <si>
-    <t>991000252139704574</t>
-  </si>
-  <si>
-    <t>991000601979704574</t>
-  </si>
-  <si>
-    <t>991000050149704574</t>
-  </si>
-  <si>
-    <t>991000364949704574</t>
-  </si>
-  <si>
-    <t>991000250179704574</t>
-  </si>
-  <si>
-    <t>991000117479704574</t>
-  </si>
-  <si>
-    <t>991000576909704574</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Love and sex after 60 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sex, dating, and love </t>
-  </si>
-  <si>
-    <t>The sacred and profane love machine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Free to love again </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Middlemarch </t>
-  </si>
-  <si>
-    <t>Dangerous men &amp; adventurous women</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Double-header </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Disney's Beauty and the beast </t>
-  </si>
-  <si>
-    <t>Disney's Beauty and the beast</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+  <si>
+    <t>99153832509803941</t>
+  </si>
+  <si>
+    <t>990151685350203941</t>
+  </si>
+  <si>
+    <t>99153810479603941</t>
+  </si>
+  <si>
+    <t>990039859500203941</t>
+  </si>
+  <si>
+    <t>99153858706103941</t>
+  </si>
+  <si>
+    <t>990151683810203941</t>
+  </si>
+  <si>
+    <t>990151685460203941</t>
+  </si>
+  <si>
+    <t>990151729200203941</t>
+  </si>
+  <si>
+    <t>990147191860203941</t>
+  </si>
+  <si>
+    <t>990147191950203941</t>
+  </si>
+  <si>
+    <t>990146404780203941</t>
+  </si>
+  <si>
+    <t>99155558556203941</t>
+  </si>
+  <si>
+    <t>990139226820203941</t>
+  </si>
+  <si>
+    <t>990140074040203941</t>
+  </si>
+  <si>
+    <t>990133446620203941</t>
+  </si>
+  <si>
+    <t>990148379650203941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watchtower </t>
+  </si>
+  <si>
+    <t>Sky island</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ojo in Oz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Wizard of Oz &amp; who he was </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The lost king of Oz </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Hidden Valley of Oz </t>
+  </si>
+  <si>
+    <t>Dorothy and the Wizard in Oz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sea fairies </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The silver gryphon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Storm breaking </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The white gryphon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stories of adventure </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eric </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gullivers' travels, and other writings </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blade of fire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barefoot in the head </t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>['Sex instruction for older people.', 'Older people', 'Love in old age.']</t>
-  </si>
-  <si>
-    <t>['Dating (Social customs)', 'Love.', 'Sex.']</t>
-  </si>
-  <si>
-    <t>['Man-woman relationships', 'Married people']</t>
-  </si>
-  <si>
-    <t>['Sex', 'Christian life.']</t>
-  </si>
-  <si>
-    <t>['English.', 'City and town life', 'Married people', 'Young women', 'City and town life', 'Married people', 'Young women']</t>
-  </si>
-  <si>
-    <t>['Love stories, American', 'Women', 'Authors and readers', 'Love stories', 'Sex role in literature.']</t>
-  </si>
-  <si>
-    <t>['Monsters', 'Baseball', 'Early childhood education.', "Children's stories."]</t>
-  </si>
-  <si>
-    <t>['Early childhood education.', "Children's stories.", 'Fairy tales.', 'Folklore']</t>
-  </si>
-  <si>
-    <t>['Folklore.', 'Fairy tales.', 'Early childhood education.', "Children's stories."]</t>
-  </si>
-  <si>
-    <t>['sex', 'instruction', 'older', 'people', 'love', 'age']</t>
-  </si>
-  <si>
-    <t>['dating', 'social', 'customs', 'love', 'sex']</t>
-  </si>
-  <si>
-    <t>['man', 'woman', 'relationships', 'married', 'people']</t>
-  </si>
-  <si>
-    <t>['sex', 'christian', 'life']</t>
-  </si>
-  <si>
-    <t>['english', 'city', 'town', 'life', 'married', 'people', 'young', 'women']</t>
-  </si>
-  <si>
-    <t>['love', 'stories', 'american', 'women', 'authors', 'readers', 'sex', 'role', 'literature']</t>
-  </si>
-  <si>
-    <t>['monsters', 'baseball', 'early', 'childhood', 'education', 'children', 'stories']</t>
-  </si>
-  <si>
-    <t>['early', 'childhood', 'education', 'children', 'stories', 'fairy', 'tales', 'folklore']</t>
-  </si>
-  <si>
-    <t>['folklore', 'fairy', 'tales', 'early', 'childhood', 'education', 'children', 'stories']</t>
-  </si>
-  <si>
-    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['older', 'aged', 'elderly', 'senior', 'elder', 'sr.', 'old', 'erstwhile', 'former', 'onetime', 'one-time', 'quondam', 'sometime', 'honest-to-god', 'honest-to-goodness', 'sure-enough', 'Old', 'previous'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['age', 'historic_period', 'eld', 'long_time', 'years', 'old_age', 'geezerhood', 'senesce', 'get_on', 'mature', 'maturate']]</t>
-  </si>
-  <si>
-    <t>[['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
-  </si>
-  <si>
-    <t>[['man', 'adult_male', 'serviceman', 'military_man', 'military_personnel', 'homo', 'human_being', 'human', 'valet', 'valet_de_chambre', 'gentleman', "gentleman's_gentleman", 'Man', 'Isle_of_Man', 'piece', 'world', 'human_race', 'humanity', 'humankind', 'human_beings', 'humans', 'mankind'], ['woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['relationships', 'relationship', 'human_relationship', 'kinship', 'family_relationship'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed']]</t>
-  </si>
-  <si>
-    <t>[['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['christian', 'Christian'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence']]</t>
-  </si>
-  <si>
-    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['city', 'metropolis', 'urban_center'], ['town', 'townspeople', 'townsfolk', 'township', 'Town', 'Ithiel_Town'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['married', 'marry', 'get_married', 'wed', 'conjoin', 'hook_up_with', 'get_hitched_with', 'espouse', 'tie', 'splice', 'marital', 'matrimonial'], ['people', 'citizenry', 'multitude', 'masses', 'mass', 'hoi_polloi', 'the_great_unwashed'], ['youth', 'young_person', 'younker', 'spring_chicken', 'young', 'early_days', 'youthfulness', 'juvenility'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex']]</t>
-  </si>
-  <si>
-    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['american', 'American', 'American_English', 'American_language'], ['women', 'woman', 'adult_female', 'charwoman', 'char', 'cleaning_woman', 'cleaning_lady', 'womanhood', 'fair_sex'], ['authors', 'writer', 'author', 'generator', 'source'], ['readers', 'reader', 'subscriber', 'reviewer', 'referee', 'proofreader', 'lector', 'lecturer'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up'], ['role', 'function', 'office', 'part', 'character', 'theatrical_role', 'persona', 'purpose', 'use'], ['literature', 'lit']]</t>
-  </si>
-  <si>
-    <t>[['monsters', 'monster', 'giant', 'goliath', 'behemoth', 'colossus', 'freak', 'monstrosity', 'lusus_naturae', 'fiend', 'devil', 'demon', 'ogre', 'teras'], ['baseball', 'baseball_game'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
-    <t>[['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['folklore']]</t>
-  </si>
-  <si>
-    <t>[['folklore'], ['fairy', 'faery', 'faerie', 'fay', 'sprite', 'fagot', 'faggot', 'fag', 'nance', 'pansy', 'queen', 'queer', 'poof', 'poove', 'pouf'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['early', 'former', 'other', 'early_on', 'ahead_of_time', 'too_soon', 'betimes'], ['childhood', 'puerility'], ['instruction', 'direction', 'education', 'teaching', 'pedagogy', 'didactics', 'educational_activity', 'command', 'statement', 'program_line'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+    <t>['Imaginary places', 'Imaginary places']</t>
+  </si>
+  <si>
+    <t>['Fantasy', 'Imaginary places', 'Fantasy', 'Imaginary places.']</t>
+  </si>
+  <si>
+    <t>['Oz (Imaginary place)', 'Oz (Imaginary place)']</t>
+  </si>
+  <si>
+    <t>['Oz (Imaginary place)']</t>
+  </si>
+  <si>
+    <t>['Valdemar (Imaginary place)', 'Valdemar (Imaginary place)']</t>
+  </si>
+  <si>
+    <t>['Voyages, Imaginary']</t>
+  </si>
+  <si>
+    <t>['Discworld (Imaginary place)']</t>
+  </si>
+  <si>
+    <t>['Voyages, Imaginary', 'Travelers']</t>
+  </si>
+  <si>
+    <t>['Imaginary wars and battles', 'Imaginary wars and battles', 'Fantasy.']</t>
+  </si>
+  <si>
+    <t>['Imaginary wars and battles', 'Imaginary wars and battles']</t>
+  </si>
+  <si>
+    <t>['imaginary', 'places']</t>
+  </si>
+  <si>
+    <t>['fantasy', 'imaginary', 'places']</t>
+  </si>
+  <si>
+    <t>['oz', 'imaginary', 'place']</t>
+  </si>
+  <si>
+    <t>['valdemar', 'imaginary', 'place']</t>
+  </si>
+  <si>
+    <t>['voyages', 'imaginary']</t>
+  </si>
+  <si>
+    <t>['discworld', 'imaginary', 'place']</t>
+  </si>
+  <si>
+    <t>['voyages', 'imaginary', 'travelers']</t>
+  </si>
+  <si>
+    <t>['imaginary', 'wars', 'battles', 'fantasy']</t>
+  </si>
+  <si>
+    <t>['imaginary', 'wars', 'battles']</t>
+  </si>
+  <si>
+    <t>[['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['places', 'topographic_point', 'place', 'spot', 'property', 'stead', 'position', 'lieu', 'shoes', 'home', 'post', 'berth', 'office', 'billet', 'situation', 'station', 'seat', 'plaza', 'piazza', 'space', 'blank_space', 'put', 'set', 'pose', 'lay', 'rate', 'rank', 'range', 'order', 'grade', 'locate', 'site', 'come_in', 'come_out', 'target', 'aim', 'direct', 'point', 'identify', 'localize', 'localise', 'invest', 'commit', 'send']]</t>
+  </si>
+  <si>
+    <t>[['fantasy', 'phantasy', 'illusion', 'fancy', 'fantasize', 'fantasise'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['places', 'topographic_point', 'place', 'spot', 'property', 'stead', 'position', 'lieu', 'shoes', 'home', 'post', 'berth', 'office', 'billet', 'situation', 'station', 'seat', 'plaza', 'piazza', 'space', 'blank_space', 'put', 'set', 'pose', 'lay', 'rate', 'rank', 'range', 'order', 'grade', 'locate', 'site', 'come_in', 'come_out', 'target', 'aim', 'direct', 'point', 'identify', 'localize', 'localise', 'invest', 'commit', 'send']]</t>
+  </si>
+  <si>
+    <t>[['oz'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['stations', 'Stations', 'Stations_of_the_Cross', 'station', 'place', 'post', 'send']]</t>
+  </si>
+  <si>
+    <t>[['valdemar'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home']]</t>
+  </si>
+  <si>
+    <t>[['valdemar'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['stations', 'Stations', 'Stations_of_the_Cross', 'station', 'place', 'post', 'send']]</t>
+  </si>
+  <si>
+    <t>[['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional']]</t>
+  </si>
+  <si>
+    <t>[['discworld'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['stations', 'Stations', 'Stations_of_the_Cross', 'station', 'place', 'post', 'send']]</t>
+  </si>
+  <si>
+    <t>[['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['travelers', 'traveler', 'traveller']]</t>
+  </si>
+  <si>
+    <t>[['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['wars', 'war', 'warfare', 'state_of_war'], ['battles', 'battle', 'conflict', 'fight', 'engagement', 'struggle', 'combat'], ['fantasy', 'phantasy', 'illusion', 'fancy', 'fantasize', 'fantasise']]</t>
+  </si>
+  <si>
+    <t>[['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['wars', 'war', 'warfare', 'state_of_war'], ['battles', 'battle', 'conflict', 'fight', 'engagement', 'struggle', 'combat']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -559,42 +604,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="124.7109375" customWidth="1"/>
-    <col min="6" max="6" width="93.7109375" customWidth="1"/>
-    <col min="7" max="7" width="93.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1229.7109375" customWidth="1"/>
+    <col min="5" max="5" width="74.7109375" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="8" max="8" width="604.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>64</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>51</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>53</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1">
@@ -605,22 +650,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -631,22 +676,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D3">
-        <v>51</v>
+        <v>85</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -657,22 +702,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -683,22 +728,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D5">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -709,22 +754,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -735,22 +780,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -761,22 +806,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -787,22 +832,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D9">
-        <v>27</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -813,22 +858,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -839,22 +884,178 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12">
+        <v>57</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13">
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" t="s">
+        <v>47</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
       </c>
-      <c r="F11" t="s">
+      <c r="D14">
+        <v>56</v>
+      </c>
+      <c r="E14" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+      <c r="H14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15">
+        <v>45</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+      <c r="H15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H16" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17">
         <v>37</v>
       </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>46</v>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+      <c r="H17" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -7,220 +7,280 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="99155559305803941" sheetId="1" r:id="rId1"/>
+    <sheet name="991000329829704574" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="76">
-  <si>
-    <t>99155559305803941</t>
-  </si>
-  <si>
-    <t>99155559167503941</t>
-  </si>
-  <si>
-    <t>99155558791603941</t>
-  </si>
-  <si>
-    <t>99155558321503941</t>
-  </si>
-  <si>
-    <t>99155558849903941</t>
-  </si>
-  <si>
-    <t>99155558656303941</t>
-  </si>
-  <si>
-    <t>99155558713603941</t>
-  </si>
-  <si>
-    <t>99155558316903941</t>
-  </si>
-  <si>
-    <t>99155558304803941</t>
-  </si>
-  <si>
-    <t>99155559456703941</t>
-  </si>
-  <si>
-    <t>99155558597703941</t>
-  </si>
-  <si>
-    <t>99155558564803941</t>
-  </si>
-  <si>
-    <t>99155558939603941</t>
-  </si>
-  <si>
-    <t>99155558492803941</t>
-  </si>
-  <si>
-    <t>99155559126103941</t>
-  </si>
-  <si>
-    <t>99155558965603941</t>
-  </si>
-  <si>
-    <t>99155558145203941</t>
-  </si>
-  <si>
-    <t>990110696010203941</t>
-  </si>
-  <si>
-    <t>99155558164503941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The crown of success, or, Four heads to furnish </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Worth, not wealth </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Industry and perseverance </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bold as a lion and other stories </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bessie and Tom, or, Perseverance rewarded </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jack the conqueror, or, Overcoming difficulties </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Persevere and prosper, or, Fanny and Arthur </t>
-  </si>
-  <si>
-    <t xml:space="preserve">New stories suggested by old rhymes </t>
-  </si>
-  <si>
-    <t xml:space="preserve">No and other stories </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The economy of human life </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Try again, or, The trials and triumphs of Harry West </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Little-basket-maker, and other tales </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Willie wishing to be useful </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stories of colonial children </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Historical tales of illustrious British children </t>
-  </si>
-  <si>
-    <t xml:space="preserve">As we sweep through the deep </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Our folks at home, or, life at the old manor house </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bambina </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Three Greek children </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="96">
+  <si>
+    <t>991000329829704574</t>
+  </si>
+  <si>
+    <t>991000202639704574</t>
+  </si>
+  <si>
+    <t>991000070059704574</t>
+  </si>
+  <si>
+    <t>991000383989704574</t>
+  </si>
+  <si>
+    <t>991000211589704574</t>
+  </si>
+  <si>
+    <t>991000250779704574</t>
+  </si>
+  <si>
+    <t>991000661829704574</t>
+  </si>
+  <si>
+    <t>991000396619704574</t>
+  </si>
+  <si>
+    <t>991000084539704574</t>
+  </si>
+  <si>
+    <t>991000451399704574</t>
+  </si>
+  <si>
+    <t>991000249599704574</t>
+  </si>
+  <si>
+    <t>991000252329704574</t>
+  </si>
+  <si>
+    <t>991000244239704574</t>
+  </si>
+  <si>
+    <t>991000350969704574</t>
+  </si>
+  <si>
+    <t>991000067479704574</t>
+  </si>
+  <si>
+    <t>991000107239704574</t>
+  </si>
+  <si>
+    <t>991000254419704574</t>
+  </si>
+  <si>
+    <t>991000244649704574</t>
+  </si>
+  <si>
+    <t>991000239839704574</t>
+  </si>
+  <si>
+    <t>991000249439704574</t>
+  </si>
+  <si>
+    <t>991000111799704574</t>
+  </si>
+  <si>
+    <t>The Symposium ; and, The Phaedrus</t>
+  </si>
+  <si>
+    <t>"When the lamp is shattered</t>
+  </si>
+  <si>
+    <t>Love and friendship in Plato and Aristotle</t>
+  </si>
+  <si>
+    <t>The Song of Eros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love and friendship </t>
+  </si>
+  <si>
+    <t>Four complete novels /</t>
+  </si>
+  <si>
+    <t>Boston marriages</t>
+  </si>
+  <si>
+    <t>The art of loving</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating love </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The pursuit of love </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Getting the love you want </t>
+  </si>
+  <si>
+    <t>Catullan provocations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Elizabethan love sonnet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sex, dating, and love </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erotic faith </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Angels of September </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Love &amp; loss </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Classical Hollywood comedy </t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>['Children', 'Conduct of life', 'Learning', 'Games', 'Courage', 'Perseverance (Ethics)', 'Kindness']</t>
-  </si>
-  <si>
-    <t>['Children', 'Conduct of life', 'School children', 'Perseverance (Ethics)']</t>
-  </si>
-  <si>
-    <t>['Orphans', 'Children', 'Conduct of life', 'Perseverance (Ethics)']</t>
-  </si>
-  <si>
-    <t>['Children', 'Conduct of life', 'Courage', 'Theft', 'Ethics']</t>
-  </si>
-  <si>
-    <t>['Brothers and sisters', 'Christian life', 'Children', 'Conduct of life', 'Perseverance (Ethics)']</t>
-  </si>
-  <si>
-    <t>['Children', 'Conduct of life', 'Perseverance (Ethics)', 'Diligence', 'Success', "Children's stories"]</t>
-  </si>
-  <si>
-    <t>['Children', 'Conduct of life', 'Perseverance (Ethics)', 'Success', 'Brothers and sisters']</t>
-  </si>
-  <si>
-    <t>['Conduct of life']</t>
-  </si>
-  <si>
-    <t>['Perseverance (Ethics)', 'Orphans', 'Success', 'Poverty', 'Inheritance and succession']</t>
-  </si>
-  <si>
-    <t>['Children']</t>
-  </si>
-  <si>
-    <t>['children', 'conduct', 'life', 'learning', 'games', 'courage', 'perseverance', 'ethics', 'kindness']</t>
-  </si>
-  <si>
-    <t>['children', 'conduct', 'life', 'school', 'perseverance', 'ethics']</t>
-  </si>
-  <si>
-    <t>['orphans', 'children', 'conduct', 'life', 'perseverance', 'ethics']</t>
-  </si>
-  <si>
-    <t>['children', 'conduct', 'life', 'courage', 'theft', 'ethics']</t>
-  </si>
-  <si>
-    <t>['brothers', 'sisters', 'christian', 'life', 'children', 'conduct', 'perseverance', 'ethics']</t>
-  </si>
-  <si>
-    <t>['children', 'conduct', 'life', 'perseverance', 'ethics', 'diligence', 'success', 'stories']</t>
-  </si>
-  <si>
-    <t>['children', 'conduct', 'life', 'perseverance', 'ethics', 'success', 'brothers', 'sisters']</t>
-  </si>
-  <si>
-    <t>['conduct', 'life']</t>
-  </si>
-  <si>
-    <t>['perseverance', 'ethics', 'orphans', 'success', 'poverty', 'inheritance', 'succession']</t>
-  </si>
-  <si>
-    <t>['children']</t>
-  </si>
-  <si>
-    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['learning', 'acquisition', 'eruditeness', 'erudition', 'learnedness', 'scholarship', 'encyclopedism', 'encyclopaedism', 'learn', 'larn', 'acquire', 'hear', 'get_word', 'get_wind', 'pick_up', 'find_out', 'get_a_line', 'discover', 'see', 'memorize', 'memorise', 'con', 'study', 'read', 'take', 'teach', 'instruct', 'determine', 'check', 'ascertain', 'watch'], ['games', 'game', 'plot', 'secret_plan', 'biz', 'bet_on', 'back', 'gage', 'stake', 'punt'], ['courage', 'courageousness', 'bravery', 'braveness'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code'], ['kindness', 'forgivingness', 'benignity']]</t>
-  </si>
-  <si>
-    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['schools', 'school', 'schoolhouse', 'schooling', 'schooltime', 'school_day', 'shoal', 'educate', 'train', 'cultivate', 'civilize', 'civilise'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code']]</t>
-  </si>
-  <si>
-    <t>[['orphans', 'orphan'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code']]</t>
-  </si>
-  <si>
-    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['courage', 'courageousness', 'bravery', 'braveness'], ['theft', 'larceny', 'thievery', 'thieving', 'stealing'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code']]</t>
-  </si>
-  <si>
-    <t>[['brothers', 'brother', 'blood_brother', 'buddy', 'chum', 'crony', 'pal', 'sidekick', 'comrade', 'Brother'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe'], ['christian', 'Christian'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code']]</t>
-  </si>
-  <si>
-    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code'], ['industry', 'manufacture', 'diligence', 'industriousness'], ['success', 'achiever', 'winner', 'succeeder'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
-  </si>
-  <si>
-    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['life', 'living', 'animation', 'aliveness', 'lifetime', 'life-time', 'lifespan', 'liveliness', 'spirit', 'sprightliness', 'biography', 'life_story', 'life_history', 'life_sentence'], ['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code'], ['success', 'achiever', 'winner', 'succeeder'], ['brothers', 'brother', 'blood_brother', 'buddy', 'chum', 'crony', 'pal', 'sidekick', 'comrade', 'Brother'], ['sisters', 'sister', 'sis', 'Sister', 'baby', 'babe']]</t>
-  </si>
-  <si>
-    <t>[['conduct', 'behavior', 'behaviour', 'doings', 'demeanor', 'demeanour', 'deportment', 'carry_on', 'deal', 'lead', 'direct', 'behave', 'acquit', 'bear', 'deport', 'comport', 'carry', 'take', 'guide', 'impart', 'transmit', 'convey', 'channel'], ['lifestyle', 'life_style', 'life-style', 'modus_vivendi']]</t>
-  </si>
-  <si>
-    <t>[['perseverance', 'doggedness', 'persistence', 'persistency', 'tenacity', 'tenaciousness', 'pertinacity', 'perseveration'], ['ethics', 'ethical_motive', 'morals', 'morality', 'moral_philosophy', 'ethic', 'moral_principle', 'value-system', 'value_orientation', 'ethical_code'], ['orphans', 'orphan'], ['success', 'achiever', 'winner', 'succeeder'], ['poverty', 'poorness', 'impoverishment'], ['inheritance', 'heritage', 'hereditary_pattern'], ['succession', 'sequence', 'chronological_sequence', 'successiveness', 'chronological_succession', 'ecological_succession', 'taking_over']]</t>
-  </si>
-  <si>
-    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby']]</t>
+    <t>['Love', 'Soul', 'Rhetoric, Ancient.']</t>
+  </si>
+  <si>
+    <t>['Love poetry, Latin', 'Psychoanalysis and literature.', 'Desire in literature.', 'Narration (Rhetoric)', 'Rome in literature.', 'Rhetoric, Ancient.']</t>
+  </si>
+  <si>
+    <t>['Love', 'Friendship']</t>
+  </si>
+  <si>
+    <t>['Love poetry, Greek']</t>
+  </si>
+  <si>
+    <t>['Love in literature.', 'European literature', 'Friendship in literature.']</t>
+  </si>
+  <si>
+    <t>['Literature.', 'Historical fiction.', 'Love stories.', 'Historical fiction. ', 'Love stories. ']</t>
+  </si>
+  <si>
+    <t>['Lesbian couples', 'Platonic love.']</t>
+  </si>
+  <si>
+    <t>['Love.']</t>
+  </si>
+  <si>
+    <t>['Love.', 'Love']</t>
+  </si>
+  <si>
+    <t>['Marriage', 'Love.']</t>
+  </si>
+  <si>
+    <t>['Verse satire, Latin', 'Love poetry, Latin', 'Epigrams, Latin']</t>
+  </si>
+  <si>
+    <t>['Sonnets, English', 'English poetry', 'Love poetry, English']</t>
+  </si>
+  <si>
+    <t>['Dating (Social customs)', 'Love.', 'Sex.']</t>
+  </si>
+  <si>
+    <t>['English fiction', 'Love stories, English', 'English fiction', 'Love in literature.', 'Literature.']</t>
+  </si>
+  <si>
+    <t>['Love stories.', 'Detective and mystery stories.']</t>
+  </si>
+  <si>
+    <t>['Love stories, English.', 'Love stories, American.', 'English fiction', 'American fiction', 'English fiction', 'American fiction']</t>
+  </si>
+  <si>
+    <t>['Comedy films', 'Love in motion pictures.']</t>
+  </si>
+  <si>
+    <t>['love', 'soul', 'rhetoric', 'ancient']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'latin', 'psychoanalysis', 'literature', 'desire', 'narration', 'rhetoric', 'rome', 'ancient']</t>
+  </si>
+  <si>
+    <t>['love', 'friendship']</t>
+  </si>
+  <si>
+    <t>['love', 'poetry', 'greek']</t>
+  </si>
+  <si>
+    <t>['love', 'literature', 'european', 'friendship']</t>
+  </si>
+  <si>
+    <t>['literature', 'historical', 'fiction', 'love', 'stories']</t>
+  </si>
+  <si>
+    <t>['lesbian', 'couples', 'platonic', 'love']</t>
+  </si>
+  <si>
+    <t>['love']</t>
+  </si>
+  <si>
+    <t>['marriage', 'love']</t>
+  </si>
+  <si>
+    <t>['verse', 'satire', 'latin', 'love', 'epigrams']</t>
+  </si>
+  <si>
+    <t>['sonnets', 'english', 'poetry', 'love']</t>
+  </si>
+  <si>
+    <t>['dating', 'social', 'customs', 'love', 'sex']</t>
+  </si>
+  <si>
+    <t>['english', 'fiction', 'love', 'stories', 'literature']</t>
+  </si>
+  <si>
+    <t>['love', 'stories', 'detective', 'mystery']</t>
+  </si>
+  <si>
+    <t>['love', 'stories', 'english', 'american', 'fiction']</t>
+  </si>
+  <si>
+    <t>['comedy', 'films', 'love', 'motion', 'pictures']</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['soul', 'psyche', 'person', 'individual', 'someone', 'somebody', 'mortal', 'soulfulness'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['ancient', 'antediluvian']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['psychoanalysis', 'analysis', 'depth_psychology'], ['literature', 'lit'], ['desire', 'want', 'hope', 'trust'], ['tales', 'narrative', 'narration', 'story', 'tale', 'fib', 'tarradiddle', 'taradiddle'], ['rhetoric', 'grandiosity', 'magniloquence', 'ornateness', 'grandiloquence', 'palaver', 'hot_air', 'empty_words', 'empty_talk'], ['rome', 'Rome', 'Roma', 'Eternal_City', 'Italian_capital', 'capital_of_Italy'], ['ancient', 'antediluvian']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['friendship', 'friendly_relationship']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['poetry', 'poesy', 'verse'], ['greek', 'Greek', 'Hellenic', 'Hellenic_language', 'Hellene', 'Grecian']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['literature', 'lit'], ['european', 'European'], ['friendship', 'friendly_relationship']]</t>
+  </si>
+  <si>
+    <t>[['literature', 'lit'], ['historical', 'historic', 'diachronic'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['lesbian', 'tribade', 'gay_woman', 'Lesbian', 'sapphic'], ['couples', 'couple', 'twosome', 'duo', 'duet', 'mates', 'match', 'pair', 'twain', 'brace', 'span', 'yoke', 'couplet', 'distich', 'dyad', 'duad', 'mate', 'twin', 'couple_on', 'couple_up', 'pair_off', 'partner_off', 'copulate'], ['platonic', 'Platonic'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['marriage', 'matrimony', 'union', 'spousal_relationship', 'wedlock', 'married_couple', 'man_and_wife', 'wedding', 'marriage_ceremony'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['poetry', 'poesy', 'verse'], ['satire', 'sarcasm', 'irony', 'caustic_remark'], ['romance', 'love_affair', 'romanticism', 'Romance', 'Romance_language', 'Latinian_language', 'love_story', 'woo', 'court', 'solicit', 'chat_up', 'flirt', 'dally', 'butterfly', 'coquet', 'coquette', 'philander', 'mash', 'Latin'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['epigrams', 'epigram', 'quip']]</t>
+  </si>
+  <si>
+    <t>[['sonnets', 'sonnet'], ['english', 'English', 'English_language', 'English_people', 'side'], ['poetry', 'poesy', 'verse'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk']]</t>
+  </si>
+  <si>
+    <t>[['dating', 'geological_dating', 'date', 'date_stamp', 'go_steady', 'go_out', 'see'], ['social', 'sociable', 'mixer', 'societal'], ['customs', 'customs_duty', 'custom', 'impost', 'usage', 'usance', 'tradition'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['sex', 'sexual_activity', 'sexual_practice', 'sex_activity', 'sexual_urge', 'gender', 'sexuality', 'arouse', 'excite', 'turn_on', 'wind_up']]</t>
+  </si>
+  <si>
+    <t>[['english', 'English', 'English_language', 'English_people', 'side'], ['fiction', 'fabrication', 'fable'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['literature', 'lit']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['detective', 'investigator', 'tec', 'police_detective'], ['mystery', 'enigma', 'secret', 'closed_book', 'mystery_story', 'whodunit']]</t>
+  </si>
+  <si>
+    <t>[['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle'], ['english', 'English', 'English_language', 'English_people', 'side'], ['american', 'American', 'American_English', 'American_language'], ['fiction', 'fabrication', 'fable']]</t>
+  </si>
+  <si>
+    <t>[['comedy', 'drollery', 'clowning', 'funniness'], ['films', 'movie', 'film', 'picture', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'cinema', 'celluloid', 'photographic_film', 'plastic_film', 'shoot', 'take'], ['love', 'passion', 'beloved', 'dear', 'dearest', 'honey', 'sexual_love', 'erotic_love', 'lovemaking', 'making_love', 'love_life', 'enjoy', 'sleep_together', 'roll_in_the_hay', 'make_out', 'make_love', 'sleep_with', 'get_laid', 'have_sex', 'know', 'do_it', 'be_intimate', 'have_intercourse', 'have_it_away', 'have_it_off', 'screw', 'fuck', 'jazz', 'eff', 'hump', 'lie_with', 'bed', 'have_a_go_at_it', 'bang', 'get_it_on', 'bonk'], ['motion', 'gesture', 'movement', 'move', 'motility', 'question', 'apparent_motion', 'apparent_movement', 'gesticulate'], ['pictures', 'picture', 'image', 'icon', 'ikon', 'painting', 'mental_picture', 'impression', 'scene', 'pictorial_matter', 'movie', 'film', 'moving_picture', 'moving-picture_show', 'motion_picture', 'motion-picture_show', 'picture_show', 'pic', 'flick', 'video', 'word_picture', 'word-painting', 'delineation', 'depiction', 'characterization', 'characterisation', 'photograph', 'photo', 'exposure', 'visualize', 'visualise', 'envision', 'project', 'fancy', 'see', 'figure', 'depict', 'render', 'show']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -625,42 +685,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="55.7109375" customWidth="1"/>
-    <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="104.7109375" customWidth="1"/>
-    <col min="6" max="6" width="103.7109375" customWidth="1"/>
-    <col min="7" max="7" width="103.7109375" customWidth="1"/>
-    <col min="8" max="8" width="1270.7109375" customWidth="1"/>
+    <col min="3" max="3" width="44.7109375" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
+    <col min="5" max="5" width="152.7109375" customWidth="1"/>
+    <col min="6" max="6" width="115.7109375" customWidth="1"/>
+    <col min="7" max="7" width="115.7109375" customWidth="1"/>
+    <col min="8" max="8" width="1336.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1">
@@ -671,22 +731,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -697,22 +757,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3">
+        <v>0.5234044219056765</v>
+      </c>
+      <c r="E3" t="s">
         <v>41</v>
       </c>
-      <c r="E3" t="s">
-        <v>40</v>
-      </c>
       <c r="F3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="H3" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -723,22 +783,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>41</v>
+        <v>0.3597325310111046</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="G4" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H4" t="s">
-        <v>61</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -749,22 +809,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>38</v>
+        <v>0.3291856169700623</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="H5" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -775,22 +835,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6">
-        <v>37</v>
+        <v>0.3291856169700623</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H6" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -801,22 +861,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>36</v>
+        <v>0.3079289098580678</v>
       </c>
       <c r="E7" t="s">
         <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -827,22 +887,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>0.2782811735357557</v>
       </c>
       <c r="E8" t="s">
         <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="G8" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H8" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -853,22 +913,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>0.2638702914118767</v>
       </c>
       <c r="E9" t="s">
         <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -882,19 +942,19 @@
         <v>27</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>0.2638702914118767</v>
       </c>
       <c r="E10" t="s">
         <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -908,19 +968,19 @@
         <v>28</v>
       </c>
       <c r="D11">
-        <v>20</v>
+        <v>0.2500000298023224</v>
       </c>
       <c r="E11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H11" t="s">
-        <v>66</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -934,19 +994,19 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>19</v>
+        <v>0.2500000298023224</v>
       </c>
       <c r="E12" t="s">
         <v>47</v>
       </c>
       <c r="F12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H12" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -960,19 +1020,19 @@
         <v>30</v>
       </c>
       <c r="D13">
-        <v>11</v>
+        <v>0.2500000298023224</v>
       </c>
       <c r="E13" t="s">
         <v>48</v>
       </c>
       <c r="F13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="G13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="H13" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -986,19 +1046,19 @@
         <v>31</v>
       </c>
       <c r="D14">
-        <v>11</v>
+        <v>0.2479681879281998</v>
       </c>
       <c r="E14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="G14" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H14" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1012,19 +1072,19 @@
         <v>32</v>
       </c>
       <c r="D15">
-        <v>11</v>
+        <v>0.2304800916463137</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G15" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H15" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1035,22 +1095,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>11</v>
+        <v>0.2304800916463137</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="F16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="G16" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="H16" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1061,22 +1121,22 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17">
-        <v>11</v>
+        <v>0.224052763410977</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G17" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H17" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1087,22 +1147,22 @@
         <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>0.2120630508288741</v>
       </c>
       <c r="E18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1113,22 +1173,22 @@
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>11</v>
+        <v>0.2099261004477739</v>
       </c>
       <c r="E19" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="G19" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="H19" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1139,22 +1199,74 @@
         <v>18</v>
       </c>
       <c r="C20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20">
+        <v>0.1973240753369672</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
         <v>37</v>
       </c>
-      <c r="D20">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" t="s">
-        <v>68</v>
+      <c r="D21">
+        <v>0.1941369557753205</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" t="s">
+        <v>71</v>
+      </c>
+      <c r="H21" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="3">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22">
+        <v>0.1649561673402786</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>72</v>
+      </c>
+      <c r="G22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H22" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/BackEnd/files/report.xlsx
+++ b/BackEnd/files/report.xlsx
@@ -7,199 +7,145 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="99153832509803941" sheetId="1" r:id="rId1"/>
+    <sheet name="990096057500203941" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
-  <si>
-    <t>99153832509803941</t>
-  </si>
-  <si>
-    <t>990151685350203941</t>
-  </si>
-  <si>
-    <t>99153810479603941</t>
-  </si>
-  <si>
-    <t>990039859500203941</t>
-  </si>
-  <si>
-    <t>99153858706103941</t>
-  </si>
-  <si>
-    <t>990151683810203941</t>
-  </si>
-  <si>
-    <t>990151685460203941</t>
-  </si>
-  <si>
-    <t>990151729200203941</t>
-  </si>
-  <si>
-    <t>990147191860203941</t>
-  </si>
-  <si>
-    <t>990147191950203941</t>
-  </si>
-  <si>
-    <t>990146404780203941</t>
-  </si>
-  <si>
-    <t>99155558556203941</t>
-  </si>
-  <si>
-    <t>990139226820203941</t>
-  </si>
-  <si>
-    <t>990140074040203941</t>
-  </si>
-  <si>
-    <t>990133446620203941</t>
-  </si>
-  <si>
-    <t>990148379650203941</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Watchtower </t>
-  </si>
-  <si>
-    <t>Sky island</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ojo in Oz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Wizard of Oz &amp; who he was </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The lost king of Oz </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Hidden Valley of Oz </t>
-  </si>
-  <si>
-    <t>Dorothy and the Wizard in Oz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The sea fairies </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The silver gryphon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Storm breaking </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The white gryphon </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stories of adventure </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eric </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gullivers' travels, and other writings </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blade of fire </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Barefoot in the head </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+  <si>
+    <t>990096057500203941</t>
+  </si>
+  <si>
+    <t>99155558939603941</t>
+  </si>
+  <si>
+    <t>99155559126103941</t>
+  </si>
+  <si>
+    <t>99155558492803941</t>
+  </si>
+  <si>
+    <t>99155558965603941</t>
+  </si>
+  <si>
+    <t>99155558145203941</t>
+  </si>
+  <si>
+    <t>990110696010203941</t>
+  </si>
+  <si>
+    <t>99155558164503941</t>
+  </si>
+  <si>
+    <t>990074453570203941</t>
+  </si>
+  <si>
+    <t>990020051260203941</t>
+  </si>
+  <si>
+    <t>99155558869403941</t>
+  </si>
+  <si>
+    <t>99155558870203941</t>
+  </si>
+  <si>
+    <t>990095455580203941</t>
+  </si>
+  <si>
+    <t>99155558736003941</t>
+  </si>
+  <si>
+    <t>99155559184303941</t>
+  </si>
+  <si>
+    <t>99155558453303941</t>
+  </si>
+  <si>
+    <t>99155558347003941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Last breath </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Willie wishing to be useful </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historical tales of illustrious British children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stories of colonial children </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As we sweep through the deep </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our folks at home, or, life at the old manor house </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bambina </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Greek children </t>
+  </si>
+  <si>
+    <t>The Dutch twins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Town house, country house </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The balloon and other stories </t>
+  </si>
+  <si>
+    <t xml:space="preserve">My own cottage stories for summer hours </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ashes rise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The old bureau </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Children's sayings, or, Early life at home </t>
+  </si>
+  <si>
+    <t>The Arabian nights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Henry and his bearer </t>
   </si>
   <si>
     <t>-</t>
   </si>
   <si>
-    <t>['Imaginary places', 'Imaginary places']</t>
-  </si>
-  <si>
-    <t>['Fantasy', 'Imaginary places', 'Fantasy', 'Imaginary places.']</t>
-  </si>
-  <si>
-    <t>['Oz (Imaginary place)', 'Oz (Imaginary place)']</t>
-  </si>
-  <si>
-    <t>['Oz (Imaginary place)']</t>
-  </si>
-  <si>
-    <t>['Valdemar (Imaginary place)', 'Valdemar (Imaginary place)']</t>
-  </si>
-  <si>
-    <t>['Voyages, Imaginary']</t>
-  </si>
-  <si>
-    <t>['Discworld (Imaginary place)']</t>
-  </si>
-  <si>
-    <t>['Voyages, Imaginary', 'Travelers']</t>
-  </si>
-  <si>
-    <t>['Imaginary wars and battles', 'Imaginary wars and battles', 'Fantasy.']</t>
-  </si>
-  <si>
-    <t>['Imaginary wars and battles', 'Imaginary wars and battles']</t>
-  </si>
-  <si>
-    <t>['imaginary', 'places']</t>
-  </si>
-  <si>
-    <t>['fantasy', 'imaginary', 'places']</t>
-  </si>
-  <si>
-    <t>['oz', 'imaginary', 'place']</t>
-  </si>
-  <si>
-    <t>['valdemar', 'imaginary', 'place']</t>
-  </si>
-  <si>
-    <t>['voyages', 'imaginary']</t>
-  </si>
-  <si>
-    <t>['discworld', 'imaginary', 'place']</t>
-  </si>
-  <si>
-    <t>['voyages', 'imaginary', 'travelers']</t>
-  </si>
-  <si>
-    <t>['imaginary', 'wars', 'battles', 'fantasy']</t>
-  </si>
-  <si>
-    <t>['imaginary', 'wars', 'battles']</t>
-  </si>
-  <si>
-    <t>[['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['places', 'topographic_point', 'place', 'spot', 'property', 'stead', 'position', 'lieu', 'shoes', 'home', 'post', 'berth', 'office', 'billet', 'situation', 'station', 'seat', 'plaza', 'piazza', 'space', 'blank_space', 'put', 'set', 'pose', 'lay', 'rate', 'rank', 'range', 'order', 'grade', 'locate', 'site', 'come_in', 'come_out', 'target', 'aim', 'direct', 'point', 'identify', 'localize', 'localise', 'invest', 'commit', 'send']]</t>
-  </si>
-  <si>
-    <t>[['fantasy', 'phantasy', 'illusion', 'fancy', 'fantasize', 'fantasise'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['places', 'topographic_point', 'place', 'spot', 'property', 'stead', 'position', 'lieu', 'shoes', 'home', 'post', 'berth', 'office', 'billet', 'situation', 'station', 'seat', 'plaza', 'piazza', 'space', 'blank_space', 'put', 'set', 'pose', 'lay', 'rate', 'rank', 'range', 'order', 'grade', 'locate', 'site', 'come_in', 'come_out', 'target', 'aim', 'direct', 'point', 'identify', 'localize', 'localise', 'invest', 'commit', 'send']]</t>
-  </si>
-  <si>
-    <t>[['oz'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['stations', 'Stations', 'Stations_of_the_Cross', 'station', 'place', 'post', 'send']]</t>
-  </si>
-  <si>
-    <t>[['valdemar'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['homes', 'home', 'place', 'dwelling', 'domicile', 'abode', 'habitation', 'dwelling_house', 'home_plate', 'home_base', 'plate', 'base', 'family', 'household', 'house', 'menage', 'nursing_home', 'rest_home']]</t>
-  </si>
-  <si>
-    <t>[['valdemar'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['stations', 'Stations', 'Stations_of_the_Cross', 'station', 'place', 'post', 'send']]</t>
-  </si>
-  <si>
-    <t>[['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional']]</t>
-  </si>
-  <si>
-    <t>[['discworld'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['stations', 'Stations', 'Stations_of_the_Cross', 'station', 'place', 'post', 'send']]</t>
-  </si>
-  <si>
-    <t>[['voyages', 'ocean_trip', 'voyage', 'sail', 'navigate'], ['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['travelers', 'traveler', 'traveller']]</t>
-  </si>
-  <si>
-    <t>[['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['wars', 'war', 'warfare', 'state_of_war'], ['battles', 'battle', 'conflict', 'fight', 'engagement', 'struggle', 'combat'], ['fantasy', 'phantasy', 'illusion', 'fancy', 'fantasize', 'fantasise']]</t>
-  </si>
-  <si>
-    <t>[['imaginary', 'complex_number', 'complex_quantity', 'imaginary_number', 'fanciful', 'notional'], ['wars', 'war', 'warfare', 'state_of_war'], ['battles', 'battle', 'conflict', 'fight', 'engagement', 'struggle', 'combat']]</t>
+    <t>['Children']</t>
+  </si>
+  <si>
+    <t>["Children's stories"]</t>
+  </si>
+  <si>
+    <t>['Children', 'Conversion']</t>
+  </si>
+  <si>
+    <t>['children']</t>
+  </si>
+  <si>
+    <t>['children', 'stories']</t>
+  </si>
+  <si>
+    <t>['children', 'conversion']</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby']]</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['stories', 'narrative', 'narration', 'story', 'tale', 'floor', 'level', 'storey', 'history', 'account', 'chronicle', 'report', 'news_report', 'write_up', 'fib', 'tarradiddle', 'taradiddle']]</t>
+  </si>
+  <si>
+    <t>[['children', 'child', 'kid', 'youngster', 'minor', 'shaver', 'nipper', 'small_fry', 'tiddler', 'tike', 'tyke', 'fry', 'nestling', 'baby'], ['conversion', 'transition', 'changeover', 'rebirth', 'spiritual_rebirth']]</t>
   </si>
   <si>
     <t>Book ID</t>
@@ -604,42 +550,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.7109375" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" customWidth="1"/>
-    <col min="5" max="5" width="74.7109375" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="604.7109375" customWidth="1"/>
+    <col min="5" max="5" width="28.7109375" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" customWidth="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1"/>
+    <col min="8" max="8" width="333.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="2" customFormat="1">
@@ -650,22 +596,22 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -676,22 +622,22 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -702,22 +648,22 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
         <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -728,22 +674,22 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -754,22 +700,22 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -780,22 +726,22 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E7" t="s">
         <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H7" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -806,22 +752,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D8">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E8" t="s">
         <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H8" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -832,22 +778,22 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
         <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H9" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -858,22 +804,22 @@
         <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H10" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -884,22 +830,22 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H11" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -910,22 +856,22 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -936,22 +882,22 @@
         <v>11</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D13">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="H13" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -962,22 +908,22 @@
         <v>12</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="H14" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -988,22 +934,22 @@
         <v>13</v>
       </c>
       <c r="C15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="H15" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1014,22 +960,22 @@
         <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>100</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H16" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1040,22 +986,48 @@
         <v>15</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D17">
+        <v>39</v>
+      </c>
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>33</v>
+      </c>
+      <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="E17" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" t="s">
-        <v>51</v>
-      </c>
-      <c r="G17" t="s">
-        <v>51</v>
-      </c>
-      <c r="H17" t="s">
-        <v>61</v>
+      <c r="F18" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" t="s">
+        <v>40</v>
+      </c>
+      <c r="H18" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
